--- a/Results/Categorization/lda-partial-ner-money.xlsx
+++ b/Results/Categorization/lda-partial-ner-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1847">
   <si>
     <t>id</t>
   </si>
@@ -4024,862 +4024,1165 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
   </si>
   <si>
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|SERVICE|FOOD|SERVICE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|PRICES|PRICES|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|SERVICE|FOOD|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>PRICES|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
+    <t>FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>PRICES|FOOD|SERVICE|PRICES</t>
+    <t>AMBIENCE|PRICES|PRICES|PRICES|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
   </si>
   <si>
     <t>PRICES|PRICES</t>
   </si>
   <si>
+    <t>SERVICE|SERVICE|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
     <t>FOOD|AMBIENCE|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|SERVICE|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+    <t>FOOD|FOOD|FOOD|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE|FOOD|FOOD|FOOD|SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
+    <t>FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|SERVICE|PRICES</t>
   </si>
   <si>
     <t>FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|PRICES|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>place|like|staff|rude</t>
-  </si>
-  <si>
-    <t>food|good|always|time</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>good|wine</t>
-  </si>
-  <si>
-    <t>cart|attendant|lotus|leaf</t>
-  </si>
-  <si>
-    <t>great|food</t>
-  </si>
-  <si>
-    <t>rude</t>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>place|like</t>
+  </si>
+  <si>
+    <t>food|salty</t>
+  </si>
+  <si>
+    <t>good|food|outrageously|many</t>
+  </si>
+  <si>
+    <t>duck|confit|foie|terrine|figs|world</t>
+  </si>
+  <si>
+    <t>wine|good|list|value|many|interesting</t>
+  </si>
+  <si>
+    <t>replied|walked|away|lotus|wrapped|back|attendant|asked|leaf|tend</t>
+  </si>
+  <si>
+    <t>food|great|thing</t>
+  </si>
+  <si>
+    <t>table|share</t>
   </si>
   <si>
     <t>service|price</t>
   </si>
   <si>
-    <t>service|always</t>
-  </si>
-  <si>
-    <t>duck|breast|visit</t>
-  </si>
-  <si>
-    <t>thing|chicken|edamame|puree</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>sake|list|haze|request</t>
-  </si>
-  <si>
-    <t>great|tuna|good</t>
-  </si>
-  <si>
-    <t>great|service</t>
+    <t>service|cool|everything|excellent|cooked|perfection|thing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>food|thing</t>
+  </si>
+  <si>
+    <t>special|thing</t>
+  </si>
+  <si>
+    <t>edamame|pureed|salt</t>
+  </si>
+  <si>
+    <t>made|list|list</t>
+  </si>
+  <si>
+    <t>good|great|spicy|rock|unusually|tuna|awesome|roll|shrimp|tempura|share</t>
+  </si>
+  <si>
+    <t>service|great</t>
+  </si>
+  <si>
+    <t>food|awesome</t>
   </si>
   <si>
     <t>service|friendly</t>
   </si>
   <si>
+    <t>long|like</t>
+  </si>
+  <si>
+    <t>food|great</t>
+  </si>
+  <si>
+    <t>restaurant|sushi|sushi|urchin|judge|heavenly|tend|rose</t>
+  </si>
+  <si>
+    <t>fresh|sushi</t>
+  </si>
+  <si>
+    <t>good|also</t>
+  </si>
+  <si>
+    <t>sushi|took|price|deal</t>
+  </si>
+  <si>
+    <t>service|food</t>
+  </si>
+  <si>
+    <t>menu|enough</t>
+  </si>
+  <si>
+    <t>food|fresh|$6</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good|food|like|rather</t>
+  </si>
+  <si>
+    <t>like|somosas|chai|dissapointing|dhosas</t>
+  </si>
+  <si>
+    <t>food|like|specify|bland|spicy|also|rather</t>
+  </si>
+  <si>
+    <t>probably|would</t>
+  </si>
+  <si>
+    <t>long|river</t>
+  </si>
+  <si>
+    <t>service|even|food|great|great|great|price|reasonable</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>cosette|path|bistro</t>
+  </si>
+  <si>
+    <t>restaurant|certain</t>
+  </si>
+  <si>
+    <t>even|live</t>
+  </si>
+  <si>
+    <t>overpriced|price</t>
+  </si>
+  <si>
+    <t>good|even</t>
+  </si>
+  <si>
+    <t>meals|life|minnow</t>
+  </si>
+  <si>
+    <t>wine|good|food|menu|great|list</t>
+  </si>
+  <si>
+    <t>fresh|delicious</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>sign|even|food|special|menu|waitstaff</t>
+  </si>
+  <si>
+    <t>good|special|live|atmosphere</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>wine|price|reasonable</t>
+  </si>
+  <si>
+    <t>service|food|great|delicious|excellent</t>
+  </si>
+  <si>
+    <t>hostess|point</t>
+  </si>
+  <si>
+    <t>food|bland</t>
+  </si>
+  <si>
+    <t>wine|service|place|food|great|many</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>wine|great</t>
+  </si>
+  <si>
+    <t>people|friendly</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>toppings|$20,</t>
+  </si>
+  <si>
+    <t>good|review</t>
+  </si>
+  <si>
+    <t>food|sauce</t>
+  </si>
+  <si>
+    <t>food|waitress</t>
+  </si>
+  <si>
+    <t>service|great|friendly</t>
+  </si>
+  <si>
+    <t>place|food</t>
+  </si>
+  <si>
+    <t>tuna</t>
+  </si>
+  <si>
+    <t>food|great|sushi|excellent</t>
+  </si>
+  <si>
+    <t>menu|great</t>
+  </si>
+  <si>
+    <t>great|atmosphere|price</t>
+  </si>
+  <si>
+    <t>good|fresh|roll</t>
+  </si>
+  <si>
+    <t>garden|terrace</t>
+  </si>
+  <si>
+    <t>great|table</t>
+  </si>
+  <si>
+    <t>restaurant|charm|rather|open</t>
+  </si>
+  <si>
+    <t>wine|great|great|price|value</t>
+  </si>
+  <si>
+    <t>good|food</t>
+  </si>
+  <si>
+    <t>like|fresh</t>
+  </si>
+  <si>
+    <t>food|great|great|review</t>
+  </si>
+  <si>
+    <t>service|special|recommend</t>
+  </si>
+  <si>
+    <t>spicy|roll</t>
+  </si>
+  <si>
+    <t>excellent|salty</t>
+  </si>
+  <si>
+    <t>took</t>
+  </si>
+  <si>
+    <t>overpriced|price|$8.00...just</t>
+  </si>
+  <si>
+    <t>made|wine|fairly|price|drink</t>
+  </si>
+  <si>
+    <t>service|deal</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
+    <t>restaurant|romantic</t>
+  </si>
+  <si>
+    <t>food|beautiful|beautifully|presented|delicious</t>
+  </si>
+  <si>
+    <t>wine|price|interesting</t>
+  </si>
+  <si>
+    <t>dinner|table|waitress|want|practically|told|asked|sitting|order</t>
+  </si>
+  <si>
+    <t>service|restaurant|food|away</t>
+  </si>
+  <si>
+    <t>special|especially</t>
+  </si>
+  <si>
+    <t>tuna|excellent</t>
+  </si>
+  <si>
+    <t>even|away|wonderful|atmosphere|outdoor|sidewalk|watching|sitting|cool</t>
+  </si>
+  <si>
+    <t>service|food|great|great</t>
+  </si>
+  <si>
+    <t>menu|would</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>restaurant|food</t>
+  </si>
+  <si>
+    <t>dining|restaurant</t>
+  </si>
+  <si>
+    <t>service|table</t>
+  </si>
+  <si>
+    <t>staff|nonsense</t>
+  </si>
+  <si>
+    <t>live|free|would|would</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>special|roll|rose</t>
+  </si>
+  <si>
+    <t>service|good</t>
+  </si>
+  <si>
+    <t>good|food|long|wish|order</t>
+  </si>
+  <si>
+    <t>wine|wine|good|list</t>
+  </si>
+  <si>
+    <t>restaurant|rather</t>
+  </si>
+  <si>
+    <t>restaurant|even</t>
+  </si>
+  <si>
+    <t>good|food|table|fresh|order</t>
+  </si>
+  <si>
+    <t>dining|great</t>
+  </si>
+  <si>
+    <t>live|atmosphere|order|completely</t>
+  </si>
+  <si>
+    <t>simply</t>
+  </si>
+  <si>
+    <t>upscale|restaurant</t>
+  </si>
+  <si>
+    <t>made|food|food|delicious</t>
+  </si>
+  <si>
+    <t>food|cool|drink</t>
+  </si>
+  <si>
+    <t>made|place|good</t>
+  </si>
+  <si>
+    <t>made|food|delicious|recommend</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fresh|roll|recommend</t>
+  </si>
+  <si>
+    <t>guests|pizza|santa|fish|chips</t>
+  </si>
+  <si>
+    <t>service|food|wonderful|recommend</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>service|restaurant|good|thing</t>
+  </si>
+  <si>
+    <t>tuna|roll|sushi</t>
+  </si>
+  <si>
+    <t>delicious|everything|thing</t>
+  </si>
+  <si>
+    <t>service|price|although|reasonable</t>
+  </si>
+  <si>
+    <t>restaurant|food|fresh|fresh|delicious</t>
+  </si>
+  <si>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>fresh|delicious|spicy</t>
+  </si>
+  <si>
+    <t>great|people</t>
+  </si>
+  <si>
+    <t>like|atmosphere</t>
+  </si>
+  <si>
+    <t>good|vacation|although|business</t>
+  </si>
+  <si>
+    <t>great|although</t>
+  </si>
+  <si>
+    <t>good|sushi</t>
+  </si>
+  <si>
+    <t>spicy|tuna|roll|price|probably</t>
+  </si>
+  <si>
+    <t>food|menu|reservation|fairly|deal|probably|order|$18</t>
+  </si>
+  <si>
+    <t>service|food|great|price</t>
+  </si>
+  <si>
+    <t>atmosphere|thing</t>
+  </si>
+  <si>
+    <t>price|reasonable|$3-6</t>
+  </si>
+  <si>
+    <t>caesar|wife|arugula|goat|cheese</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>place|food|delicious</t>
+  </si>
+  <si>
+    <t>even|want|manager</t>
+  </si>
+  <si>
+    <t>service|good|food</t>
+  </si>
+  <si>
+    <t>service|service|good|good|food</t>
+  </si>
+  <si>
+    <t>wine|place|atmosphere</t>
+  </si>
+  <si>
+    <t>place|good</t>
+  </si>
+  <si>
+    <t>friend|mushroom|pizza</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>service|people|friendly</t>
+  </si>
+  <si>
+    <t>food|delicious</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>like|like|tuna</t>
+  </si>
+  <si>
+    <t>service|great|also</t>
+  </si>
+  <si>
+    <t>service|restaurant|food|excellent|review</t>
+  </si>
+  <si>
+    <t>mignon|dish</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>menu|order|thing</t>
+  </si>
+  <si>
+    <t>dining|made|wine|service|place|back|excellent</t>
+  </si>
+  <si>
+    <t>place|romantic|review</t>
+  </si>
+  <si>
+    <t>wine|restaurant|menu|typical|table|overpriced|simply|list|close|crammed|price</t>
+  </si>
+  <si>
+    <t>wine|list|$70+</t>
+  </si>
+  <si>
+    <t>service|price|would</t>
+  </si>
+  <si>
+    <t>service|charm</t>
+  </si>
+  <si>
+    <t>food|completely</t>
+  </si>
+  <si>
+    <t>made|bland|rose</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|would</t>
+  </si>
+  <si>
+    <t>also|recommend</t>
+  </si>
+  <si>
+    <t>service|fresh|delicious</t>
+  </si>
+  <si>
+    <t>service|place|cool</t>
+  </si>
+  <si>
+    <t>dining|fresh|music</t>
+  </si>
+  <si>
+    <t>service|menu|tend</t>
+  </si>
+  <si>
+    <t>service|wonderful</t>
+  </si>
+  <si>
+    <t>service|place|special|great|romantic|excellent</t>
+  </si>
+  <si>
+    <t>good|food|food|food|food|food|menu|great|like|price|price</t>
+  </si>
+  <si>
+    <t>place|place|romantic</t>
+  </si>
+  <si>
+    <t>characters|experience</t>
+  </si>
+  <si>
+    <t>service|food|although|order</t>
+  </si>
+  <si>
+    <t>price|drink</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>food|service</t>
-  </si>
-  <si>
-    <t>prix|fixe|menu|penny|quantity|quality</t>
-  </si>
-  <si>
-    <t>food|$6</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>food|like|good</t>
-  </si>
-  <si>
-    <t>nice|service|time|time</t>
-  </si>
-  <si>
-    <t>food|like</t>
-  </si>
-  <si>
-    <t>would|nice</t>
-  </si>
-  <si>
-    <t>river|idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>great|great|great|food|service|price</t>
-  </si>
-  <si>
-    <t>lava|cake|dessert</t>
-  </si>
-  <si>
-    <t>cosette|path|bistro</t>
-  </si>
-  <si>
-    <t>pizza|price</t>
-  </si>
-  <si>
-    <t>good|pizza</t>
-  </si>
-  <si>
-    <t>meals|life|minnow</t>
-  </si>
-  <si>
-    <t>great|food|good|always|wine</t>
-  </si>
-  <si>
-    <t>combination|ingredients|dishes</t>
-  </si>
-  <si>
-    <t>wife|shrimp</t>
-  </si>
-  <si>
-    <t>food|staff</t>
-  </si>
-  <si>
-    <t>atmosphere|good</t>
-  </si>
-  <si>
-    <t>friendly|always|always|staff|never</t>
-  </si>
-  <si>
-    <t>price|wine</t>
-  </si>
-  <si>
-    <t>great|food|service</t>
-  </si>
-  <si>
-    <t>great|food|place|service|always|wine|time</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>great|always|wine</t>
-  </si>
-  <si>
-    <t>friendly|always|time</t>
-  </si>
-  <si>
-    <t>like|pizza</t>
-  </si>
-  <si>
-    <t>toppings|$20,</t>
-  </si>
-  <si>
-    <t>great|service|friendly</t>
-  </si>
-  <si>
-    <t>great|service|pizza</t>
-  </si>
-  <si>
-    <t>sushi|hands</t>
-  </si>
-  <si>
-    <t>food|place</t>
-  </si>
-  <si>
-    <t>tuna</t>
-  </si>
-  <si>
-    <t>great|food|always</t>
-  </si>
-  <si>
-    <t>great|never</t>
-  </si>
-  <si>
-    <t>great|atmosphere|price</t>
-  </si>
-  <si>
-    <t>menu|choices|dumplings|appetizer|section</t>
-  </si>
-  <si>
-    <t>garden|terrace</t>
-  </si>
-  <si>
-    <t>great|great|price|wine</t>
-  </si>
-  <si>
-    <t>food|good</t>
-  </si>
-  <si>
-    <t>like|pizza|pizza</t>
-  </si>
-  <si>
-    <t>great|great|food</t>
-  </si>
-  <si>
-    <t>nice|service</t>
-  </si>
-  <si>
-    <t>scallop|roll</t>
-  </si>
-  <si>
-    <t>moules|ravioli</t>
-  </si>
-  <si>
-    <t>price|$8.00...just</t>
-  </si>
-  <si>
-    <t>always|price|wine</t>
-  </si>
-  <si>
-    <t>chef|specials</t>
-  </si>
-  <si>
-    <t>good|always</t>
-  </si>
-  <si>
-    <t>waitress|table|bathroom|dinner|orders|toilet</t>
-  </si>
-  <si>
-    <t>restaurant|food|service|rude</t>
-  </si>
-  <si>
-    <t>everythig|shows|actors</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>great|great|food|service</t>
-  </si>
-  <si>
-    <t>pizza|pizza|cheap</t>
-  </si>
-  <si>
-    <t>restaurant|food</t>
-  </si>
-  <si>
-    <t>would|would</t>
-  </si>
-  <si>
-    <t>sake|menu</t>
-  </si>
-  <si>
-    <t>teriyaki|roll</t>
-  </si>
-  <si>
-    <t>service|good</t>
-  </si>
-  <si>
-    <t>good|wine|wine</t>
-  </si>
-  <si>
-    <t>restaurant|always</t>
-  </si>
-  <si>
-    <t>atmosphere|time</t>
-  </si>
-  <si>
-    <t>food|food</t>
-  </si>
-  <si>
-    <t>place|good</t>
-  </si>
-  <si>
-    <t>workers|bagel|cream|cheese</t>
-  </si>
-  <si>
-    <t>food|service|time</t>
-  </si>
-  <si>
-    <t>roll|mayo</t>
-  </si>
-  <si>
-    <t>chow|chow|oily</t>
-  </si>
-  <si>
-    <t>scallion|pancakes|dumplings|nothing</t>
-  </si>
-  <si>
-    <t>restaurant|service|good</t>
-  </si>
-  <si>
-    <t>penang|everything</t>
-  </si>
-  <si>
-    <t>hats|chef</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>atmosphere|like</t>
-  </si>
-  <si>
-    <t>tuna|price</t>
-  </si>
-  <si>
-    <t>food|$18</t>
-  </si>
-  <si>
-    <t>great|food|service|price</t>
-  </si>
-  <si>
-    <t>price|$3-6</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>tiramisu|chocolate|cake</t>
-  </si>
-  <si>
-    <t>food|place|staff</t>
-  </si>
-  <si>
-    <t>visit|manager</t>
-  </si>
-  <si>
-    <t>food|service|good|time</t>
-  </si>
-  <si>
-    <t>food|service|service|good|good|time|time</t>
-  </si>
-  <si>
-    <t>place|atmosphere|wine</t>
-  </si>
-  <si>
-    <t>place|nice|good|pizza</t>
-  </si>
-  <si>
-    <t>goat|cheese|panchetta|raddichio|kind</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>place|nice</t>
-  </si>
-  <si>
-    <t>tuna|like|like</t>
-  </si>
-  <si>
-    <t>restaurant|food|service|time</t>
-  </si>
-  <si>
-    <t>mignon|dish</t>
-  </si>
-  <si>
-    <t>beef|noodle|soup|dishes|section|menu|nothing</t>
-  </si>
-  <si>
-    <t>place|service|pizza|wine</t>
-  </si>
-  <si>
-    <t>restaurant|price|wine</t>
-  </si>
-  <si>
-    <t>wine|$70+</t>
-  </si>
-  <si>
-    <t>would|service|price</t>
-  </si>
-  <si>
-    <t>meals|bland|rosemary|orange|flavoring</t>
-  </si>
-  <si>
-    <t>would|place|nice|staff|never</t>
-  </si>
-  <si>
-    <t>someone|dessert</t>
-  </si>
-  <si>
-    <t>service|never</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>dining|room|music</t>
-  </si>
-  <si>
-    <t>service|staff</t>
-  </si>
-  <si>
-    <t>great|place|service</t>
-  </si>
-  <si>
-    <t>great|food|food|food|food|food|like|good|price|price</t>
-  </si>
-  <si>
-    <t>place|place</t>
-  </si>
-  <si>
-    <t>characters|experience</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
     <t>ambiance|boot</t>
   </si>
   <si>
-    <t>great|nice|service</t>
-  </si>
-  <si>
-    <t>food|service|price|cheap</t>
-  </si>
-  <si>
-    <t>food|price|wine</t>
-  </si>
-  <si>
-    <t>secret|room</t>
-  </si>
-  <si>
-    <t>great|staff</t>
-  </si>
-  <si>
-    <t>great|service|always</t>
-  </si>
-  <si>
-    <t>dessert|waitress|bill|chance|order</t>
-  </si>
-  <si>
-    <t>food|place|service|like|price|price</t>
-  </si>
-  <si>
-    <t>nice|staff</t>
-  </si>
-  <si>
-    <t>service|time|rude</t>
-  </si>
-  <si>
-    <t>restaurant|time|rude</t>
-  </si>
-  <si>
-    <t>price|cheap</t>
-  </si>
-  <si>
-    <t>great|food|cheap</t>
-  </si>
-  <si>
-    <t>like|$7)</t>
-  </si>
-  <si>
-    <t>seats|wall|benches</t>
-  </si>
-  <si>
-    <t>great|nice|staff</t>
-  </si>
-  <si>
-    <t>friendly|staff</t>
-  </si>
-  <si>
-    <t>service|good|good</t>
-  </si>
-  <si>
-    <t>restaurant|price</t>
-  </si>
-  <si>
-    <t>food|good|price</t>
-  </si>
-  <si>
-    <t>good|price|$24</t>
-  </si>
-  <si>
-    <t>dessert|candle|anyone|waiter|birthday|card|gift|occassion|sort</t>
+    <t>special|like|atmosphere|sushi|thing</t>
+  </si>
+  <si>
+    <t>owner|staff|ambiance</t>
+  </si>
+  <si>
+    <t>service|food|price</t>
+  </si>
+  <si>
+    <t>service|asked|people</t>
+  </si>
+  <si>
+    <t>restaurant|romantic|list</t>
+  </si>
+  <si>
+    <t>wine|food|price</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>service|food|value</t>
+  </si>
+  <si>
+    <t>service|friendly|excellent</t>
+  </si>
+  <si>
+    <t>waitress|everything|thing</t>
+  </si>
+  <si>
+    <t>waitress|order</t>
+  </si>
+  <si>
+    <t>service|place|food|like|price|price</t>
+  </si>
+  <si>
+    <t>like|also|thing|$7)</t>
+  </si>
+  <si>
+    <t>table|wooden|sitting</t>
+  </si>
+  <si>
+    <t>restaurant|close|rather|busy</t>
+  </si>
+  <si>
+    <t>great|feature|cigar</t>
+  </si>
+  <si>
+    <t>waitstaff|friendly</t>
+  </si>
+  <si>
+    <t>service|good|good|outing</t>
+  </si>
+  <si>
+    <t>restaurant|fallback|back|price</t>
+  </si>
+  <si>
+    <t>good|even|food|price</t>
+  </si>
+  <si>
+    <t>good|warrant|nearly|price|although|enough|$24</t>
+  </si>
+  <si>
+    <t>special|anyone|came|asked|birthday|said|open</t>
   </si>
   <si>
     <t>mark|waiter</t>
   </si>
   <si>
-    <t>food|nice|cheap</t>
-  </si>
-  <si>
     <t>great|$10.</t>
   </si>
   <si>
-    <t>great|would|atmosphere</t>
-  </si>
-  <si>
-    <t>great|great|food|place|good</t>
-  </si>
-  <si>
-    <t>like|staff</t>
-  </si>
-  <si>
-    <t>dinner|manager|boyfriend|things|tips|thing</t>
-  </si>
-  <si>
-    <t>model/waitress|manager</t>
-  </si>
-  <si>
-    <t>great|would|place|good|staff</t>
-  </si>
-  <si>
-    <t>great|food|price</t>
-  </si>
-  <si>
-    <t>restaurant|service</t>
-  </si>
-  <si>
-    <t>gentleman|manager|table|smile|order</t>
-  </si>
-  <si>
-    <t>staff|time</t>
-  </si>
-  <si>
-    <t>patio|music</t>
-  </si>
-  <si>
-    <t>garden|area|herb|garden</t>
-  </si>
-  <si>
-    <t>nice|always|never</t>
-  </si>
-  <si>
-    <t>waiter|money|guys|outta</t>
-  </si>
-  <si>
-    <t>food|cheap</t>
-  </si>
-  <si>
-    <t>great|place</t>
+    <t>wine|list|price</t>
+  </si>
+  <si>
+    <t>great|atmosphere|write|review|would</t>
+  </si>
+  <si>
+    <t>place|good|food|great|great|deal</t>
+  </si>
+  <si>
+    <t>like|people</t>
+  </si>
+  <si>
+    <t>service|people|everything|thing|thing</t>
+  </si>
+  <si>
+    <t>good|waitress|waitress</t>
+  </si>
+  <si>
+    <t>dinner|away|asked|manager|survive|thing|thing</t>
+  </si>
+  <si>
+    <t>waitress|want|manager</t>
+  </si>
+  <si>
+    <t>place|good|great|wish|unprofessional|would</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>food|great|price</t>
+  </si>
+  <si>
+    <t>service|restaurant|back</t>
+  </si>
+  <si>
+    <t>table|came|asked|order|manager</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>table|outside</t>
+  </si>
+  <si>
+    <t>staff|bathroom</t>
+  </si>
+  <si>
+    <t>made|waitstaff|table</t>
+  </si>
+  <si>
+    <t>back|cool|music</t>
+  </si>
+  <si>
+    <t>service|good|also</t>
+  </si>
+  <si>
+    <t>back|sitting</t>
+  </si>
+  <si>
+    <t>place|special|especially|money|stand|wonderful|value</t>
+  </si>
+  <si>
+    <t>service|excellent</t>
+  </si>
+  <si>
+    <t>crowd</t>
+  </si>
+  <si>
+    <t>even|price</t>
+  </si>
+  <si>
+    <t>paid|money|said|immediately|outta|took</t>
+  </si>
+  <si>
+    <t>wait|staff</t>
+  </si>
+  <si>
+    <t>place|outside</t>
+  </si>
+  <si>
+    <t>restaurant|river|beautiful</t>
+  </si>
+  <si>
+    <t>place|great|watching</t>
+  </si>
+  <si>
+    <t>service|thing</t>
   </si>
   <si>
     <t>place|price</t>
   </si>
   <si>
-    <t>cheese|sandwich|manager|business</t>
-  </si>
-  <si>
-    <t>great|like</t>
+    <t>told|asked|business|open|manager</t>
+  </si>
+  <si>
+    <t>place|even</t>
+  </si>
+  <si>
+    <t>great|like|want|music|minimun|dollar|system</t>
+  </si>
+  <si>
+    <t>staff|crew</t>
   </si>
   <si>
     <t>food|price</t>
   </si>
   <si>
-    <t>staff|she's-way-cuter-than-me-that-b@#$*</t>
-  </si>
-  <si>
-    <t>great|great|$8.50</t>
-  </si>
-  <si>
-    <t>good|price</t>
-  </si>
-  <si>
-    <t>restaurant|staff</t>
-  </si>
-  <si>
-    <t>service|atmosphere|friendly</t>
-  </si>
-  <si>
-    <t>would|place|service</t>
+    <t>wonderful|she's-way-cuter-than-me-that-b@#$*</t>
+  </si>
+  <si>
+    <t>atmosphere|free</t>
+  </si>
+  <si>
+    <t>great|great|music|completely|shanty|recommend|drink|delish|$8.50</t>
+  </si>
+  <si>
+    <t>good|outrageously|music</t>
+  </si>
+  <si>
+    <t>good|back|price|reasonable</t>
+  </si>
+  <si>
+    <t>great|feature|outside</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>stand|price</t>
+  </si>
+  <si>
+    <t>typical|long|like|table|atmosphere</t>
+  </si>
+  <si>
+    <t>service|friendly|atmosphere</t>
+  </si>
+  <si>
+    <t>service|place|stand|would</t>
   </si>
   <si>
     <t>management</t>
@@ -4888,184 +5191,259 @@
     <t>great|price</t>
   </si>
   <si>
-    <t>place|like|staff|time</t>
-  </si>
-  <si>
-    <t>place|good|cheap</t>
-  </si>
-  <si>
-    <t>great|place|place|service|never</t>
+    <t>place|like|excellent</t>
+  </si>
+  <si>
+    <t>service|food|great|great|great|price</t>
+  </si>
+  <si>
+    <t>service|place|place|dinner|great|live|romantic|table|want|also</t>
+  </si>
+  <si>
+    <t>service|back</t>
+  </si>
+  <si>
+    <t>place|beautiful</t>
   </si>
   <si>
     <t>quibbles|bill|measures|liquers|courtesey|house</t>
   </si>
   <si>
-    <t>atomosphere|tables</t>
-  </si>
-  <si>
-    <t>great|great|food|place|price</t>
-  </si>
-  <si>
-    <t>great|food|good|price|wine</t>
-  </si>
-  <si>
-    <t>food|would|price</t>
-  </si>
-  <si>
-    <t>money|decor</t>
-  </si>
-  <si>
-    <t>food|good|cheap</t>
-  </si>
-  <si>
-    <t>good|wine|cheap</t>
-  </si>
-  <si>
-    <t>jukebox|everything|opera|strokes</t>
-  </si>
-  <si>
-    <t>drinks|half</t>
+    <t>restaurant|typical</t>
+  </si>
+  <si>
+    <t>romantic|table</t>
+  </si>
+  <si>
+    <t>place|food|great|great|want|price</t>
+  </si>
+  <si>
+    <t>dining|outside|sitting</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>place|food|money</t>
+  </si>
+  <si>
+    <t>friendly|outdoor</t>
+  </si>
+  <si>
+    <t>wine|good|food|great|price|selecion|reasonable</t>
+  </si>
+  <si>
+    <t>good|overpriced|price|everything|thing</t>
+  </si>
+  <si>
+    <t>food|price|would</t>
+  </si>
+  <si>
+    <t>place|great</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>sign|good|atmosphere</t>
+  </si>
+  <si>
+    <t>wine|good</t>
+  </si>
+  <si>
+    <t>everything|thing</t>
+  </si>
+  <si>
+    <t>drink</t>
   </si>
   <si>
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>location|delight|seating|yorkie</t>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>food|great|price|reasonable</t>
+  </si>
+  <si>
+    <t>good|food|simply|price</t>
   </si>
   <si>
     <t>jazz|point</t>
   </si>
   <si>
-    <t>great|food|service|good|price</t>
-  </si>
-  <si>
-    <t>nice|atmosphere</t>
-  </si>
-  <si>
-    <t>restaurant|food|friendly|like|good|price|price|staff|time|cheap</t>
-  </si>
-  <si>
-    <t>restaurant|food|service|good|price|staff</t>
-  </si>
-  <si>
-    <t>food|service|price</t>
-  </si>
-  <si>
-    <t>food|nice|price</t>
+    <t>service|good|food|great|price|music</t>
+  </si>
+  <si>
+    <t>restaurant|good|food|like|friendly|price|price</t>
+  </si>
+  <si>
+    <t>service|restaurant|good|food|overpriced|price|many</t>
+  </si>
+  <si>
+    <t>food|price|reasonable</t>
   </si>
   <si>
     <t>sushi|$20</t>
   </si>
   <si>
-    <t>place|nice|tuna</t>
-  </si>
-  <si>
-    <t>price|$15....</t>
-  </si>
-  <si>
-    <t>good|$60</t>
-  </si>
-  <si>
-    <t>place|time</t>
-  </si>
-  <si>
-    <t>restaurant|nice</t>
-  </si>
-  <si>
-    <t>dinner|feet|$400.00</t>
-  </si>
-  <si>
-    <t>plate|guacamole|$11</t>
-  </si>
-  <si>
-    <t>food|place|good</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
-  </si>
-  <si>
-    <t>food|friendly|good|price</t>
+    <t>place|tuna</t>
+  </si>
+  <si>
+    <t>overpriced|price|$15....</t>
+  </si>
+  <si>
+    <t>paid|good|$60</t>
+  </si>
+  <si>
+    <t>place|away</t>
+  </si>
+  <si>
+    <t>place|dinner|great</t>
+  </si>
+  <si>
+    <t>nearly|back|atmosphere|thing</t>
+  </si>
+  <si>
+    <t>food|great|price|excellent</t>
+  </si>
+  <si>
+    <t>service|food|overpriced|price</t>
+  </si>
+  <si>
+    <t>dinner|romatic</t>
+  </si>
+  <si>
+    <t>dinner|$400.00</t>
+  </si>
+  <si>
+    <t>bland|$11</t>
+  </si>
+  <si>
+    <t>place|good|food</t>
+  </si>
+  <si>
+    <t>place|beautiful|recommend</t>
+  </si>
+  <si>
+    <t>table|told|$8</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>sign|restaurant|beautiful|beautifully</t>
+  </si>
+  <si>
+    <t>good|food|people|friendly|price</t>
   </si>
   <si>
     <t>bathroom|mens|bathroom</t>
   </si>
   <si>
-    <t>would|price</t>
-  </si>
-  <si>
-    <t>boths|reviews|people</t>
+    <t>price|would</t>
+  </si>
+  <si>
+    <t>great|romantic</t>
+  </si>
+  <si>
+    <t>people|review</t>
   </si>
   <si>
     <t>belly|dancing|crowd</t>
   </si>
   <si>
-    <t>great|great|place</t>
+    <t>place|great|great|value</t>
   </si>
   <si>
     <t>service|price|$10.</t>
   </si>
   <si>
-    <t>thing|decor</t>
-  </si>
-  <si>
-    <t>wine|$500</t>
-  </si>
-  <si>
-    <t>environment|name</t>
+    <t>fairly|price</t>
+  </si>
+  <si>
+    <t>back|awesome|birthday</t>
+  </si>
+  <si>
+    <t>wine|dinner|$500</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>place|certain|want|beautiful</t>
+  </si>
+  <si>
+    <t>restaurant|review</t>
   </si>
   <si>
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
+    <t>environment|trophy|upscale|paid</t>
   </si>
   <si>
     <t>service|$500.</t>
   </si>
   <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>would|$55</t>
-  </si>
-  <si>
-    <t>food|would|good|time</t>
-  </si>
-  <si>
-    <t>restaurant|never</t>
-  </si>
-  <si>
-    <t>restaurant|would|place|price|$25),</t>
-  </si>
-  <si>
-    <t>food|place|$</t>
+    <t>back|money|value</t>
+  </si>
+  <si>
+    <t>drink|$14</t>
+  </si>
+  <si>
+    <t>dinner|would|$55</t>
+  </si>
+  <si>
+    <t>good|food|dinner|table|would</t>
+  </si>
+  <si>
+    <t>dinner|would</t>
+  </si>
+  <si>
+    <t>restaurant|money</t>
+  </si>
+  <si>
+    <t>good|food|fresh</t>
+  </si>
+  <si>
+    <t>upscale|upscale|place|restaurant|price|would|$25),</t>
+  </si>
+  <si>
+    <t>place|food|thing|$</t>
   </si>
   <si>
     <t>lunch|buffet</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
-  </si>
-  <si>
-    <t>party|fixe|prix|menu|deal|flight|sake|$29</t>
-  </si>
-  <si>
-    <t>great|good|price|time</t>
-  </si>
-  <si>
-    <t>service|rude|$500</t>
-  </si>
-  <si>
-    <t>great|service|good</t>
-  </si>
-  <si>
-    <t>food|would|good|price</t>
-  </si>
-  <si>
-    <t>restaurant|never|$24</t>
-  </si>
-  <si>
-    <t>decor|distraction|bucks|eggplant|frickin</t>
+    <t>place|dinner|romantic|deal</t>
+  </si>
+  <si>
+    <t>paid|$2</t>
+  </si>
+  <si>
+    <t>menu|came|wonderful|also|deal|$29</t>
+  </si>
+  <si>
+    <t>good|great|price|enough|reasonable|thing</t>
+  </si>
+  <si>
+    <t>service|even|drink|$500</t>
+  </si>
+  <si>
+    <t>service|good|great|fresh|sauce|kimchi|free</t>
+  </si>
+  <si>
+    <t>good|food|back|price|would</t>
+  </si>
+  <si>
+    <t>restaurant|bland|took|$24</t>
+  </si>
+  <si>
+    <t>menu|list|would|dollar|reasonable</t>
   </si>
   <si>
     <t>service|$60</t>
@@ -5583,10 +5961,10 @@
         <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1439</v>
+        <v>1469</v>
       </c>
       <c r="H2" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5606,13 +5984,13 @@
         <v>1276</v>
       </c>
       <c r="F3" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>937</v>
+        <v>1470</v>
       </c>
       <c r="H3" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5632,13 +6010,13 @@
         <v>1277</v>
       </c>
       <c r="F4" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1440</v>
+        <v>1471</v>
       </c>
       <c r="H4" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5658,13 +6036,13 @@
         <v>1276</v>
       </c>
       <c r="F5" t="s">
-        <v>1277</v>
+        <v>1339</v>
       </c>
       <c r="G5" t="s">
-        <v>1441</v>
+        <v>1472</v>
       </c>
       <c r="H5" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5684,13 +6062,13 @@
         <v>1278</v>
       </c>
       <c r="F6" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="G6" t="s">
-        <v>1442</v>
+        <v>1473</v>
       </c>
       <c r="H6" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5710,13 +6088,13 @@
         <v>1275</v>
       </c>
       <c r="F7" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="G7" t="s">
-        <v>1443</v>
+        <v>1474</v>
       </c>
       <c r="H7" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5736,13 +6114,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="G8" t="s">
-        <v>1444</v>
+        <v>1475</v>
       </c>
       <c r="H8" t="s">
-        <v>1689</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5762,13 +6140,13 @@
         <v>1276</v>
       </c>
       <c r="F9" t="s">
-        <v>1277</v>
+        <v>1343</v>
       </c>
       <c r="G9" t="s">
-        <v>1445</v>
+        <v>1476</v>
       </c>
       <c r="H9" t="s">
-        <v>1690</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5788,13 +6166,13 @@
         <v>1279</v>
       </c>
       <c r="F10" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="G10" t="s">
-        <v>1446</v>
+        <v>1477</v>
       </c>
       <c r="H10" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5814,13 +6192,13 @@
         <v>1280</v>
       </c>
       <c r="F11" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="G11" t="s">
-        <v>1447</v>
+        <v>1478</v>
       </c>
       <c r="H11" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5840,13 +6218,13 @@
         <v>1277</v>
       </c>
       <c r="F12" t="s">
-        <v>1342</v>
+        <v>1277</v>
       </c>
       <c r="G12" t="s">
-        <v>1448</v>
+        <v>1479</v>
       </c>
       <c r="H12" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5866,13 +6244,13 @@
         <v>1281</v>
       </c>
       <c r="F13" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G13" t="s">
-        <v>937</v>
+        <v>1480</v>
       </c>
       <c r="H13" t="s">
-        <v>1690</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5895,10 +6273,10 @@
         <v>1337</v>
       </c>
       <c r="G14" t="s">
-        <v>1449</v>
+        <v>1481</v>
       </c>
       <c r="H14" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5918,13 +6296,13 @@
         <v>1276</v>
       </c>
       <c r="F15" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="G15" t="s">
-        <v>1450</v>
+        <v>1482</v>
       </c>
       <c r="H15" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5950,7 +6328,7 @@
         <v>1093</v>
       </c>
       <c r="H16" t="s">
-        <v>1692</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5970,13 +6348,13 @@
         <v>1283</v>
       </c>
       <c r="F17" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="G17" t="s">
-        <v>1451</v>
+        <v>1483</v>
       </c>
       <c r="H17" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5996,13 +6374,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="G18" t="s">
-        <v>1452</v>
+        <v>1484</v>
       </c>
       <c r="H18" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6022,13 +6400,13 @@
         <v>1275</v>
       </c>
       <c r="F19" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G19" t="s">
-        <v>1453</v>
+        <v>1485</v>
       </c>
       <c r="H19" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6048,13 +6426,13 @@
         <v>1277</v>
       </c>
       <c r="F20" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G20" t="s">
-        <v>937</v>
+        <v>1486</v>
       </c>
       <c r="H20" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6074,13 +6452,13 @@
         <v>1275</v>
       </c>
       <c r="F21" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G21" t="s">
-        <v>1454</v>
+        <v>1487</v>
       </c>
       <c r="H21" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6106,7 +6484,7 @@
         <v>1124</v>
       </c>
       <c r="H22" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6132,7 +6510,7 @@
         <v>937</v>
       </c>
       <c r="H23" t="s">
-        <v>1689</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6158,7 +6536,7 @@
         <v>952</v>
       </c>
       <c r="H24" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6178,13 +6556,13 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1277</v>
+        <v>1343</v>
       </c>
       <c r="G25" t="s">
-        <v>1455</v>
+        <v>1488</v>
       </c>
       <c r="H25" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6204,13 +6582,13 @@
         <v>1277</v>
       </c>
       <c r="F26" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G26" t="s">
-        <v>1444</v>
+        <v>1489</v>
       </c>
       <c r="H26" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6236,7 +6614,7 @@
         <v>952</v>
       </c>
       <c r="H27" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6256,13 +6634,13 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1284</v>
+        <v>1349</v>
       </c>
       <c r="G28" t="s">
-        <v>972</v>
+        <v>1490</v>
       </c>
       <c r="H28" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6282,13 +6660,13 @@
         <v>1276</v>
       </c>
       <c r="F29" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G29" t="s">
-        <v>1000</v>
+        <v>1491</v>
       </c>
       <c r="H29" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6308,13 +6686,13 @@
         <v>1277</v>
       </c>
       <c r="F30" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G30" t="s">
-        <v>1456</v>
+        <v>1492</v>
       </c>
       <c r="H30" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6334,13 +6712,13 @@
         <v>1278</v>
       </c>
       <c r="F31" t="s">
-        <v>1293</v>
+        <v>1350</v>
       </c>
       <c r="G31" t="s">
-        <v>1457</v>
+        <v>1493</v>
       </c>
       <c r="H31" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6360,13 +6738,13 @@
         <v>1283</v>
       </c>
       <c r="F32" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="G32" t="s">
-        <v>1458</v>
+        <v>1494</v>
       </c>
       <c r="H32" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6386,13 +6764,13 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="G33" t="s">
-        <v>1459</v>
+        <v>1495</v>
       </c>
       <c r="H33" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6412,13 +6790,13 @@
         <v>1285</v>
       </c>
       <c r="F34" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="G34" t="s">
-        <v>1460</v>
+        <v>1496</v>
       </c>
       <c r="H34" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6441,10 +6819,10 @@
         <v>1277</v>
       </c>
       <c r="G35" t="s">
-        <v>1461</v>
+        <v>1497</v>
       </c>
       <c r="H35" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6464,13 +6842,13 @@
         <v>1283</v>
       </c>
       <c r="F36" t="s">
-        <v>1344</v>
+        <v>1353</v>
       </c>
       <c r="G36" t="s">
-        <v>1462</v>
+        <v>1498</v>
       </c>
       <c r="H36" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6490,13 +6868,13 @@
         <v>1286</v>
       </c>
       <c r="F37" t="s">
-        <v>1277</v>
+        <v>1354</v>
       </c>
       <c r="G37" t="s">
-        <v>1455</v>
+        <v>1499</v>
       </c>
       <c r="H37" t="s">
-        <v>1694</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6516,13 +6894,13 @@
         <v>1275</v>
       </c>
       <c r="F38" t="s">
-        <v>1350</v>
+        <v>1275</v>
       </c>
       <c r="G38" t="s">
-        <v>1463</v>
+        <v>952</v>
       </c>
       <c r="H38" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6542,13 +6920,13 @@
         <v>1275</v>
       </c>
       <c r="F39" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G39" t="s">
-        <v>1441</v>
+        <v>966</v>
       </c>
       <c r="H39" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6568,13 +6946,13 @@
         <v>1277</v>
       </c>
       <c r="F40" t="s">
-        <v>1338</v>
+        <v>1355</v>
       </c>
       <c r="G40" t="s">
-        <v>1464</v>
+        <v>1500</v>
       </c>
       <c r="H40" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6594,13 +6972,13 @@
         <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1351</v>
+        <v>1356</v>
       </c>
       <c r="G41" t="s">
-        <v>1465</v>
+        <v>1501</v>
       </c>
       <c r="H41" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6620,13 +6998,13 @@
         <v>1284</v>
       </c>
       <c r="F42" t="s">
-        <v>1352</v>
+        <v>1357</v>
       </c>
       <c r="G42" t="s">
-        <v>1466</v>
+        <v>1502</v>
       </c>
       <c r="H42" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6646,13 +7024,13 @@
         <v>1279</v>
       </c>
       <c r="F43" t="s">
-        <v>1353</v>
+        <v>1358</v>
       </c>
       <c r="G43" t="s">
-        <v>1467</v>
+        <v>1503</v>
       </c>
       <c r="H43" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6672,13 +7050,13 @@
         <v>1277</v>
       </c>
       <c r="F44" t="s">
-        <v>1344</v>
+        <v>1277</v>
       </c>
       <c r="G44" t="s">
-        <v>1468</v>
+        <v>1504</v>
       </c>
       <c r="H44" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6698,13 +7076,13 @@
         <v>1284</v>
       </c>
       <c r="F45" t="s">
-        <v>1354</v>
+        <v>1359</v>
       </c>
       <c r="G45" t="s">
-        <v>1469</v>
+        <v>1505</v>
       </c>
       <c r="H45" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6724,13 +7102,13 @@
         <v>1284</v>
       </c>
       <c r="F46" t="s">
-        <v>1284</v>
+        <v>1360</v>
       </c>
       <c r="G46" t="s">
-        <v>972</v>
+        <v>1506</v>
       </c>
       <c r="H46" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6756,7 +7134,7 @@
         <v>937</v>
       </c>
       <c r="H47" t="s">
-        <v>1695</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6782,7 +7160,7 @@
         <v>937</v>
       </c>
       <c r="H48" t="s">
-        <v>1696</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6802,13 +7180,13 @@
         <v>1276</v>
       </c>
       <c r="F49" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G49" t="s">
-        <v>993</v>
+        <v>1507</v>
       </c>
       <c r="H49" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6828,13 +7206,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G50" t="s">
-        <v>1470</v>
+        <v>1508</v>
       </c>
       <c r="H50" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6854,13 +7232,13 @@
         <v>1281</v>
       </c>
       <c r="F51" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G51" t="s">
-        <v>1471</v>
+        <v>1509</v>
       </c>
       <c r="H51" t="s">
-        <v>1697</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6880,13 +7258,13 @@
         <v>1277</v>
       </c>
       <c r="F52" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G52" t="s">
-        <v>1472</v>
+        <v>1510</v>
       </c>
       <c r="H52" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6906,13 +7284,13 @@
         <v>1281</v>
       </c>
       <c r="F53" t="s">
-        <v>1355</v>
+        <v>1339</v>
       </c>
       <c r="G53" t="s">
-        <v>1473</v>
+        <v>1511</v>
       </c>
       <c r="H53" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6932,13 +7310,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="G54" t="s">
-        <v>1474</v>
+        <v>1512</v>
       </c>
       <c r="H54" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -6961,10 +7339,10 @@
         <v>1277</v>
       </c>
       <c r="G55" t="s">
-        <v>1461</v>
+        <v>1497</v>
       </c>
       <c r="H55" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -6984,13 +7362,13 @@
         <v>1276</v>
       </c>
       <c r="F56" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G56" t="s">
-        <v>1475</v>
+        <v>1513</v>
       </c>
       <c r="H56" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7010,13 +7388,13 @@
         <v>1289</v>
       </c>
       <c r="F57" t="s">
-        <v>1347</v>
+        <v>1361</v>
       </c>
       <c r="G57" t="s">
-        <v>1476</v>
+        <v>1514</v>
       </c>
       <c r="H57" t="s">
-        <v>1698</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7036,13 +7414,13 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="G58" t="s">
-        <v>1477</v>
+        <v>1515</v>
       </c>
       <c r="H58" t="s">
-        <v>1699</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7062,13 +7440,13 @@
         <v>1275</v>
       </c>
       <c r="F59" t="s">
-        <v>1357</v>
+        <v>1275</v>
       </c>
       <c r="G59" t="s">
-        <v>1478</v>
+        <v>1516</v>
       </c>
       <c r="H59" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7088,13 +7466,13 @@
         <v>1278</v>
       </c>
       <c r="F60" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="G60" t="s">
-        <v>1479</v>
+        <v>1517</v>
       </c>
       <c r="H60" t="s">
-        <v>1700</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7114,13 +7492,13 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1342</v>
+        <v>1363</v>
       </c>
       <c r="G61" t="s">
-        <v>1480</v>
+        <v>1518</v>
       </c>
       <c r="H61" t="s">
-        <v>1698</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7140,13 +7518,13 @@
         <v>1275</v>
       </c>
       <c r="F62" t="s">
-        <v>1277</v>
+        <v>1364</v>
       </c>
       <c r="G62" t="s">
-        <v>1445</v>
+        <v>1519</v>
       </c>
       <c r="H62" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7166,13 +7544,13 @@
         <v>1277</v>
       </c>
       <c r="F63" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G63" t="s">
-        <v>937</v>
+        <v>1520</v>
       </c>
       <c r="H63" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7192,13 +7570,13 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1359</v>
+        <v>1365</v>
       </c>
       <c r="G64" t="s">
-        <v>1481</v>
+        <v>1521</v>
       </c>
       <c r="H64" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7221,10 +7599,10 @@
         <v>1277</v>
       </c>
       <c r="G65" t="s">
-        <v>1482</v>
+        <v>1522</v>
       </c>
       <c r="H65" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7244,13 +7622,13 @@
         <v>1277</v>
       </c>
       <c r="F66" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="G66" t="s">
-        <v>1483</v>
+        <v>1523</v>
       </c>
       <c r="H66" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7270,13 +7648,13 @@
         <v>1275</v>
       </c>
       <c r="F67" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G67" t="s">
-        <v>1453</v>
+        <v>1485</v>
       </c>
       <c r="H67" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7296,13 +7674,13 @@
         <v>1275</v>
       </c>
       <c r="F68" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="G68" t="s">
-        <v>1484</v>
+        <v>1524</v>
       </c>
       <c r="H68" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7322,13 +7700,13 @@
         <v>1292</v>
       </c>
       <c r="F69" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G69" t="s">
-        <v>1485</v>
+        <v>1525</v>
       </c>
       <c r="H69" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7354,7 +7732,7 @@
         <v>993</v>
       </c>
       <c r="H70" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7374,13 +7752,13 @@
         <v>1294</v>
       </c>
       <c r="F71" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G71" t="s">
-        <v>1486</v>
+        <v>1526</v>
       </c>
       <c r="H71" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7400,13 +7778,13 @@
         <v>1277</v>
       </c>
       <c r="F72" t="s">
-        <v>1277</v>
+        <v>1366</v>
       </c>
       <c r="G72" t="s">
-        <v>1456</v>
+        <v>1527</v>
       </c>
       <c r="H72" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7426,13 +7804,13 @@
         <v>1276</v>
       </c>
       <c r="F73" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G73" t="s">
-        <v>937</v>
+        <v>1528</v>
       </c>
       <c r="H73" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7452,13 +7830,13 @@
         <v>1295</v>
       </c>
       <c r="F74" t="s">
-        <v>1277</v>
+        <v>1366</v>
       </c>
       <c r="G74" t="s">
-        <v>937</v>
+        <v>1529</v>
       </c>
       <c r="H74" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7478,13 +7856,13 @@
         <v>1275</v>
       </c>
       <c r="F75" t="s">
-        <v>1361</v>
+        <v>1367</v>
       </c>
       <c r="G75" t="s">
-        <v>1487</v>
+        <v>1530</v>
       </c>
       <c r="H75" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7504,13 +7882,13 @@
         <v>1283</v>
       </c>
       <c r="F76" t="s">
-        <v>1362</v>
+        <v>1343</v>
       </c>
       <c r="G76" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="H76" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7536,7 +7914,7 @@
         <v>989</v>
       </c>
       <c r="H77" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7562,7 +7940,7 @@
         <v>999</v>
       </c>
       <c r="H78" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7582,13 +7960,13 @@
         <v>1277</v>
       </c>
       <c r="F79" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G79" t="s">
-        <v>1489</v>
+        <v>1000</v>
       </c>
       <c r="H79" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7608,13 +7986,13 @@
         <v>1288</v>
       </c>
       <c r="F80" t="s">
-        <v>1351</v>
+        <v>1360</v>
       </c>
       <c r="G80" t="s">
-        <v>1490</v>
+        <v>1531</v>
       </c>
       <c r="H80" t="s">
-        <v>1701</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7637,10 +8015,10 @@
         <v>1277</v>
       </c>
       <c r="G81" t="s">
-        <v>1491</v>
+        <v>1532</v>
       </c>
       <c r="H81" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7660,13 +8038,13 @@
         <v>1276</v>
       </c>
       <c r="F82" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="G82" t="s">
-        <v>1492</v>
+        <v>1533</v>
       </c>
       <c r="H82" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7686,13 +8064,13 @@
         <v>1277</v>
       </c>
       <c r="F83" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G83" t="s">
-        <v>1493</v>
+        <v>1534</v>
       </c>
       <c r="H83" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7712,13 +8090,13 @@
         <v>1296</v>
       </c>
       <c r="F84" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="G84" t="s">
-        <v>1494</v>
+        <v>1535</v>
       </c>
       <c r="H84" t="s">
-        <v>1700</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7744,7 +8122,7 @@
         <v>937</v>
       </c>
       <c r="H85" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7764,13 +8142,13 @@
         <v>1277</v>
       </c>
       <c r="F86" t="s">
-        <v>1364</v>
+        <v>1277</v>
       </c>
       <c r="G86" t="s">
-        <v>1495</v>
+        <v>1004</v>
       </c>
       <c r="H86" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7790,13 +8168,13 @@
         <v>1281</v>
       </c>
       <c r="F87" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="G87" t="s">
-        <v>1456</v>
+        <v>1536</v>
       </c>
       <c r="H87" t="s">
-        <v>1702</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7819,10 +8197,10 @@
         <v>1277</v>
       </c>
       <c r="G88" t="s">
-        <v>1491</v>
+        <v>1532</v>
       </c>
       <c r="H88" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7842,13 +8220,13 @@
         <v>1284</v>
       </c>
       <c r="F89" t="s">
-        <v>1351</v>
+        <v>1369</v>
       </c>
       <c r="G89" t="s">
-        <v>1496</v>
+        <v>1537</v>
       </c>
       <c r="H89" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -7868,13 +8246,13 @@
         <v>1283</v>
       </c>
       <c r="F90" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="G90" t="s">
-        <v>1458</v>
+        <v>1494</v>
       </c>
       <c r="H90" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -7894,13 +8272,13 @@
         <v>1277</v>
       </c>
       <c r="F91" t="s">
-        <v>1284</v>
+        <v>1360</v>
       </c>
       <c r="G91" t="s">
-        <v>1461</v>
+        <v>1538</v>
       </c>
       <c r="H91" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -7920,13 +8298,13 @@
         <v>1297</v>
       </c>
       <c r="F92" t="s">
-        <v>1277</v>
+        <v>1370</v>
       </c>
       <c r="G92" t="s">
-        <v>972</v>
+        <v>1539</v>
       </c>
       <c r="H92" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -7946,13 +8324,13 @@
         <v>1285</v>
       </c>
       <c r="F93" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="G93" t="s">
-        <v>1497</v>
+        <v>1540</v>
       </c>
       <c r="H93" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -7972,13 +8350,13 @@
         <v>1298</v>
       </c>
       <c r="F94" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G94" t="s">
-        <v>1498</v>
+        <v>1541</v>
       </c>
       <c r="H94" t="s">
-        <v>1703</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -7998,13 +8376,13 @@
         <v>1276</v>
       </c>
       <c r="F95" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="G95" t="s">
-        <v>1499</v>
+        <v>1542</v>
       </c>
       <c r="H95" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8024,13 +8402,13 @@
         <v>1288</v>
       </c>
       <c r="F96" t="s">
-        <v>1366</v>
+        <v>1372</v>
       </c>
       <c r="G96" t="s">
-        <v>1500</v>
+        <v>1543</v>
       </c>
       <c r="H96" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8050,13 +8428,13 @@
         <v>1299</v>
       </c>
       <c r="F97" t="s">
-        <v>1347</v>
+        <v>1373</v>
       </c>
       <c r="G97" t="s">
-        <v>1501</v>
+        <v>1544</v>
       </c>
       <c r="H97" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8076,13 +8454,13 @@
         <v>1277</v>
       </c>
       <c r="F98" t="s">
-        <v>1351</v>
+        <v>1369</v>
       </c>
       <c r="G98" t="s">
-        <v>1502</v>
+        <v>1545</v>
       </c>
       <c r="H98" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8102,13 +8480,13 @@
         <v>1276</v>
       </c>
       <c r="F99" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G99" t="s">
-        <v>1503</v>
+        <v>1546</v>
       </c>
       <c r="H99" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8128,13 +8506,13 @@
         <v>1275</v>
       </c>
       <c r="F100" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="G100" t="s">
-        <v>1445</v>
+        <v>1547</v>
       </c>
       <c r="H100" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8154,13 +8532,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="G101" t="s">
-        <v>1504</v>
+        <v>1548</v>
       </c>
       <c r="H101" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8180,13 +8558,13 @@
         <v>1278</v>
       </c>
       <c r="F102" t="s">
-        <v>1367</v>
+        <v>1374</v>
       </c>
       <c r="G102" t="s">
-        <v>1505</v>
+        <v>1549</v>
       </c>
       <c r="H102" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8206,13 +8584,13 @@
         <v>1277</v>
       </c>
       <c r="F103" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G103" t="s">
-        <v>1506</v>
+        <v>1479</v>
       </c>
       <c r="H103" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8232,13 +8610,13 @@
         <v>1275</v>
       </c>
       <c r="F104" t="s">
-        <v>1275</v>
+        <v>1344</v>
       </c>
       <c r="G104" t="s">
-        <v>952</v>
+        <v>1550</v>
       </c>
       <c r="H104" t="s">
-        <v>1689</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8258,13 +8636,13 @@
         <v>1284</v>
       </c>
       <c r="F105" t="s">
-        <v>1351</v>
+        <v>1277</v>
       </c>
       <c r="G105" t="s">
-        <v>1507</v>
+        <v>1551</v>
       </c>
       <c r="H105" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8284,13 +8662,13 @@
         <v>1284</v>
       </c>
       <c r="F106" t="s">
-        <v>1284</v>
+        <v>1360</v>
       </c>
       <c r="G106" t="s">
-        <v>972</v>
+        <v>1552</v>
       </c>
       <c r="H106" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8310,13 +8688,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1277</v>
+        <v>1375</v>
       </c>
       <c r="G107" t="s">
-        <v>937</v>
+        <v>1553</v>
       </c>
       <c r="H107" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8342,7 +8720,7 @@
         <v>935</v>
       </c>
       <c r="H108" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8362,13 +8740,13 @@
         <v>1285</v>
       </c>
       <c r="F109" t="s">
-        <v>1358</v>
+        <v>1376</v>
       </c>
       <c r="G109" t="s">
-        <v>1479</v>
+        <v>1554</v>
       </c>
       <c r="H109" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8388,13 +8766,13 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1368</v>
+        <v>1377</v>
       </c>
       <c r="G110" t="s">
-        <v>1508</v>
+        <v>1555</v>
       </c>
       <c r="H110" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8414,13 +8792,13 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1369</v>
+        <v>1378</v>
       </c>
       <c r="G111" t="s">
-        <v>1509</v>
+        <v>1556</v>
       </c>
       <c r="H111" t="s">
-        <v>1704</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8440,13 +8818,13 @@
         <v>1297</v>
       </c>
       <c r="F112" t="s">
-        <v>1354</v>
+        <v>1337</v>
       </c>
       <c r="G112" t="s">
-        <v>1510</v>
+        <v>1557</v>
       </c>
       <c r="H112" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8469,10 +8847,10 @@
         <v>1277</v>
       </c>
       <c r="G113" t="s">
-        <v>1511</v>
+        <v>1516</v>
       </c>
       <c r="H113" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8492,13 +8870,13 @@
         <v>1277</v>
       </c>
       <c r="F114" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G114" t="s">
-        <v>1498</v>
+        <v>1541</v>
       </c>
       <c r="H114" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8518,13 +8896,13 @@
         <v>1276</v>
       </c>
       <c r="F115" t="s">
-        <v>1277</v>
+        <v>1369</v>
       </c>
       <c r="G115" t="s">
-        <v>1491</v>
+        <v>1558</v>
       </c>
       <c r="H115" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8544,13 +8922,13 @@
         <v>1284</v>
       </c>
       <c r="F116" t="s">
-        <v>1284</v>
+        <v>1379</v>
       </c>
       <c r="G116" t="s">
-        <v>1069</v>
+        <v>1559</v>
       </c>
       <c r="H116" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8576,7 +8954,7 @@
         <v>952</v>
       </c>
       <c r="H117" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8596,13 +8974,13 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1370</v>
+        <v>1380</v>
       </c>
       <c r="G118" t="s">
-        <v>1512</v>
+        <v>1560</v>
       </c>
       <c r="H118" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8622,13 +9000,13 @@
         <v>1276</v>
       </c>
       <c r="F119" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="G119" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H119" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8648,13 +9026,13 @@
         <v>1277</v>
       </c>
       <c r="F120" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G120" t="s">
-        <v>1465</v>
+        <v>1561</v>
       </c>
       <c r="H120" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8674,13 +9052,13 @@
         <v>1295</v>
       </c>
       <c r="F121" t="s">
-        <v>1275</v>
+        <v>1293</v>
       </c>
       <c r="G121" t="s">
-        <v>935</v>
+        <v>1562</v>
       </c>
       <c r="H121" t="s">
-        <v>1701</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8700,13 +9078,13 @@
         <v>1277</v>
       </c>
       <c r="F122" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G122" t="s">
-        <v>1514</v>
+        <v>1563</v>
       </c>
       <c r="H122" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8726,13 +9104,13 @@
         <v>1277</v>
       </c>
       <c r="F123" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G123" t="s">
-        <v>972</v>
+        <v>1564</v>
       </c>
       <c r="H123" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8752,13 +9130,13 @@
         <v>1300</v>
       </c>
       <c r="F124" t="s">
-        <v>1275</v>
+        <v>1343</v>
       </c>
       <c r="G124" t="s">
-        <v>952</v>
+        <v>1565</v>
       </c>
       <c r="H124" t="s">
-        <v>1698</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8778,13 +9156,13 @@
         <v>1275</v>
       </c>
       <c r="F125" t="s">
-        <v>1275</v>
+        <v>1364</v>
       </c>
       <c r="G125" t="s">
-        <v>935</v>
+        <v>1566</v>
       </c>
       <c r="H125" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8810,7 +9188,7 @@
         <v>937</v>
       </c>
       <c r="H126" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8830,13 +9208,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1338</v>
+        <v>1380</v>
       </c>
       <c r="G127" t="s">
-        <v>1515</v>
+        <v>1567</v>
       </c>
       <c r="H127" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -8859,10 +9237,10 @@
         <v>1277</v>
       </c>
       <c r="G128" t="s">
-        <v>1450</v>
+        <v>1568</v>
       </c>
       <c r="H128" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -8882,13 +9260,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G129" t="s">
-        <v>1516</v>
+        <v>1004</v>
       </c>
       <c r="H129" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -8908,13 +9286,13 @@
         <v>1276</v>
       </c>
       <c r="F130" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="G130" t="s">
-        <v>1517</v>
+        <v>1569</v>
       </c>
       <c r="H130" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -8934,13 +9312,13 @@
         <v>1275</v>
       </c>
       <c r="F131" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="G131" t="s">
-        <v>1518</v>
+        <v>1570</v>
       </c>
       <c r="H131" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -8960,13 +9338,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1338</v>
+        <v>1354</v>
       </c>
       <c r="G132" t="s">
-        <v>1498</v>
+        <v>1571</v>
       </c>
       <c r="H132" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -8986,13 +9364,13 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1344</v>
+        <v>1381</v>
       </c>
       <c r="G133" t="s">
-        <v>1519</v>
+        <v>1572</v>
       </c>
       <c r="H133" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9012,13 +9390,13 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1284</v>
+        <v>1357</v>
       </c>
       <c r="G134" t="s">
-        <v>972</v>
+        <v>1573</v>
       </c>
       <c r="H134" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9038,13 +9416,13 @@
         <v>1275</v>
       </c>
       <c r="F135" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="G135" t="s">
-        <v>1518</v>
+        <v>1570</v>
       </c>
       <c r="H135" t="s">
-        <v>1689</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9064,13 +9442,13 @@
         <v>1275</v>
       </c>
       <c r="F136" t="s">
-        <v>1338</v>
+        <v>1369</v>
       </c>
       <c r="G136" t="s">
-        <v>1520</v>
+        <v>1574</v>
       </c>
       <c r="H136" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9090,13 +9468,13 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1338</v>
+        <v>1354</v>
       </c>
       <c r="G137" t="s">
-        <v>1498</v>
+        <v>1575</v>
       </c>
       <c r="H137" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9116,13 +9494,13 @@
         <v>1297</v>
       </c>
       <c r="F138" t="s">
-        <v>1284</v>
+        <v>1369</v>
       </c>
       <c r="G138" t="s">
-        <v>1461</v>
+        <v>1576</v>
       </c>
       <c r="H138" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9142,13 +9520,13 @@
         <v>1297</v>
       </c>
       <c r="F139" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="G139" t="s">
-        <v>1521</v>
+        <v>1577</v>
       </c>
       <c r="H139" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9171,10 +9549,10 @@
         <v>1277</v>
       </c>
       <c r="G140" t="s">
-        <v>1050</v>
+        <v>1578</v>
       </c>
       <c r="H140" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9194,13 +9572,13 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1284</v>
+        <v>1357</v>
       </c>
       <c r="G141" t="s">
-        <v>972</v>
+        <v>1579</v>
       </c>
       <c r="H141" t="s">
-        <v>1689</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9223,10 +9601,10 @@
         <v>1338</v>
       </c>
       <c r="G142" t="s">
-        <v>1522</v>
+        <v>1580</v>
       </c>
       <c r="H142" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9246,13 +9624,13 @@
         <v>1275</v>
       </c>
       <c r="F143" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="G143" t="s">
-        <v>937</v>
+        <v>1581</v>
       </c>
       <c r="H143" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9272,13 +9650,13 @@
         <v>1297</v>
       </c>
       <c r="F144" t="s">
-        <v>1356</v>
+        <v>1382</v>
       </c>
       <c r="G144" t="s">
-        <v>1523</v>
+        <v>1582</v>
       </c>
       <c r="H144" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9298,13 +9676,13 @@
         <v>1281</v>
       </c>
       <c r="F145" t="s">
-        <v>1277</v>
+        <v>1338</v>
       </c>
       <c r="G145" t="s">
-        <v>937</v>
+        <v>1583</v>
       </c>
       <c r="H145" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9330,7 +9708,7 @@
         <v>1054</v>
       </c>
       <c r="H146" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9350,13 +9728,13 @@
         <v>1277</v>
       </c>
       <c r="F147" t="s">
-        <v>1373</v>
+        <v>1277</v>
       </c>
       <c r="G147" t="s">
-        <v>1524</v>
+        <v>1584</v>
       </c>
       <c r="H147" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9376,13 +9754,13 @@
         <v>1283</v>
       </c>
       <c r="F148" t="s">
-        <v>1362</v>
+        <v>1343</v>
       </c>
       <c r="G148" t="s">
-        <v>1525</v>
+        <v>1494</v>
       </c>
       <c r="H148" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9402,13 +9780,13 @@
         <v>1276</v>
       </c>
       <c r="F149" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="G149" t="s">
-        <v>1526</v>
+        <v>1585</v>
       </c>
       <c r="H149" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9428,13 +9806,13 @@
         <v>1281</v>
       </c>
       <c r="F150" t="s">
-        <v>1277</v>
+        <v>1383</v>
       </c>
       <c r="G150" t="s">
-        <v>993</v>
+        <v>1586</v>
       </c>
       <c r="H150" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9454,13 +9832,13 @@
         <v>1301</v>
       </c>
       <c r="F151" t="s">
-        <v>1347</v>
+        <v>1380</v>
       </c>
       <c r="G151" t="s">
-        <v>1458</v>
+        <v>1587</v>
       </c>
       <c r="H151" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9486,7 +9864,7 @@
         <v>935</v>
       </c>
       <c r="H152" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9506,13 +9884,13 @@
         <v>1277</v>
       </c>
       <c r="F153" t="s">
-        <v>1344</v>
+        <v>1277</v>
       </c>
       <c r="G153" t="s">
-        <v>1527</v>
+        <v>1588</v>
       </c>
       <c r="H153" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9532,13 +9910,13 @@
         <v>1276</v>
       </c>
       <c r="F154" t="s">
-        <v>1337</v>
+        <v>1277</v>
       </c>
       <c r="G154" t="s">
-        <v>1528</v>
+        <v>1589</v>
       </c>
       <c r="H154" t="s">
-        <v>1705</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9558,13 +9936,13 @@
         <v>1275</v>
       </c>
       <c r="F155" t="s">
-        <v>1374</v>
+        <v>1384</v>
       </c>
       <c r="G155" t="s">
-        <v>1529</v>
+        <v>1590</v>
       </c>
       <c r="H155" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9584,13 +9962,13 @@
         <v>1302</v>
       </c>
       <c r="F156" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="G156" t="s">
-        <v>1491</v>
+        <v>1591</v>
       </c>
       <c r="H156" t="s">
-        <v>1706</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9610,13 +9988,13 @@
         <v>1276</v>
       </c>
       <c r="F157" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="G157" t="s">
-        <v>1530</v>
+        <v>1592</v>
       </c>
       <c r="H157" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9636,13 +10014,13 @@
         <v>1303</v>
       </c>
       <c r="F158" t="s">
-        <v>1340</v>
+        <v>1385</v>
       </c>
       <c r="G158" t="s">
-        <v>1446</v>
+        <v>1593</v>
       </c>
       <c r="H158" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9662,13 +10040,13 @@
         <v>1277</v>
       </c>
       <c r="F159" t="s">
-        <v>1338</v>
+        <v>1354</v>
       </c>
       <c r="G159" t="s">
-        <v>1514</v>
+        <v>1594</v>
       </c>
       <c r="H159" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9688,13 +10066,13 @@
         <v>1277</v>
       </c>
       <c r="F160" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="G160" t="s">
-        <v>1531</v>
+        <v>1595</v>
       </c>
       <c r="H160" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9714,13 +10092,13 @@
         <v>1277</v>
       </c>
       <c r="F161" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="G161" t="s">
-        <v>1066</v>
+        <v>1596</v>
       </c>
       <c r="H161" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9743,10 +10121,10 @@
         <v>1277</v>
       </c>
       <c r="G162" t="s">
-        <v>1532</v>
+        <v>1479</v>
       </c>
       <c r="H162" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9766,13 +10144,13 @@
         <v>1284</v>
       </c>
       <c r="F163" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G163" t="s">
-        <v>1461</v>
+        <v>1597</v>
       </c>
       <c r="H163" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9792,13 +10170,13 @@
         <v>1284</v>
       </c>
       <c r="F164" t="s">
-        <v>1356</v>
+        <v>1369</v>
       </c>
       <c r="G164" t="s">
-        <v>1533</v>
+        <v>1598</v>
       </c>
       <c r="H164" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9818,13 +10196,13 @@
         <v>1284</v>
       </c>
       <c r="F165" t="s">
-        <v>1284</v>
+        <v>1386</v>
       </c>
       <c r="G165" t="s">
-        <v>1456</v>
+        <v>1599</v>
       </c>
       <c r="H165" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9850,7 +10228,7 @@
         <v>1066</v>
       </c>
       <c r="H166" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -9870,13 +10248,13 @@
         <v>1277</v>
       </c>
       <c r="F167" t="s">
-        <v>1277</v>
+        <v>1369</v>
       </c>
       <c r="G167" t="s">
-        <v>1461</v>
+        <v>1600</v>
       </c>
       <c r="H167" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9902,7 +10280,7 @@
         <v>980</v>
       </c>
       <c r="H168" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -9922,13 +10300,13 @@
         <v>1278</v>
       </c>
       <c r="F169" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G169" t="s">
-        <v>1456</v>
+        <v>1601</v>
       </c>
       <c r="H169" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -9948,13 +10326,13 @@
         <v>1285</v>
       </c>
       <c r="F170" t="s">
-        <v>1349</v>
+        <v>1374</v>
       </c>
       <c r="G170" t="s">
-        <v>1534</v>
+        <v>1602</v>
       </c>
       <c r="H170" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -9977,10 +10355,10 @@
         <v>1277</v>
       </c>
       <c r="G171" t="s">
-        <v>1456</v>
+        <v>1551</v>
       </c>
       <c r="H171" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10000,13 +10378,13 @@
         <v>1278</v>
       </c>
       <c r="F172" t="s">
-        <v>1349</v>
+        <v>1387</v>
       </c>
       <c r="G172" t="s">
-        <v>1535</v>
+        <v>1603</v>
       </c>
       <c r="H172" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10026,13 +10404,13 @@
         <v>1304</v>
       </c>
       <c r="F173" t="s">
-        <v>1375</v>
+        <v>1388</v>
       </c>
       <c r="G173" t="s">
-        <v>1536</v>
+        <v>1604</v>
       </c>
       <c r="H173" t="s">
-        <v>1698</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10052,13 +10430,13 @@
         <v>1299</v>
       </c>
       <c r="F174" t="s">
-        <v>1284</v>
+        <v>1360</v>
       </c>
       <c r="G174" t="s">
-        <v>1069</v>
+        <v>1605</v>
       </c>
       <c r="H174" t="s">
-        <v>1701</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10078,13 +10456,13 @@
         <v>1305</v>
       </c>
       <c r="F175" t="s">
-        <v>1376</v>
+        <v>1389</v>
       </c>
       <c r="G175" t="s">
-        <v>1537</v>
+        <v>1606</v>
       </c>
       <c r="H175" t="s">
-        <v>1698</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10107,10 +10485,10 @@
         <v>1277</v>
       </c>
       <c r="G176" t="s">
-        <v>1461</v>
+        <v>1497</v>
       </c>
       <c r="H176" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10130,13 +10508,13 @@
         <v>1276</v>
       </c>
       <c r="F177" t="s">
-        <v>1277</v>
+        <v>1354</v>
       </c>
       <c r="G177" t="s">
-        <v>1538</v>
+        <v>1607</v>
       </c>
       <c r="H177" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10159,10 +10537,10 @@
         <v>1277</v>
       </c>
       <c r="G178" t="s">
-        <v>1539</v>
+        <v>1608</v>
       </c>
       <c r="H178" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10182,13 +10560,13 @@
         <v>1276</v>
       </c>
       <c r="F179" t="s">
-        <v>1344</v>
+        <v>1277</v>
       </c>
       <c r="G179" t="s">
-        <v>1540</v>
+        <v>1609</v>
       </c>
       <c r="H179" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10208,13 +10586,13 @@
         <v>1306</v>
       </c>
       <c r="F180" t="s">
-        <v>1377</v>
+        <v>1390</v>
       </c>
       <c r="G180" t="s">
-        <v>1541</v>
+        <v>1610</v>
       </c>
       <c r="H180" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10234,13 +10612,13 @@
         <v>1275</v>
       </c>
       <c r="F181" t="s">
-        <v>1346</v>
+        <v>1391</v>
       </c>
       <c r="G181" t="s">
-        <v>1542</v>
+        <v>1611</v>
       </c>
       <c r="H181" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10260,13 +10638,13 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1378</v>
+        <v>1392</v>
       </c>
       <c r="G182" t="s">
-        <v>1543</v>
+        <v>1612</v>
       </c>
       <c r="H182" t="s">
-        <v>1696</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10286,13 +10664,13 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1379</v>
+        <v>1393</v>
       </c>
       <c r="G183" t="s">
-        <v>1544</v>
+        <v>1613</v>
       </c>
       <c r="H183" t="s">
-        <v>1707</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10312,13 +10690,13 @@
         <v>1308</v>
       </c>
       <c r="F184" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="G184" t="s">
-        <v>1545</v>
+        <v>1614</v>
       </c>
       <c r="H184" t="s">
-        <v>1698</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10338,13 +10716,13 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1380</v>
+        <v>1360</v>
       </c>
       <c r="G185" t="s">
-        <v>1546</v>
+        <v>1615</v>
       </c>
       <c r="H185" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10364,13 +10742,13 @@
         <v>1276</v>
       </c>
       <c r="F186" t="s">
-        <v>1381</v>
+        <v>1277</v>
       </c>
       <c r="G186" t="s">
-        <v>1547</v>
+        <v>1609</v>
       </c>
       <c r="H186" t="s">
-        <v>1701</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10390,13 +10768,13 @@
         <v>1277</v>
       </c>
       <c r="F187" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="G187" t="s">
-        <v>993</v>
+        <v>1616</v>
       </c>
       <c r="H187" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10419,10 +10797,10 @@
         <v>1277</v>
       </c>
       <c r="G188" t="s">
-        <v>1456</v>
+        <v>1551</v>
       </c>
       <c r="H188" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10445,10 +10823,10 @@
         <v>1277</v>
       </c>
       <c r="G189" t="s">
-        <v>1548</v>
+        <v>1617</v>
       </c>
       <c r="H189" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10468,13 +10846,13 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1371</v>
+        <v>1394</v>
       </c>
       <c r="G190" t="s">
-        <v>1454</v>
+        <v>1618</v>
       </c>
       <c r="H190" t="s">
-        <v>1701</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10494,13 +10872,13 @@
         <v>1284</v>
       </c>
       <c r="F191" t="s">
-        <v>1372</v>
+        <v>1284</v>
       </c>
       <c r="G191" t="s">
-        <v>1549</v>
+        <v>1093</v>
       </c>
       <c r="H191" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10520,13 +10898,13 @@
         <v>1277</v>
       </c>
       <c r="F192" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G192" t="s">
-        <v>937</v>
+        <v>1619</v>
       </c>
       <c r="H192" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10549,10 +10927,10 @@
         <v>1277</v>
       </c>
       <c r="G193" t="s">
-        <v>993</v>
+        <v>1620</v>
       </c>
       <c r="H193" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10578,7 +10956,7 @@
         <v>952</v>
       </c>
       <c r="H194" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10604,7 +10982,7 @@
         <v>937</v>
       </c>
       <c r="H195" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10624,13 +11002,13 @@
         <v>1276</v>
       </c>
       <c r="F196" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G196" t="s">
-        <v>1550</v>
+        <v>1621</v>
       </c>
       <c r="H196" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10650,13 +11028,13 @@
         <v>1310</v>
       </c>
       <c r="F197" t="s">
-        <v>1382</v>
+        <v>1395</v>
       </c>
       <c r="G197" t="s">
-        <v>1453</v>
+        <v>1622</v>
       </c>
       <c r="H197" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10676,13 +11054,13 @@
         <v>1283</v>
       </c>
       <c r="F198" t="s">
-        <v>1383</v>
+        <v>1396</v>
       </c>
       <c r="G198" t="s">
-        <v>1551</v>
+        <v>1623</v>
       </c>
       <c r="H198" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10702,13 +11080,13 @@
         <v>1277</v>
       </c>
       <c r="F199" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G199" t="s">
-        <v>1552</v>
+        <v>1624</v>
       </c>
       <c r="H199" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10734,7 +11112,7 @@
         <v>972</v>
       </c>
       <c r="H200" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10757,10 +11135,10 @@
         <v>1284</v>
       </c>
       <c r="G201" t="s">
-        <v>1455</v>
+        <v>1525</v>
       </c>
       <c r="H201" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10786,7 +11164,7 @@
         <v>1000</v>
       </c>
       <c r="H202" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10805,8 +11183,14 @@
       <c r="E203" t="s">
         <v>1296</v>
       </c>
+      <c r="F203" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G203" t="s">
+        <v>1625</v>
+      </c>
       <c r="H203" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10826,13 +11210,13 @@
         <v>1277</v>
       </c>
       <c r="F204" t="s">
-        <v>1384</v>
+        <v>1342</v>
       </c>
       <c r="G204" t="s">
-        <v>1553</v>
+        <v>1626</v>
       </c>
       <c r="H204" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -10852,13 +11236,13 @@
         <v>1277</v>
       </c>
       <c r="F205" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="G205" t="s">
-        <v>1523</v>
+        <v>1615</v>
       </c>
       <c r="H205" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10878,13 +11262,13 @@
         <v>1284</v>
       </c>
       <c r="F206" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="G206" t="s">
-        <v>1523</v>
+        <v>1615</v>
       </c>
       <c r="H206" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -10904,13 +11288,13 @@
         <v>1308</v>
       </c>
       <c r="F207" t="s">
-        <v>1385</v>
+        <v>1397</v>
       </c>
       <c r="G207" t="s">
-        <v>1554</v>
+        <v>1627</v>
       </c>
       <c r="H207" t="s">
-        <v>1698</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -10930,13 +11314,13 @@
         <v>1284</v>
       </c>
       <c r="F208" t="s">
-        <v>1284</v>
+        <v>1398</v>
       </c>
       <c r="G208" t="s">
-        <v>1093</v>
+        <v>1628</v>
       </c>
       <c r="H208" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -10956,13 +11340,13 @@
         <v>1311</v>
       </c>
       <c r="F209" t="s">
-        <v>1367</v>
+        <v>1399</v>
       </c>
       <c r="G209" t="s">
-        <v>1555</v>
+        <v>1629</v>
       </c>
       <c r="H209" t="s">
-        <v>1704</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -10982,13 +11366,13 @@
         <v>1278</v>
       </c>
       <c r="F210" t="s">
-        <v>1349</v>
+        <v>1400</v>
       </c>
       <c r="G210" t="s">
-        <v>1556</v>
+        <v>1630</v>
       </c>
       <c r="H210" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11008,13 +11392,13 @@
         <v>1275</v>
       </c>
       <c r="F211" t="s">
-        <v>1386</v>
+        <v>1401</v>
       </c>
       <c r="G211" t="s">
-        <v>1557</v>
+        <v>1631</v>
       </c>
       <c r="H211" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11034,13 +11418,13 @@
         <v>1275</v>
       </c>
       <c r="F212" t="s">
-        <v>1275</v>
+        <v>1343</v>
       </c>
       <c r="G212" t="s">
-        <v>952</v>
+        <v>1632</v>
       </c>
       <c r="H212" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11060,13 +11444,13 @@
         <v>1277</v>
       </c>
       <c r="F213" t="s">
-        <v>1277</v>
+        <v>1369</v>
       </c>
       <c r="G213" t="s">
-        <v>937</v>
+        <v>1633</v>
       </c>
       <c r="H213" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11086,13 +11470,13 @@
         <v>1276</v>
       </c>
       <c r="F214" t="s">
-        <v>1381</v>
+        <v>1342</v>
       </c>
       <c r="G214" t="s">
-        <v>1558</v>
+        <v>1634</v>
       </c>
       <c r="H214" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11115,10 +11499,10 @@
         <v>1277</v>
       </c>
       <c r="G215" t="s">
-        <v>1532</v>
+        <v>1635</v>
       </c>
       <c r="H215" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11138,13 +11522,13 @@
         <v>1310</v>
       </c>
       <c r="F216" t="s">
-        <v>1387</v>
+        <v>1336</v>
       </c>
       <c r="G216" t="s">
-        <v>1559</v>
+        <v>1636</v>
       </c>
       <c r="H216" t="s">
-        <v>1708</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11164,13 +11548,13 @@
         <v>1277</v>
       </c>
       <c r="F217" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="G217" t="s">
-        <v>1560</v>
+        <v>1637</v>
       </c>
       <c r="H217" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11193,10 +11577,10 @@
         <v>1284</v>
       </c>
       <c r="G218" t="s">
-        <v>1455</v>
+        <v>1525</v>
       </c>
       <c r="H218" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11216,13 +11600,13 @@
         <v>1295</v>
       </c>
       <c r="F219" t="s">
-        <v>1341</v>
+        <v>1392</v>
       </c>
       <c r="G219" t="s">
-        <v>1561</v>
+        <v>1638</v>
       </c>
       <c r="H219" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11245,10 +11629,10 @@
         <v>1277</v>
       </c>
       <c r="G220" t="s">
-        <v>1491</v>
+        <v>1532</v>
       </c>
       <c r="H220" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11268,13 +11652,13 @@
         <v>1310</v>
       </c>
       <c r="F221" t="s">
-        <v>1382</v>
+        <v>1395</v>
       </c>
       <c r="G221" t="s">
-        <v>1562</v>
+        <v>1639</v>
       </c>
       <c r="H221" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11294,13 +11678,13 @@
         <v>1284</v>
       </c>
       <c r="F222" t="s">
-        <v>1388</v>
+        <v>1402</v>
       </c>
       <c r="G222" t="s">
-        <v>1563</v>
+        <v>1640</v>
       </c>
       <c r="H222" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11320,13 +11704,13 @@
         <v>1309</v>
       </c>
       <c r="F223" t="s">
-        <v>1346</v>
+        <v>1403</v>
       </c>
       <c r="G223" t="s">
-        <v>1564</v>
+        <v>1641</v>
       </c>
       <c r="H223" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11346,13 +11730,13 @@
         <v>1312</v>
       </c>
       <c r="F224" t="s">
-        <v>1275</v>
+        <v>1364</v>
       </c>
       <c r="G224" t="s">
-        <v>952</v>
+        <v>1642</v>
       </c>
       <c r="H224" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11372,13 +11756,13 @@
         <v>1275</v>
       </c>
       <c r="F225" t="s">
-        <v>1346</v>
+        <v>1275</v>
       </c>
       <c r="G225" t="s">
-        <v>1564</v>
+        <v>952</v>
       </c>
       <c r="H225" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11398,13 +11782,13 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1389</v>
+        <v>1404</v>
       </c>
       <c r="G226" t="s">
-        <v>1565</v>
+        <v>1643</v>
       </c>
       <c r="H226" t="s">
-        <v>1709</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11424,13 +11808,13 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1390</v>
+        <v>1405</v>
       </c>
       <c r="G227" t="s">
-        <v>1566</v>
+        <v>1644</v>
       </c>
       <c r="H227" t="s">
-        <v>1710</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11450,13 +11834,13 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1372</v>
+        <v>1406</v>
       </c>
       <c r="G228" t="s">
-        <v>1567</v>
+        <v>1645</v>
       </c>
       <c r="H228" t="s">
-        <v>1689</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11482,7 +11866,7 @@
         <v>1093</v>
       </c>
       <c r="H229" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11508,7 +11892,7 @@
         <v>935</v>
       </c>
       <c r="H230" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11534,7 +11918,7 @@
         <v>1093</v>
       </c>
       <c r="H231" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11554,13 +11938,13 @@
         <v>1284</v>
       </c>
       <c r="F232" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="G232" t="s">
-        <v>1568</v>
+        <v>1646</v>
       </c>
       <c r="H232" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11580,13 +11964,13 @@
         <v>1275</v>
       </c>
       <c r="F233" t="s">
-        <v>1347</v>
+        <v>1407</v>
       </c>
       <c r="G233" t="s">
-        <v>1458</v>
+        <v>1647</v>
       </c>
       <c r="H233" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11606,13 +11990,13 @@
         <v>1293</v>
       </c>
       <c r="F234" t="s">
-        <v>1293</v>
+        <v>1356</v>
       </c>
       <c r="G234" t="s">
-        <v>1457</v>
+        <v>1648</v>
       </c>
       <c r="H234" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11638,7 +12022,7 @@
         <v>952</v>
       </c>
       <c r="H235" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11661,10 +12045,10 @@
         <v>1293</v>
       </c>
       <c r="G236" t="s">
-        <v>1569</v>
+        <v>1649</v>
       </c>
       <c r="H236" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11687,10 +12071,10 @@
         <v>1293</v>
       </c>
       <c r="G237" t="s">
-        <v>1457</v>
+        <v>1650</v>
       </c>
       <c r="H237" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11710,13 +12094,13 @@
         <v>1284</v>
       </c>
       <c r="F238" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="G238" t="s">
-        <v>1570</v>
+        <v>1651</v>
       </c>
       <c r="H238" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11736,13 +12120,13 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1389</v>
+        <v>1364</v>
       </c>
       <c r="G239" t="s">
-        <v>1571</v>
+        <v>1485</v>
       </c>
       <c r="H239" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11762,13 +12146,13 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1372</v>
+        <v>1408</v>
       </c>
       <c r="G240" t="s">
-        <v>1533</v>
+        <v>1652</v>
       </c>
       <c r="H240" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11788,13 +12172,13 @@
         <v>1284</v>
       </c>
       <c r="F241" t="s">
-        <v>1275</v>
+        <v>1409</v>
       </c>
       <c r="G241" t="s">
-        <v>935</v>
+        <v>1653</v>
       </c>
       <c r="H241" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11814,13 +12198,13 @@
         <v>1315</v>
       </c>
       <c r="F242" t="s">
-        <v>1391</v>
+        <v>1410</v>
       </c>
       <c r="G242" t="s">
-        <v>1572</v>
+        <v>1654</v>
       </c>
       <c r="H242" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11840,13 +12224,13 @@
         <v>1275</v>
       </c>
       <c r="F243" t="s">
-        <v>1275</v>
+        <v>1403</v>
       </c>
       <c r="G243" t="s">
-        <v>952</v>
+        <v>1655</v>
       </c>
       <c r="H243" t="s">
-        <v>1689</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -11866,13 +12250,13 @@
         <v>1284</v>
       </c>
       <c r="F244" t="s">
-        <v>1277</v>
+        <v>1402</v>
       </c>
       <c r="G244" t="s">
-        <v>972</v>
+        <v>1656</v>
       </c>
       <c r="H244" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -11892,13 +12276,13 @@
         <v>1316</v>
       </c>
       <c r="F245" t="s">
-        <v>1367</v>
+        <v>1352</v>
       </c>
       <c r="G245" t="s">
-        <v>1573</v>
+        <v>1657</v>
       </c>
       <c r="H245" t="s">
-        <v>1698</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -11918,13 +12302,13 @@
         <v>1284</v>
       </c>
       <c r="F246" t="s">
-        <v>1372</v>
+        <v>1284</v>
       </c>
       <c r="G246" t="s">
-        <v>1574</v>
+        <v>1658</v>
       </c>
       <c r="H246" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -11944,13 +12328,13 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1392</v>
+        <v>1410</v>
       </c>
       <c r="G247" t="s">
-        <v>1525</v>
+        <v>1659</v>
       </c>
       <c r="H247" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -11970,13 +12354,13 @@
         <v>1275</v>
       </c>
       <c r="F248" t="s">
-        <v>1346</v>
+        <v>1394</v>
       </c>
       <c r="G248" t="s">
-        <v>1454</v>
+        <v>1660</v>
       </c>
       <c r="H248" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -11996,13 +12380,13 @@
         <v>1275</v>
       </c>
       <c r="F249" t="s">
-        <v>1346</v>
+        <v>1275</v>
       </c>
       <c r="G249" t="s">
-        <v>1575</v>
+        <v>1497</v>
       </c>
       <c r="H249" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12022,13 +12406,13 @@
         <v>1275</v>
       </c>
       <c r="F250" t="s">
-        <v>1393</v>
+        <v>1411</v>
       </c>
       <c r="G250" t="s">
-        <v>1576</v>
+        <v>1485</v>
       </c>
       <c r="H250" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12054,7 +12438,7 @@
         <v>935</v>
       </c>
       <c r="H251" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12074,13 +12458,13 @@
         <v>1309</v>
       </c>
       <c r="F252" t="s">
-        <v>1275</v>
+        <v>1392</v>
       </c>
       <c r="G252" t="s">
-        <v>1445</v>
+        <v>1661</v>
       </c>
       <c r="H252" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12100,13 +12484,13 @@
         <v>1275</v>
       </c>
       <c r="F253" t="s">
-        <v>1394</v>
+        <v>1364</v>
       </c>
       <c r="G253" t="s">
-        <v>1577</v>
+        <v>1662</v>
       </c>
       <c r="H253" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12126,13 +12510,13 @@
         <v>1304</v>
       </c>
       <c r="F254" t="s">
-        <v>1395</v>
+        <v>1412</v>
       </c>
       <c r="G254" t="s">
-        <v>1578</v>
+        <v>1663</v>
       </c>
       <c r="H254" t="s">
-        <v>1692</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12158,7 +12542,7 @@
         <v>963</v>
       </c>
       <c r="H255" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12178,13 +12562,13 @@
         <v>1299</v>
       </c>
       <c r="F256" t="s">
-        <v>1382</v>
+        <v>1275</v>
       </c>
       <c r="G256" t="s">
-        <v>1501</v>
+        <v>952</v>
       </c>
       <c r="H256" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12204,13 +12588,13 @@
         <v>1275</v>
       </c>
       <c r="F257" t="s">
-        <v>1347</v>
+        <v>1275</v>
       </c>
       <c r="G257" t="s">
-        <v>1579</v>
+        <v>1164</v>
       </c>
       <c r="H257" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12230,13 +12614,13 @@
         <v>1275</v>
       </c>
       <c r="F258" t="s">
-        <v>1360</v>
+        <v>1275</v>
       </c>
       <c r="G258" t="s">
-        <v>1580</v>
+        <v>952</v>
       </c>
       <c r="H258" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12262,7 +12646,7 @@
         <v>952</v>
       </c>
       <c r="H259" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12282,13 +12666,13 @@
         <v>1275</v>
       </c>
       <c r="F260" t="s">
-        <v>1344</v>
+        <v>1277</v>
       </c>
       <c r="G260" t="s">
-        <v>1581</v>
+        <v>972</v>
       </c>
       <c r="H260" t="s">
-        <v>1701</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12308,13 +12692,13 @@
         <v>1278</v>
       </c>
       <c r="F261" t="s">
-        <v>1376</v>
+        <v>1293</v>
       </c>
       <c r="G261" t="s">
-        <v>1582</v>
+        <v>1650</v>
       </c>
       <c r="H261" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12334,13 +12718,13 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1396</v>
+        <v>1351</v>
       </c>
       <c r="G262" t="s">
-        <v>1583</v>
+        <v>1489</v>
       </c>
       <c r="H262" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12360,13 +12744,13 @@
         <v>1278</v>
       </c>
       <c r="F263" t="s">
-        <v>1349</v>
+        <v>1413</v>
       </c>
       <c r="G263" t="s">
-        <v>1584</v>
+        <v>1664</v>
       </c>
       <c r="H263" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12392,7 +12776,7 @@
         <v>1069</v>
       </c>
       <c r="H264" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12415,10 +12799,10 @@
         <v>1293</v>
       </c>
       <c r="G265" t="s">
-        <v>1457</v>
+        <v>1650</v>
       </c>
       <c r="H265" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12438,13 +12822,13 @@
         <v>1284</v>
       </c>
       <c r="F266" t="s">
-        <v>1397</v>
+        <v>1414</v>
       </c>
       <c r="G266" t="s">
-        <v>1585</v>
+        <v>1665</v>
       </c>
       <c r="H266" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12464,13 +12848,13 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1284</v>
+        <v>1415</v>
       </c>
       <c r="G267" t="s">
-        <v>972</v>
+        <v>1666</v>
       </c>
       <c r="H267" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12490,13 +12874,13 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1398</v>
+        <v>1416</v>
       </c>
       <c r="G268" t="s">
-        <v>1586</v>
+        <v>1667</v>
       </c>
       <c r="H268" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12516,13 +12900,13 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="G269" t="s">
-        <v>1587</v>
+        <v>1668</v>
       </c>
       <c r="H269" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12542,13 +12926,13 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1399</v>
+        <v>1417</v>
       </c>
       <c r="G270" t="s">
-        <v>1588</v>
+        <v>1669</v>
       </c>
       <c r="H270" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12568,13 +12952,13 @@
         <v>1293</v>
       </c>
       <c r="F271" t="s">
-        <v>1400</v>
+        <v>1418</v>
       </c>
       <c r="G271" t="s">
-        <v>1589</v>
+        <v>1670</v>
       </c>
       <c r="H271" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12594,13 +12978,13 @@
         <v>1278</v>
       </c>
       <c r="F272" t="s">
-        <v>1401</v>
+        <v>1413</v>
       </c>
       <c r="G272" t="s">
-        <v>1590</v>
+        <v>1671</v>
       </c>
       <c r="H272" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12620,13 +13004,13 @@
         <v>1285</v>
       </c>
       <c r="F273" t="s">
-        <v>1402</v>
+        <v>1419</v>
       </c>
       <c r="G273" t="s">
-        <v>1591</v>
+        <v>1672</v>
       </c>
       <c r="H273" t="s">
-        <v>1697</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12646,13 +13030,13 @@
         <v>1275</v>
       </c>
       <c r="F274" t="s">
-        <v>1403</v>
+        <v>1420</v>
       </c>
       <c r="G274" t="s">
-        <v>1592</v>
+        <v>1673</v>
       </c>
       <c r="H274" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12672,13 +13056,13 @@
         <v>1275</v>
       </c>
       <c r="F275" t="s">
-        <v>1345</v>
+        <v>1421</v>
       </c>
       <c r="G275" t="s">
-        <v>1593</v>
+        <v>1674</v>
       </c>
       <c r="H275" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12698,13 +13082,13 @@
         <v>1303</v>
       </c>
       <c r="F276" t="s">
-        <v>1344</v>
+        <v>1277</v>
       </c>
       <c r="G276" t="s">
-        <v>1594</v>
+        <v>937</v>
       </c>
       <c r="H276" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12724,13 +13108,13 @@
         <v>1285</v>
       </c>
       <c r="F277" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G277" t="s">
-        <v>1595</v>
+        <v>1675</v>
       </c>
       <c r="H277" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12750,13 +13134,13 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1358</v>
+        <v>1422</v>
       </c>
       <c r="G278" t="s">
-        <v>1479</v>
+        <v>1676</v>
       </c>
       <c r="H278" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12776,13 +13160,13 @@
         <v>1284</v>
       </c>
       <c r="F279" t="s">
-        <v>1404</v>
+        <v>1423</v>
       </c>
       <c r="G279" t="s">
-        <v>1596</v>
+        <v>1677</v>
       </c>
       <c r="H279" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12802,13 +13186,13 @@
         <v>1318</v>
       </c>
       <c r="F280" t="s">
-        <v>1355</v>
+        <v>1424</v>
       </c>
       <c r="G280" t="s">
-        <v>1597</v>
+        <v>1678</v>
       </c>
       <c r="H280" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12828,13 +13212,13 @@
         <v>1275</v>
       </c>
       <c r="F281" t="s">
-        <v>1346</v>
+        <v>1275</v>
       </c>
       <c r="G281" t="s">
-        <v>1598</v>
+        <v>1525</v>
       </c>
       <c r="H281" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -12854,13 +13238,13 @@
         <v>1275</v>
       </c>
       <c r="F282" t="s">
-        <v>1284</v>
+        <v>1360</v>
       </c>
       <c r="G282" t="s">
-        <v>1455</v>
+        <v>1679</v>
       </c>
       <c r="H282" t="s">
-        <v>1701</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -12880,13 +13264,13 @@
         <v>1275</v>
       </c>
       <c r="F283" t="s">
-        <v>1275</v>
+        <v>1425</v>
       </c>
       <c r="G283" t="s">
-        <v>952</v>
+        <v>1680</v>
       </c>
       <c r="H283" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -12906,13 +13290,13 @@
         <v>1275</v>
       </c>
       <c r="F284" t="s">
-        <v>1277</v>
+        <v>1391</v>
       </c>
       <c r="G284" t="s">
-        <v>1456</v>
+        <v>1681</v>
       </c>
       <c r="H284" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -12932,13 +13316,13 @@
         <v>1275</v>
       </c>
       <c r="F285" t="s">
-        <v>1405</v>
+        <v>1426</v>
       </c>
       <c r="G285" t="s">
-        <v>1599</v>
+        <v>1682</v>
       </c>
       <c r="H285" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -12958,13 +13342,13 @@
         <v>1275</v>
       </c>
       <c r="F286" t="s">
-        <v>1347</v>
+        <v>1391</v>
       </c>
       <c r="G286" t="s">
-        <v>1600</v>
+        <v>1683</v>
       </c>
       <c r="H286" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -12984,13 +13368,13 @@
         <v>1275</v>
       </c>
       <c r="F287" t="s">
-        <v>1406</v>
+        <v>1427</v>
       </c>
       <c r="G287" t="s">
-        <v>1601</v>
+        <v>1684</v>
       </c>
       <c r="H287" t="s">
-        <v>1701</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13013,10 +13397,10 @@
         <v>1284</v>
       </c>
       <c r="G288" t="s">
-        <v>1119</v>
+        <v>1685</v>
       </c>
       <c r="H288" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13042,7 +13426,7 @@
         <v>952</v>
       </c>
       <c r="H289" t="s">
-        <v>1689</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13062,13 +13446,13 @@
         <v>1319</v>
       </c>
       <c r="F290" t="s">
-        <v>1401</v>
+        <v>1352</v>
       </c>
       <c r="G290" t="s">
-        <v>1602</v>
+        <v>1686</v>
       </c>
       <c r="H290" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13088,13 +13472,13 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1347</v>
+        <v>1428</v>
       </c>
       <c r="G291" t="s">
-        <v>1603</v>
+        <v>1687</v>
       </c>
       <c r="H291" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13114,13 +13498,13 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1407</v>
+        <v>1429</v>
       </c>
       <c r="G292" t="s">
-        <v>1604</v>
+        <v>1688</v>
       </c>
       <c r="H292" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13140,13 +13524,13 @@
         <v>1278</v>
       </c>
       <c r="F293" t="s">
-        <v>1401</v>
+        <v>1352</v>
       </c>
       <c r="G293" t="s">
-        <v>1602</v>
+        <v>1686</v>
       </c>
       <c r="H293" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13169,10 +13553,10 @@
         <v>1277</v>
       </c>
       <c r="G294" t="s">
-        <v>1539</v>
+        <v>1689</v>
       </c>
       <c r="H294" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13192,13 +13576,13 @@
         <v>1284</v>
       </c>
       <c r="F295" t="s">
-        <v>1277</v>
+        <v>1369</v>
       </c>
       <c r="G295" t="s">
-        <v>1538</v>
+        <v>1690</v>
       </c>
       <c r="H295" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13218,13 +13602,13 @@
         <v>1320</v>
       </c>
       <c r="F296" t="s">
-        <v>1347</v>
+        <v>1364</v>
       </c>
       <c r="G296" t="s">
-        <v>1579</v>
+        <v>1691</v>
       </c>
       <c r="H296" t="s">
-        <v>1697</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13244,13 +13628,13 @@
         <v>1275</v>
       </c>
       <c r="F297" t="s">
-        <v>1371</v>
+        <v>1430</v>
       </c>
       <c r="G297" t="s">
-        <v>1605</v>
+        <v>1692</v>
       </c>
       <c r="H297" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13270,13 +13654,13 @@
         <v>1275</v>
       </c>
       <c r="F298" t="s">
-        <v>1346</v>
+        <v>1275</v>
       </c>
       <c r="G298" t="s">
-        <v>1587</v>
+        <v>1516</v>
       </c>
       <c r="H298" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13296,13 +13680,13 @@
         <v>1297</v>
       </c>
       <c r="F299" t="s">
-        <v>1356</v>
+        <v>1382</v>
       </c>
       <c r="G299" t="s">
-        <v>1606</v>
+        <v>1693</v>
       </c>
       <c r="H299" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13322,13 +13706,13 @@
         <v>1284</v>
       </c>
       <c r="F300" t="s">
-        <v>1372</v>
+        <v>1284</v>
       </c>
       <c r="G300" t="s">
-        <v>1549</v>
+        <v>1093</v>
       </c>
       <c r="H300" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13354,7 +13738,7 @@
         <v>952</v>
       </c>
       <c r="H301" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13374,13 +13758,13 @@
         <v>1275</v>
       </c>
       <c r="F302" t="s">
-        <v>1371</v>
+        <v>1395</v>
       </c>
       <c r="G302" t="s">
-        <v>1518</v>
+        <v>1694</v>
       </c>
       <c r="H302" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13400,13 +13784,13 @@
         <v>1284</v>
       </c>
       <c r="F303" t="s">
-        <v>1408</v>
+        <v>1336</v>
       </c>
       <c r="G303" t="s">
-        <v>1607</v>
+        <v>1695</v>
       </c>
       <c r="H303" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13426,13 +13810,13 @@
         <v>1293</v>
       </c>
       <c r="F304" t="s">
-        <v>1284</v>
+        <v>1431</v>
       </c>
       <c r="G304" t="s">
-        <v>1093</v>
+        <v>1696</v>
       </c>
       <c r="H304" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13452,13 +13836,13 @@
         <v>1275</v>
       </c>
       <c r="F305" t="s">
-        <v>1275</v>
+        <v>1348</v>
       </c>
       <c r="G305" t="s">
-        <v>952</v>
+        <v>1697</v>
       </c>
       <c r="H305" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13478,13 +13862,13 @@
         <v>1275</v>
       </c>
       <c r="F306" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="G306" t="s">
-        <v>1538</v>
+        <v>955</v>
       </c>
       <c r="H306" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13504,13 +13888,13 @@
         <v>1284</v>
       </c>
       <c r="F307" t="s">
-        <v>1397</v>
+        <v>1275</v>
       </c>
       <c r="G307" t="s">
-        <v>1608</v>
+        <v>1698</v>
       </c>
       <c r="H307" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13530,13 +13914,13 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1349</v>
+        <v>1432</v>
       </c>
       <c r="G308" t="s">
-        <v>1470</v>
+        <v>1699</v>
       </c>
       <c r="H308" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13556,13 +13940,13 @@
         <v>1275</v>
       </c>
       <c r="F309" t="s">
-        <v>1409</v>
+        <v>1433</v>
       </c>
       <c r="G309" t="s">
-        <v>1609</v>
+        <v>1700</v>
       </c>
       <c r="H309" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13588,7 +13972,7 @@
         <v>1004</v>
       </c>
       <c r="H310" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13608,13 +13992,13 @@
         <v>1278</v>
       </c>
       <c r="F311" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G311" t="s">
-        <v>1610</v>
+        <v>937</v>
       </c>
       <c r="H311" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13634,13 +14018,13 @@
         <v>1275</v>
       </c>
       <c r="F312" t="s">
-        <v>1275</v>
+        <v>1348</v>
       </c>
       <c r="G312" t="s">
-        <v>935</v>
+        <v>1701</v>
       </c>
       <c r="H312" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13666,7 +14050,7 @@
         <v>952</v>
       </c>
       <c r="H313" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13686,13 +14070,13 @@
         <v>1278</v>
       </c>
       <c r="F314" t="s">
-        <v>1293</v>
+        <v>1434</v>
       </c>
       <c r="G314" t="s">
-        <v>1457</v>
+        <v>1508</v>
       </c>
       <c r="H314" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13718,7 +14102,7 @@
         <v>1093</v>
       </c>
       <c r="H315" t="s">
-        <v>1690</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13738,13 +14122,13 @@
         <v>1284</v>
       </c>
       <c r="F316" t="s">
-        <v>1284</v>
+        <v>1360</v>
       </c>
       <c r="G316" t="s">
-        <v>1093</v>
+        <v>1702</v>
       </c>
       <c r="H316" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13764,13 +14148,13 @@
         <v>1284</v>
       </c>
       <c r="F317" t="s">
-        <v>1284</v>
+        <v>1406</v>
       </c>
       <c r="G317" t="s">
-        <v>972</v>
+        <v>1703</v>
       </c>
       <c r="H317" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13790,13 +14174,13 @@
         <v>1284</v>
       </c>
       <c r="F318" t="s">
-        <v>1372</v>
+        <v>1414</v>
       </c>
       <c r="G318" t="s">
-        <v>1611</v>
+        <v>1704</v>
       </c>
       <c r="H318" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13816,13 +14200,13 @@
         <v>1275</v>
       </c>
       <c r="F319" t="s">
-        <v>1275</v>
+        <v>1343</v>
       </c>
       <c r="G319" t="s">
-        <v>952</v>
+        <v>1705</v>
       </c>
       <c r="H319" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -13848,7 +14232,7 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -13868,13 +14252,13 @@
         <v>1293</v>
       </c>
       <c r="F321" t="s">
-        <v>1400</v>
+        <v>1432</v>
       </c>
       <c r="G321" t="s">
-        <v>1612</v>
+        <v>1706</v>
       </c>
       <c r="H321" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -13894,13 +14278,13 @@
         <v>1275</v>
       </c>
       <c r="F322" t="s">
-        <v>1410</v>
+        <v>1435</v>
       </c>
       <c r="G322" t="s">
-        <v>1613</v>
+        <v>1707</v>
       </c>
       <c r="H322" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -13920,13 +14304,13 @@
         <v>1275</v>
       </c>
       <c r="F323" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="G323" t="s">
-        <v>1518</v>
+        <v>1570</v>
       </c>
       <c r="H323" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -13946,13 +14330,13 @@
         <v>1278</v>
       </c>
       <c r="F324" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G324" t="s">
-        <v>1444</v>
+        <v>1489</v>
       </c>
       <c r="H324" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -13978,7 +14362,7 @@
         <v>1175</v>
       </c>
       <c r="H325" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -13998,13 +14382,13 @@
         <v>1284</v>
       </c>
       <c r="F326" t="s">
-        <v>1284</v>
+        <v>1357</v>
       </c>
       <c r="G326" t="s">
-        <v>1093</v>
+        <v>1708</v>
       </c>
       <c r="H326" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14024,13 +14408,13 @@
         <v>1314</v>
       </c>
       <c r="F327" t="s">
-        <v>1372</v>
+        <v>1436</v>
       </c>
       <c r="G327" t="s">
-        <v>1614</v>
+        <v>1709</v>
       </c>
       <c r="H327" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14053,10 +14437,10 @@
         <v>1284</v>
       </c>
       <c r="G328" t="s">
-        <v>1461</v>
+        <v>1497</v>
       </c>
       <c r="H328" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14076,13 +14460,13 @@
         <v>1309</v>
       </c>
       <c r="F329" t="s">
-        <v>1275</v>
+        <v>1348</v>
       </c>
       <c r="G329" t="s">
-        <v>935</v>
+        <v>1710</v>
       </c>
       <c r="H329" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14102,13 +14486,13 @@
         <v>1278</v>
       </c>
       <c r="F330" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G330" t="s">
-        <v>1615</v>
+        <v>1711</v>
       </c>
       <c r="H330" t="s">
-        <v>1696</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14134,7 +14518,7 @@
         <v>952</v>
       </c>
       <c r="H331" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14160,7 +14544,7 @@
         <v>1093</v>
       </c>
       <c r="H332" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14180,13 +14564,13 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1340</v>
+        <v>1351</v>
       </c>
       <c r="G333" t="s">
-        <v>1616</v>
+        <v>1712</v>
       </c>
       <c r="H333" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14206,13 +14590,13 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1284</v>
+        <v>1360</v>
       </c>
       <c r="G334" t="s">
-        <v>1069</v>
+        <v>1713</v>
       </c>
       <c r="H334" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14232,13 +14616,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1411</v>
+        <v>1437</v>
       </c>
       <c r="G335" t="s">
-        <v>1617</v>
+        <v>1714</v>
       </c>
       <c r="H335" t="s">
-        <v>1711</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14258,13 +14642,13 @@
         <v>1284</v>
       </c>
       <c r="F336" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="G336" t="s">
-        <v>1456</v>
+        <v>1715</v>
       </c>
       <c r="H336" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14284,13 +14668,13 @@
         <v>1296</v>
       </c>
       <c r="F337" t="s">
-        <v>1400</v>
+        <v>1438</v>
       </c>
       <c r="G337" t="s">
-        <v>1618</v>
+        <v>1716</v>
       </c>
       <c r="H337" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14310,13 +14694,13 @@
         <v>1284</v>
       </c>
       <c r="F338" t="s">
-        <v>1284</v>
+        <v>1406</v>
       </c>
       <c r="G338" t="s">
-        <v>1461</v>
+        <v>1717</v>
       </c>
       <c r="H338" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14336,13 +14720,13 @@
         <v>1275</v>
       </c>
       <c r="F339" t="s">
-        <v>1382</v>
+        <v>1284</v>
       </c>
       <c r="G339" t="s">
-        <v>1619</v>
+        <v>972</v>
       </c>
       <c r="H339" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14365,10 +14749,10 @@
         <v>1284</v>
       </c>
       <c r="G340" t="s">
-        <v>1184</v>
+        <v>1718</v>
       </c>
       <c r="H340" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14388,13 +14772,13 @@
         <v>1321</v>
       </c>
       <c r="F341" t="s">
-        <v>1293</v>
+        <v>1434</v>
       </c>
       <c r="G341" t="s">
-        <v>1457</v>
+        <v>1719</v>
       </c>
       <c r="H341" t="s">
-        <v>1701</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14414,13 +14798,13 @@
         <v>1310</v>
       </c>
       <c r="F342" t="s">
-        <v>1372</v>
+        <v>1439</v>
       </c>
       <c r="G342" t="s">
-        <v>1533</v>
+        <v>1720</v>
       </c>
       <c r="H342" t="s">
-        <v>1690</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14440,13 +14824,13 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1412</v>
+        <v>1373</v>
       </c>
       <c r="G343" t="s">
-        <v>1620</v>
+        <v>1721</v>
       </c>
       <c r="H343" t="s">
-        <v>1696</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14466,13 +14850,13 @@
         <v>1296</v>
       </c>
       <c r="F344" t="s">
-        <v>1400</v>
+        <v>1432</v>
       </c>
       <c r="G344" t="s">
-        <v>1612</v>
+        <v>1706</v>
       </c>
       <c r="H344" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14492,13 +14876,13 @@
         <v>1275</v>
       </c>
       <c r="F345" t="s">
-        <v>1389</v>
+        <v>1440</v>
       </c>
       <c r="G345" t="s">
-        <v>1621</v>
+        <v>1722</v>
       </c>
       <c r="H345" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14521,10 +14905,10 @@
         <v>1293</v>
       </c>
       <c r="G346" t="s">
-        <v>1622</v>
+        <v>1723</v>
       </c>
       <c r="H346" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14544,13 +14928,13 @@
         <v>1316</v>
       </c>
       <c r="F347" t="s">
-        <v>1376</v>
+        <v>1434</v>
       </c>
       <c r="G347" t="s">
-        <v>1623</v>
+        <v>1724</v>
       </c>
       <c r="H347" t="s">
-        <v>1712</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14570,13 +14954,13 @@
         <v>1275</v>
       </c>
       <c r="F348" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="G348" t="s">
-        <v>1454</v>
+        <v>1487</v>
       </c>
       <c r="H348" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14596,13 +14980,13 @@
         <v>1299</v>
       </c>
       <c r="F349" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="G349" t="s">
-        <v>1624</v>
+        <v>1725</v>
       </c>
       <c r="H349" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14622,13 +15006,13 @@
         <v>1323</v>
       </c>
       <c r="F350" t="s">
-        <v>1353</v>
+        <v>1441</v>
       </c>
       <c r="G350" t="s">
-        <v>1467</v>
+        <v>1726</v>
       </c>
       <c r="H350" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14648,13 +15032,13 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1414</v>
+        <v>1360</v>
       </c>
       <c r="G351" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="H351" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14674,13 +15058,13 @@
         <v>1299</v>
       </c>
       <c r="F352" t="s">
-        <v>1415</v>
+        <v>1442</v>
       </c>
       <c r="G352" t="s">
-        <v>1626</v>
+        <v>1727</v>
       </c>
       <c r="H352" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14700,13 +15084,13 @@
         <v>1275</v>
       </c>
       <c r="F353" t="s">
-        <v>1275</v>
+        <v>1344</v>
       </c>
       <c r="G353" t="s">
-        <v>952</v>
+        <v>1728</v>
       </c>
       <c r="H353" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14732,7 +15116,7 @@
         <v>955</v>
       </c>
       <c r="H354" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14752,13 +15136,13 @@
         <v>1297</v>
       </c>
       <c r="F355" t="s">
-        <v>1284</v>
+        <v>1357</v>
       </c>
       <c r="G355" t="s">
-        <v>1093</v>
+        <v>1729</v>
       </c>
       <c r="H355" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14778,13 +15162,13 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="G356" t="s">
-        <v>1454</v>
+        <v>1487</v>
       </c>
       <c r="H356" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14804,13 +15188,13 @@
         <v>1278</v>
       </c>
       <c r="F357" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="G357" t="s">
-        <v>1479</v>
+        <v>1676</v>
       </c>
       <c r="H357" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14830,13 +15214,13 @@
         <v>1321</v>
       </c>
       <c r="F358" t="s">
-        <v>1416</v>
+        <v>1443</v>
       </c>
       <c r="G358" t="s">
-        <v>1627</v>
+        <v>1730</v>
       </c>
       <c r="H358" t="s">
-        <v>1700</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -14856,13 +15240,13 @@
         <v>1284</v>
       </c>
       <c r="F359" t="s">
-        <v>1284</v>
+        <v>1360</v>
       </c>
       <c r="G359" t="s">
-        <v>972</v>
+        <v>1731</v>
       </c>
       <c r="H359" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -14882,13 +15266,13 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1382</v>
+        <v>1366</v>
       </c>
       <c r="G360" t="s">
-        <v>1628</v>
+        <v>1732</v>
       </c>
       <c r="H360" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -14908,13 +15292,13 @@
         <v>1324</v>
       </c>
       <c r="F361" t="s">
-        <v>1417</v>
+        <v>1444</v>
       </c>
       <c r="G361" t="s">
-        <v>1629</v>
+        <v>1733</v>
       </c>
       <c r="H361" t="s">
-        <v>1713</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -14934,13 +15318,13 @@
         <v>1297</v>
       </c>
       <c r="F362" t="s">
-        <v>1284</v>
+        <v>1445</v>
       </c>
       <c r="G362" t="s">
-        <v>1450</v>
+        <v>1734</v>
       </c>
       <c r="H362" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -14963,10 +15347,10 @@
         <v>1284</v>
       </c>
       <c r="G363" t="s">
-        <v>1201</v>
+        <v>1735</v>
       </c>
       <c r="H363" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -14986,13 +15370,13 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1351</v>
+        <v>1398</v>
       </c>
       <c r="G364" t="s">
-        <v>1490</v>
+        <v>1736</v>
       </c>
       <c r="H364" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15012,13 +15396,13 @@
         <v>1297</v>
       </c>
       <c r="F365" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G365" t="s">
-        <v>1511</v>
+        <v>1737</v>
       </c>
       <c r="H365" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15038,13 +15422,13 @@
         <v>1285</v>
       </c>
       <c r="F366" t="s">
-        <v>1418</v>
+        <v>1446</v>
       </c>
       <c r="G366" t="s">
-        <v>1630</v>
+        <v>1738</v>
       </c>
       <c r="H366" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15064,13 +15448,13 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1349</v>
+        <v>1447</v>
       </c>
       <c r="G367" t="s">
-        <v>1618</v>
+        <v>1739</v>
       </c>
       <c r="H367" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15090,13 +15474,13 @@
         <v>1278</v>
       </c>
       <c r="F368" t="s">
-        <v>1402</v>
+        <v>1362</v>
       </c>
       <c r="G368" t="s">
-        <v>1631</v>
+        <v>1740</v>
       </c>
       <c r="H368" t="s">
-        <v>1714</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15116,13 +15500,13 @@
         <v>1293</v>
       </c>
       <c r="F369" t="s">
-        <v>1419</v>
+        <v>1432</v>
       </c>
       <c r="G369" t="s">
-        <v>1611</v>
+        <v>1741</v>
       </c>
       <c r="H369" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15142,13 +15526,13 @@
         <v>1284</v>
       </c>
       <c r="F370" t="s">
-        <v>1419</v>
+        <v>1293</v>
       </c>
       <c r="G370" t="s">
-        <v>1632</v>
+        <v>1742</v>
       </c>
       <c r="H370" t="s">
-        <v>1689</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15168,13 +15552,13 @@
         <v>1278</v>
       </c>
       <c r="F371" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="G371" t="s">
-        <v>1633</v>
+        <v>1541</v>
       </c>
       <c r="H371" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15194,13 +15578,13 @@
         <v>1297</v>
       </c>
       <c r="F372" t="s">
-        <v>1372</v>
+        <v>1406</v>
       </c>
       <c r="G372" t="s">
-        <v>1477</v>
+        <v>1743</v>
       </c>
       <c r="H372" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15220,13 +15604,13 @@
         <v>1321</v>
       </c>
       <c r="F373" t="s">
-        <v>1401</v>
+        <v>1337</v>
       </c>
       <c r="G373" t="s">
-        <v>1634</v>
+        <v>1744</v>
       </c>
       <c r="H373" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15246,13 +15630,13 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1420</v>
+        <v>1357</v>
       </c>
       <c r="G374" t="s">
-        <v>1635</v>
+        <v>1745</v>
       </c>
       <c r="H374" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15272,13 +15656,13 @@
         <v>1278</v>
       </c>
       <c r="F375" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G375" t="s">
-        <v>1636</v>
+        <v>1746</v>
       </c>
       <c r="H375" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15298,13 +15682,13 @@
         <v>1284</v>
       </c>
       <c r="F376" t="s">
-        <v>1354</v>
+        <v>1359</v>
       </c>
       <c r="G376" t="s">
-        <v>1637</v>
+        <v>1747</v>
       </c>
       <c r="H376" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15324,13 +15708,13 @@
         <v>1284</v>
       </c>
       <c r="F377" t="s">
-        <v>1380</v>
+        <v>1284</v>
       </c>
       <c r="G377" t="s">
-        <v>1638</v>
+        <v>1748</v>
       </c>
       <c r="H377" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15350,7 +15734,7 @@
         <v>1284</v>
       </c>
       <c r="H378" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15373,10 +15757,10 @@
         <v>1284</v>
       </c>
       <c r="G379" t="s">
-        <v>1119</v>
+        <v>1749</v>
       </c>
       <c r="H379" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15396,13 +15780,13 @@
         <v>1278</v>
       </c>
       <c r="F380" t="s">
-        <v>1401</v>
+        <v>1448</v>
       </c>
       <c r="G380" t="s">
-        <v>1602</v>
+        <v>1750</v>
       </c>
       <c r="H380" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15422,13 +15806,13 @@
         <v>1278</v>
       </c>
       <c r="F381" t="s">
-        <v>1401</v>
+        <v>1449</v>
       </c>
       <c r="G381" t="s">
-        <v>1590</v>
+        <v>1751</v>
       </c>
       <c r="H381" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15448,13 +15832,13 @@
         <v>1284</v>
       </c>
       <c r="F382" t="s">
-        <v>1351</v>
+        <v>1369</v>
       </c>
       <c r="G382" t="s">
-        <v>1639</v>
+        <v>1752</v>
       </c>
       <c r="H382" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15474,13 +15858,13 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1421</v>
+        <v>1450</v>
       </c>
       <c r="G383" t="s">
-        <v>1640</v>
+        <v>1753</v>
       </c>
       <c r="H383" t="s">
-        <v>1698</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15500,13 +15884,13 @@
         <v>1284</v>
       </c>
       <c r="F384" t="s">
-        <v>1372</v>
+        <v>1284</v>
       </c>
       <c r="G384" t="s">
-        <v>1641</v>
+        <v>1069</v>
       </c>
       <c r="H384" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15529,10 +15913,10 @@
         <v>1293</v>
       </c>
       <c r="G385" t="s">
-        <v>1457</v>
+        <v>1650</v>
       </c>
       <c r="H385" t="s">
-        <v>1690</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15552,13 +15936,13 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1422</v>
+        <v>1451</v>
       </c>
       <c r="G386" t="s">
-        <v>1642</v>
+        <v>1754</v>
       </c>
       <c r="H386" t="s">
-        <v>1715</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15578,13 +15962,13 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1423</v>
+        <v>1452</v>
       </c>
       <c r="G387" t="s">
-        <v>1643</v>
+        <v>1755</v>
       </c>
       <c r="H387" t="s">
-        <v>1706</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15604,13 +15988,13 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
       <c r="G388" t="s">
-        <v>1644</v>
+        <v>1654</v>
       </c>
       <c r="H388" t="s">
-        <v>1690</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15630,13 +16014,13 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G389" t="s">
-        <v>1615</v>
+        <v>1711</v>
       </c>
       <c r="H389" t="s">
-        <v>1705</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15656,13 +16040,13 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1401</v>
+        <v>1362</v>
       </c>
       <c r="G390" t="s">
-        <v>1645</v>
+        <v>1756</v>
       </c>
       <c r="H390" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15682,13 +16066,13 @@
         <v>1293</v>
       </c>
       <c r="F391" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G391" t="s">
-        <v>1646</v>
+        <v>1757</v>
       </c>
       <c r="H391" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15708,13 +16092,13 @@
         <v>1282</v>
       </c>
       <c r="F392" t="s">
-        <v>1397</v>
+        <v>1357</v>
       </c>
       <c r="G392" t="s">
-        <v>1647</v>
+        <v>1758</v>
       </c>
       <c r="H392" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15734,13 +16118,13 @@
         <v>1284</v>
       </c>
       <c r="F393" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="G393" t="s">
-        <v>1533</v>
+        <v>1598</v>
       </c>
       <c r="H393" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15760,13 +16144,13 @@
         <v>1294</v>
       </c>
       <c r="F394" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="G394" t="s">
-        <v>1648</v>
+        <v>1759</v>
       </c>
       <c r="H394" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15792,7 +16176,7 @@
         <v>972</v>
       </c>
       <c r="H395" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15815,10 +16199,10 @@
         <v>1284</v>
       </c>
       <c r="G396" t="s">
-        <v>1455</v>
+        <v>1525</v>
       </c>
       <c r="H396" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -15838,13 +16222,13 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1349</v>
+        <v>1410</v>
       </c>
       <c r="G397" t="s">
-        <v>1649</v>
+        <v>1760</v>
       </c>
       <c r="H397" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -15864,13 +16248,13 @@
         <v>1284</v>
       </c>
       <c r="F398" t="s">
-        <v>1284</v>
+        <v>1357</v>
       </c>
       <c r="G398" t="s">
-        <v>1093</v>
+        <v>1761</v>
       </c>
       <c r="H398" t="s">
-        <v>1700</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -15890,13 +16274,13 @@
         <v>1284</v>
       </c>
       <c r="F399" t="s">
-        <v>1372</v>
+        <v>1453</v>
       </c>
       <c r="G399" t="s">
-        <v>1611</v>
+        <v>1762</v>
       </c>
       <c r="H399" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -15916,13 +16300,13 @@
         <v>1284</v>
       </c>
       <c r="F400" t="s">
-        <v>1284</v>
+        <v>1454</v>
       </c>
       <c r="G400" t="s">
-        <v>1069</v>
+        <v>1763</v>
       </c>
       <c r="H400" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -15942,13 +16326,13 @@
         <v>1278</v>
       </c>
       <c r="F401" t="s">
-        <v>1396</v>
+        <v>1455</v>
       </c>
       <c r="G401" t="s">
-        <v>1602</v>
+        <v>1764</v>
       </c>
       <c r="H401" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -15968,13 +16352,13 @@
         <v>1293</v>
       </c>
       <c r="F402" t="s">
-        <v>1372</v>
+        <v>1284</v>
       </c>
       <c r="G402" t="s">
-        <v>1650</v>
+        <v>1093</v>
       </c>
       <c r="H402" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -15994,13 +16378,13 @@
         <v>1284</v>
       </c>
       <c r="F403" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G403" t="s">
-        <v>1651</v>
+        <v>972</v>
       </c>
       <c r="H403" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16020,13 +16404,13 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1362</v>
+        <v>1380</v>
       </c>
       <c r="G404" t="s">
-        <v>1644</v>
+        <v>1765</v>
       </c>
       <c r="H404" t="s">
-        <v>1716</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16045,8 +16429,14 @@
       <c r="E405" t="s">
         <v>1293</v>
       </c>
+      <c r="F405" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1766</v>
+      </c>
       <c r="H405" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16066,13 +16456,13 @@
         <v>1293</v>
       </c>
       <c r="F406" t="s">
-        <v>1401</v>
+        <v>1351</v>
       </c>
       <c r="G406" t="s">
-        <v>1652</v>
+        <v>1767</v>
       </c>
       <c r="H406" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16092,13 +16482,13 @@
         <v>1284</v>
       </c>
       <c r="F407" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G407" t="s">
-        <v>1538</v>
+        <v>1658</v>
       </c>
       <c r="H407" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16118,13 +16508,13 @@
         <v>1278</v>
       </c>
       <c r="F408" t="s">
-        <v>1401</v>
+        <v>1351</v>
       </c>
       <c r="G408" t="s">
-        <v>1653</v>
+        <v>1768</v>
       </c>
       <c r="H408" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16144,13 +16534,13 @@
         <v>1324</v>
       </c>
       <c r="F409" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="G409" t="s">
-        <v>1654</v>
+        <v>1769</v>
       </c>
       <c r="H409" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16170,13 +16560,13 @@
         <v>1284</v>
       </c>
       <c r="F410" t="s">
-        <v>1284</v>
+        <v>1406</v>
       </c>
       <c r="G410" t="s">
-        <v>1093</v>
+        <v>1770</v>
       </c>
       <c r="H410" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16196,13 +16586,13 @@
         <v>1293</v>
       </c>
       <c r="F411" t="s">
-        <v>1425</v>
+        <v>1456</v>
       </c>
       <c r="G411" t="s">
-        <v>1655</v>
+        <v>1771</v>
       </c>
       <c r="H411" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16225,10 +16615,10 @@
         <v>1284</v>
       </c>
       <c r="G412" t="s">
-        <v>1538</v>
+        <v>1772</v>
       </c>
       <c r="H412" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16248,13 +16638,13 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1284</v>
+        <v>1415</v>
       </c>
       <c r="G413" t="s">
-        <v>972</v>
+        <v>1773</v>
       </c>
       <c r="H413" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16280,7 +16670,7 @@
         <v>1235</v>
       </c>
       <c r="H414" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16300,13 +16690,13 @@
         <v>1323</v>
       </c>
       <c r="F415" t="s">
-        <v>1391</v>
+        <v>1457</v>
       </c>
       <c r="G415" t="s">
-        <v>1656</v>
+        <v>1774</v>
       </c>
       <c r="H415" t="s">
-        <v>1703</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16329,10 +16719,10 @@
         <v>1284</v>
       </c>
       <c r="G416" t="s">
-        <v>1455</v>
+        <v>1525</v>
       </c>
       <c r="H416" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16352,13 +16742,13 @@
         <v>1311</v>
       </c>
       <c r="F417" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G417" t="s">
-        <v>1615</v>
+        <v>1711</v>
       </c>
       <c r="H417" t="s">
-        <v>1702</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16378,13 +16768,13 @@
         <v>1284</v>
       </c>
       <c r="F418" t="s">
-        <v>1374</v>
+        <v>1430</v>
       </c>
       <c r="G418" t="s">
-        <v>1657</v>
+        <v>1775</v>
       </c>
       <c r="H418" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16404,13 +16794,13 @@
         <v>1329</v>
       </c>
       <c r="F419" t="s">
-        <v>1376</v>
+        <v>1434</v>
       </c>
       <c r="G419" t="s">
-        <v>1658</v>
+        <v>1776</v>
       </c>
       <c r="H419" t="s">
-        <v>1717</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16430,13 +16820,13 @@
         <v>1284</v>
       </c>
       <c r="F420" t="s">
-        <v>1284</v>
+        <v>1357</v>
       </c>
       <c r="G420" t="s">
-        <v>1461</v>
+        <v>1777</v>
       </c>
       <c r="H420" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16456,13 +16846,13 @@
         <v>1284</v>
       </c>
       <c r="F421" t="s">
-        <v>1426</v>
+        <v>1336</v>
       </c>
       <c r="G421" t="s">
-        <v>1659</v>
+        <v>1778</v>
       </c>
       <c r="H421" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16482,13 +16872,13 @@
         <v>1330</v>
       </c>
       <c r="F422" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G422" t="s">
-        <v>1514</v>
+        <v>1563</v>
       </c>
       <c r="H422" t="s">
-        <v>1704</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16508,13 +16898,13 @@
         <v>1294</v>
       </c>
       <c r="F423" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G423" t="s">
-        <v>1615</v>
+        <v>1711</v>
       </c>
       <c r="H423" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16534,13 +16924,13 @@
         <v>1284</v>
       </c>
       <c r="F424" t="s">
-        <v>1427</v>
+        <v>1458</v>
       </c>
       <c r="G424" t="s">
-        <v>1660</v>
+        <v>1779</v>
       </c>
       <c r="H424" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16560,13 +16950,13 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1428</v>
+        <v>1418</v>
       </c>
       <c r="G425" t="s">
-        <v>1661</v>
+        <v>1780</v>
       </c>
       <c r="H425" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16586,13 +16976,13 @@
         <v>1285</v>
       </c>
       <c r="F426" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G426" t="s">
-        <v>1615</v>
+        <v>1711</v>
       </c>
       <c r="H426" t="s">
-        <v>1691</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16618,7 +17008,7 @@
         <v>1069</v>
       </c>
       <c r="H427" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16644,7 +17034,7 @@
         <v>1246</v>
       </c>
       <c r="H428" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16664,13 +17054,13 @@
         <v>1297</v>
       </c>
       <c r="F429" t="s">
-        <v>1372</v>
+        <v>1284</v>
       </c>
       <c r="G429" t="s">
-        <v>1641</v>
+        <v>1069</v>
       </c>
       <c r="H429" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16690,13 +17080,13 @@
         <v>1329</v>
       </c>
       <c r="F430" t="s">
-        <v>1429</v>
+        <v>1401</v>
       </c>
       <c r="G430" t="s">
-        <v>1662</v>
+        <v>1781</v>
       </c>
       <c r="H430" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16716,13 +17106,13 @@
         <v>1284</v>
       </c>
       <c r="F431" t="s">
-        <v>1356</v>
+        <v>1284</v>
       </c>
       <c r="G431" t="s">
-        <v>1663</v>
+        <v>1589</v>
       </c>
       <c r="H431" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16742,13 +17132,13 @@
         <v>1278</v>
       </c>
       <c r="F432" t="s">
-        <v>1293</v>
+        <v>1434</v>
       </c>
       <c r="G432" t="s">
-        <v>1457</v>
+        <v>1782</v>
       </c>
       <c r="H432" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16768,13 +17158,13 @@
         <v>1284</v>
       </c>
       <c r="F433" t="s">
-        <v>1277</v>
+        <v>1382</v>
       </c>
       <c r="G433" t="s">
-        <v>1539</v>
+        <v>1783</v>
       </c>
       <c r="H433" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16794,13 +17184,13 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="G434" t="s">
-        <v>1664</v>
+        <v>1784</v>
       </c>
       <c r="H434" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -16820,13 +17210,13 @@
         <v>1296</v>
       </c>
       <c r="F435" t="s">
-        <v>1372</v>
+        <v>1284</v>
       </c>
       <c r="G435" t="s">
-        <v>1665</v>
+        <v>1785</v>
       </c>
       <c r="H435" t="s">
-        <v>1718</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -16846,13 +17236,13 @@
         <v>1296</v>
       </c>
       <c r="F436" t="s">
-        <v>1284</v>
+        <v>1459</v>
       </c>
       <c r="G436" t="s">
-        <v>1093</v>
+        <v>1786</v>
       </c>
       <c r="H436" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -16872,13 +17262,13 @@
         <v>1293</v>
       </c>
       <c r="F437" t="s">
-        <v>1277</v>
+        <v>1366</v>
       </c>
       <c r="G437" t="s">
-        <v>972</v>
+        <v>1787</v>
       </c>
       <c r="H437" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -16898,13 +17288,13 @@
         <v>1293</v>
       </c>
       <c r="F438" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G438" t="s">
-        <v>1666</v>
+        <v>1788</v>
       </c>
       <c r="H438" t="s">
-        <v>1714</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -16924,13 +17314,13 @@
         <v>1284</v>
       </c>
       <c r="F439" t="s">
-        <v>1430</v>
+        <v>1460</v>
       </c>
       <c r="G439" t="s">
-        <v>1667</v>
+        <v>1789</v>
       </c>
       <c r="H439" t="s">
-        <v>1705</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -16950,13 +17340,13 @@
         <v>1329</v>
       </c>
       <c r="F440" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="G440" t="s">
-        <v>1668</v>
+        <v>1790</v>
       </c>
       <c r="H440" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -16976,13 +17366,13 @@
         <v>1293</v>
       </c>
       <c r="F441" t="s">
-        <v>1284</v>
+        <v>1401</v>
       </c>
       <c r="G441" t="s">
-        <v>1539</v>
+        <v>1791</v>
       </c>
       <c r="H441" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17002,13 +17392,13 @@
         <v>1284</v>
       </c>
       <c r="F442" t="s">
-        <v>1284</v>
+        <v>1357</v>
       </c>
       <c r="G442" t="s">
-        <v>1093</v>
+        <v>1729</v>
       </c>
       <c r="H442" t="s">
-        <v>1687</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17028,13 +17418,13 @@
         <v>1278</v>
       </c>
       <c r="F443" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G443" t="s">
-        <v>1669</v>
+        <v>1792</v>
       </c>
       <c r="H443" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17054,13 +17444,13 @@
         <v>1278</v>
       </c>
       <c r="F444" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="G444" t="s">
-        <v>1670</v>
+        <v>1793</v>
       </c>
       <c r="H444" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17080,13 +17470,13 @@
         <v>1278</v>
       </c>
       <c r="F445" t="s">
-        <v>1431</v>
+        <v>1354</v>
       </c>
       <c r="G445" t="s">
-        <v>1671</v>
+        <v>1794</v>
       </c>
       <c r="H445" t="s">
-        <v>1690</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17106,13 +17496,13 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G446" t="s">
-        <v>1482</v>
+        <v>1795</v>
       </c>
       <c r="H446" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17132,13 +17522,13 @@
         <v>1293</v>
       </c>
       <c r="F447" t="s">
-        <v>1356</v>
+        <v>1432</v>
       </c>
       <c r="G447" t="s">
-        <v>1672</v>
+        <v>1796</v>
       </c>
       <c r="H447" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17158,13 +17548,13 @@
         <v>1278</v>
       </c>
       <c r="F448" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="G448" t="s">
-        <v>1498</v>
+        <v>1797</v>
       </c>
       <c r="H448" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17184,13 +17574,13 @@
         <v>1331</v>
       </c>
       <c r="F449" t="s">
-        <v>1432</v>
+        <v>1461</v>
       </c>
       <c r="G449" t="s">
-        <v>1673</v>
+        <v>1798</v>
       </c>
       <c r="H449" t="s">
-        <v>1719</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17210,13 +17600,13 @@
         <v>1278</v>
       </c>
       <c r="F450" t="s">
-        <v>1433</v>
+        <v>1462</v>
       </c>
       <c r="G450" t="s">
-        <v>1674</v>
+        <v>1799</v>
       </c>
       <c r="H450" t="s">
-        <v>1693</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17236,13 +17626,13 @@
         <v>1321</v>
       </c>
       <c r="F451" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G451" t="s">
-        <v>1675</v>
+        <v>1800</v>
       </c>
       <c r="H451" t="s">
-        <v>1701</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17262,13 +17652,13 @@
         <v>1284</v>
       </c>
       <c r="F452" t="s">
-        <v>1284</v>
+        <v>1459</v>
       </c>
       <c r="G452" t="s">
-        <v>1093</v>
+        <v>1801</v>
       </c>
       <c r="H452" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17288,13 +17678,13 @@
         <v>1293</v>
       </c>
       <c r="F453" t="s">
-        <v>1401</v>
+        <v>1344</v>
       </c>
       <c r="G453" t="s">
-        <v>1676</v>
+        <v>1802</v>
       </c>
       <c r="H453" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17314,13 +17704,13 @@
         <v>1321</v>
       </c>
       <c r="F454" t="s">
-        <v>1434</v>
+        <v>1463</v>
       </c>
       <c r="G454" t="s">
-        <v>1677</v>
+        <v>1803</v>
       </c>
       <c r="H454" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17340,13 +17730,13 @@
         <v>1293</v>
       </c>
       <c r="F455" t="s">
-        <v>1435</v>
+        <v>1464</v>
       </c>
       <c r="G455" t="s">
-        <v>1678</v>
+        <v>1804</v>
       </c>
       <c r="H455" t="s">
-        <v>1688</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17366,13 +17756,13 @@
         <v>1332</v>
       </c>
       <c r="F456" t="s">
-        <v>1436</v>
+        <v>1465</v>
       </c>
       <c r="G456" t="s">
-        <v>1679</v>
+        <v>1805</v>
       </c>
       <c r="H456" t="s">
-        <v>1706</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17392,13 +17782,13 @@
         <v>1333</v>
       </c>
       <c r="F457" t="s">
-        <v>1362</v>
+        <v>1466</v>
       </c>
       <c r="G457" t="s">
-        <v>1680</v>
+        <v>1806</v>
       </c>
       <c r="H457" t="s">
-        <v>1711</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17418,13 +17808,13 @@
         <v>1278</v>
       </c>
       <c r="F458" t="s">
-        <v>1437</v>
+        <v>1467</v>
       </c>
       <c r="G458" t="s">
-        <v>1681</v>
+        <v>1807</v>
       </c>
       <c r="H458" t="s">
-        <v>1709</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17444,13 +17834,13 @@
         <v>1278</v>
       </c>
       <c r="F459" t="s">
-        <v>1401</v>
+        <v>1449</v>
       </c>
       <c r="G459" t="s">
-        <v>1682</v>
+        <v>1808</v>
       </c>
       <c r="H459" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17470,13 +17860,13 @@
         <v>1334</v>
       </c>
       <c r="F460" t="s">
-        <v>1438</v>
+        <v>1284</v>
       </c>
       <c r="G460" t="s">
-        <v>1683</v>
+        <v>1547</v>
       </c>
       <c r="H460" t="s">
-        <v>1720</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17496,13 +17886,13 @@
         <v>1293</v>
       </c>
       <c r="F461" t="s">
-        <v>1293</v>
+        <v>1468</v>
       </c>
       <c r="G461" t="s">
-        <v>1482</v>
+        <v>1809</v>
       </c>
       <c r="H461" t="s">
-        <v>1685</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17522,13 +17912,13 @@
         <v>1329</v>
       </c>
       <c r="F462" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="G462" t="s">
-        <v>1684</v>
+        <v>1810</v>
       </c>
       <c r="H462" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17548,13 +17938,13 @@
         <v>1321</v>
       </c>
       <c r="F463" t="s">
-        <v>1400</v>
+        <v>1432</v>
       </c>
       <c r="G463" t="s">
-        <v>1612</v>
+        <v>1706</v>
       </c>
       <c r="H463" t="s">
-        <v>1701</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -17580,7 +17970,7 @@
         <v>972</v>
       </c>
       <c r="H464" t="s">
-        <v>1686</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17600,13 +17990,13 @@
         <v>1335</v>
       </c>
       <c r="F465" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G465" t="s">
-        <v>1457</v>
+        <v>1508</v>
       </c>
       <c r="H465" t="s">
-        <v>1690</v>
+        <v>1816</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/lda-partial-ner-money.xlsx
+++ b/Results/Categorization/lda-partial-ner-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1852">
   <si>
     <t>id</t>
   </si>
@@ -4030,135 +4030,147 @@
     <t>FOOD|FOOD</t>
   </si>
   <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|SERVICE|FOOD|SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|PRICES|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|SERVICE|FOOD|SERVICE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
     <t>FOOD|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
@@ -4174,7 +4186,10 @@
     <t>SERVICE|PRICES|PRICES|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|PRICES</t>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|PRICES|FOOD|FOOD|FOOD|PRICES</t>
@@ -4189,229 +4204,229 @@
     <t>AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|PRICES|FOOD|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
     <t>FOOD|SERVICE|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES|PRICES|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|SERVICE|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|PRICES|PRICES|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|PRICES|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
     <t>FOOD|AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|PRICES|PRICES|PRICES|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|FOOD|PRICES</t>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
     <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
@@ -5961,10 +5976,10 @@
         <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1469</v>
+        <v>1474</v>
       </c>
       <c r="H2" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5987,10 +6002,10 @@
         <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1470</v>
+        <v>1475</v>
       </c>
       <c r="H3" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6013,10 +6028,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1471</v>
+        <v>1476</v>
       </c>
       <c r="H4" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6039,10 +6054,10 @@
         <v>1339</v>
       </c>
       <c r="G5" t="s">
-        <v>1472</v>
+        <v>1477</v>
       </c>
       <c r="H5" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6065,10 +6080,10 @@
         <v>1340</v>
       </c>
       <c r="G6" t="s">
-        <v>1473</v>
+        <v>1478</v>
       </c>
       <c r="H6" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6091,10 +6106,10 @@
         <v>1341</v>
       </c>
       <c r="G7" t="s">
-        <v>1474</v>
+        <v>1479</v>
       </c>
       <c r="H7" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6117,10 +6132,10 @@
         <v>1342</v>
       </c>
       <c r="G8" t="s">
-        <v>1475</v>
+        <v>1480</v>
       </c>
       <c r="H8" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6143,10 +6158,10 @@
         <v>1343</v>
       </c>
       <c r="G9" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="H9" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6169,10 +6184,10 @@
         <v>1344</v>
       </c>
       <c r="G10" t="s">
-        <v>1477</v>
+        <v>1482</v>
       </c>
       <c r="H10" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6195,10 +6210,10 @@
         <v>1345</v>
       </c>
       <c r="G11" t="s">
-        <v>1478</v>
+        <v>1483</v>
       </c>
       <c r="H11" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6221,10 +6236,10 @@
         <v>1277</v>
       </c>
       <c r="G12" t="s">
-        <v>1479</v>
+        <v>1484</v>
       </c>
       <c r="H12" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6247,10 +6262,10 @@
         <v>1337</v>
       </c>
       <c r="G13" t="s">
-        <v>1480</v>
+        <v>1485</v>
       </c>
       <c r="H13" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6270,13 +6285,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1337</v>
+        <v>1346</v>
       </c>
       <c r="G14" t="s">
-        <v>1481</v>
+        <v>1486</v>
       </c>
       <c r="H14" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6296,13 +6311,13 @@
         <v>1276</v>
       </c>
       <c r="F15" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G15" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="H15" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6328,7 +6343,7 @@
         <v>1093</v>
       </c>
       <c r="H16" t="s">
-        <v>1818</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6348,13 +6363,13 @@
         <v>1283</v>
       </c>
       <c r="F17" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G17" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="H17" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6374,13 +6389,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="G18" t="s">
-        <v>1484</v>
+        <v>1489</v>
       </c>
       <c r="H18" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6403,10 +6418,10 @@
         <v>1344</v>
       </c>
       <c r="G19" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="H19" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6429,10 +6444,10 @@
         <v>1337</v>
       </c>
       <c r="G20" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="H20" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6452,13 +6467,13 @@
         <v>1275</v>
       </c>
       <c r="F21" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G21" t="s">
-        <v>1487</v>
+        <v>1492</v>
       </c>
       <c r="H21" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6484,7 +6499,7 @@
         <v>1124</v>
       </c>
       <c r="H22" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6510,7 +6525,7 @@
         <v>937</v>
       </c>
       <c r="H23" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6536,7 +6551,7 @@
         <v>952</v>
       </c>
       <c r="H24" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6556,13 +6571,13 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1343</v>
+        <v>1351</v>
       </c>
       <c r="G25" t="s">
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="H25" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6585,10 +6600,10 @@
         <v>1337</v>
       </c>
       <c r="G26" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="H26" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6614,7 +6629,7 @@
         <v>952</v>
       </c>
       <c r="H27" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6634,13 +6649,13 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="G28" t="s">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="H28" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6663,10 +6678,10 @@
         <v>1337</v>
       </c>
       <c r="G29" t="s">
-        <v>1491</v>
+        <v>1496</v>
       </c>
       <c r="H29" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6689,10 +6704,10 @@
         <v>1337</v>
       </c>
       <c r="G30" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="H30" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6712,13 +6727,13 @@
         <v>1278</v>
       </c>
       <c r="F31" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="G31" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="H31" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6741,10 +6756,10 @@
         <v>1343</v>
       </c>
       <c r="G32" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="H32" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6764,13 +6779,13 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G33" t="s">
-        <v>1495</v>
+        <v>1500</v>
       </c>
       <c r="H33" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6790,13 +6805,13 @@
         <v>1285</v>
       </c>
       <c r="F34" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="G34" t="s">
-        <v>1496</v>
+        <v>1501</v>
       </c>
       <c r="H34" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6819,10 +6834,10 @@
         <v>1277</v>
       </c>
       <c r="G35" t="s">
-        <v>1497</v>
+        <v>1502</v>
       </c>
       <c r="H35" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6842,13 +6857,13 @@
         <v>1283</v>
       </c>
       <c r="F36" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="G36" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="H36" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6868,13 +6883,13 @@
         <v>1286</v>
       </c>
       <c r="F37" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="G37" t="s">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="H37" t="s">
-        <v>1820</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6900,7 +6915,7 @@
         <v>952</v>
       </c>
       <c r="H38" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6926,7 +6941,7 @@
         <v>966</v>
       </c>
       <c r="H39" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6946,13 +6961,13 @@
         <v>1277</v>
       </c>
       <c r="F40" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G40" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="H40" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6972,13 +6987,13 @@
         <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G41" t="s">
-        <v>1501</v>
+        <v>1506</v>
       </c>
       <c r="H41" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6998,13 +7013,13 @@
         <v>1284</v>
       </c>
       <c r="F42" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G42" t="s">
-        <v>1502</v>
+        <v>1507</v>
       </c>
       <c r="H42" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7024,13 +7039,13 @@
         <v>1279</v>
       </c>
       <c r="F43" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="G43" t="s">
-        <v>1503</v>
+        <v>1508</v>
       </c>
       <c r="H43" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7053,10 +7068,10 @@
         <v>1277</v>
       </c>
       <c r="G44" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
       <c r="H44" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7076,13 +7091,13 @@
         <v>1284</v>
       </c>
       <c r="F45" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="G45" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="H45" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7102,13 +7117,13 @@
         <v>1284</v>
       </c>
       <c r="F46" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="G46" t="s">
-        <v>1506</v>
+        <v>1511</v>
       </c>
       <c r="H46" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7134,7 +7149,7 @@
         <v>937</v>
       </c>
       <c r="H47" t="s">
-        <v>1821</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7160,7 +7175,7 @@
         <v>937</v>
       </c>
       <c r="H48" t="s">
-        <v>1822</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7183,10 +7198,10 @@
         <v>1337</v>
       </c>
       <c r="G49" t="s">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="H49" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7209,10 +7224,10 @@
         <v>1337</v>
       </c>
       <c r="G50" t="s">
-        <v>1508</v>
+        <v>1513</v>
       </c>
       <c r="H50" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7235,10 +7250,10 @@
         <v>1337</v>
       </c>
       <c r="G51" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="H51" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7258,13 +7273,13 @@
         <v>1277</v>
       </c>
       <c r="F52" t="s">
-        <v>1342</v>
+        <v>1363</v>
       </c>
       <c r="G52" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="H52" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7284,13 +7299,13 @@
         <v>1281</v>
       </c>
       <c r="F53" t="s">
-        <v>1339</v>
+        <v>1364</v>
       </c>
       <c r="G53" t="s">
-        <v>1511</v>
+        <v>1516</v>
       </c>
       <c r="H53" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7313,10 +7328,10 @@
         <v>1337</v>
       </c>
       <c r="G54" t="s">
-        <v>1512</v>
+        <v>1517</v>
       </c>
       <c r="H54" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7339,10 +7354,10 @@
         <v>1277</v>
       </c>
       <c r="G55" t="s">
-        <v>1497</v>
+        <v>1502</v>
       </c>
       <c r="H55" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7365,10 +7380,10 @@
         <v>1277</v>
       </c>
       <c r="G56" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="H56" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7388,13 +7403,13 @@
         <v>1289</v>
       </c>
       <c r="F57" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="G57" t="s">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="H57" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7414,13 +7429,13 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="G58" t="s">
-        <v>1515</v>
+        <v>1520</v>
       </c>
       <c r="H58" t="s">
-        <v>1825</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7443,10 +7458,10 @@
         <v>1275</v>
       </c>
       <c r="G59" t="s">
-        <v>1516</v>
+        <v>1521</v>
       </c>
       <c r="H59" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7466,13 +7481,13 @@
         <v>1278</v>
       </c>
       <c r="F60" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="G60" t="s">
-        <v>1517</v>
+        <v>1522</v>
       </c>
       <c r="H60" t="s">
-        <v>1826</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7492,13 +7507,13 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="G61" t="s">
-        <v>1518</v>
+        <v>1523</v>
       </c>
       <c r="H61" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7518,13 +7533,13 @@
         <v>1275</v>
       </c>
       <c r="F62" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G62" t="s">
-        <v>1519</v>
+        <v>1524</v>
       </c>
       <c r="H62" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7547,10 +7562,10 @@
         <v>1337</v>
       </c>
       <c r="G63" t="s">
-        <v>1520</v>
+        <v>1525</v>
       </c>
       <c r="H63" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7570,13 +7585,13 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="G64" t="s">
-        <v>1521</v>
+        <v>1526</v>
       </c>
       <c r="H64" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7596,13 +7611,13 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="G65" t="s">
-        <v>1522</v>
+        <v>1527</v>
       </c>
       <c r="H65" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7625,10 +7640,10 @@
         <v>1337</v>
       </c>
       <c r="G66" t="s">
-        <v>1523</v>
+        <v>1528</v>
       </c>
       <c r="H66" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7651,10 +7666,10 @@
         <v>1344</v>
       </c>
       <c r="G67" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="H67" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7674,13 +7689,13 @@
         <v>1275</v>
       </c>
       <c r="F68" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G68" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="H68" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7703,10 +7718,10 @@
         <v>1277</v>
       </c>
       <c r="G69" t="s">
-        <v>1525</v>
+        <v>1530</v>
       </c>
       <c r="H69" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7732,7 +7747,7 @@
         <v>993</v>
       </c>
       <c r="H70" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7752,13 +7767,13 @@
         <v>1294</v>
       </c>
       <c r="F71" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G71" t="s">
-        <v>1526</v>
+        <v>1531</v>
       </c>
       <c r="H71" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7778,13 +7793,13 @@
         <v>1277</v>
       </c>
       <c r="F72" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="G72" t="s">
-        <v>1527</v>
+        <v>1532</v>
       </c>
       <c r="H72" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7807,10 +7822,10 @@
         <v>1337</v>
       </c>
       <c r="G73" t="s">
-        <v>1528</v>
+        <v>1533</v>
       </c>
       <c r="H73" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7830,13 +7845,13 @@
         <v>1295</v>
       </c>
       <c r="F74" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="G74" t="s">
-        <v>1529</v>
+        <v>1534</v>
       </c>
       <c r="H74" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7856,13 +7871,13 @@
         <v>1275</v>
       </c>
       <c r="F75" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="G75" t="s">
-        <v>1530</v>
+        <v>1535</v>
       </c>
       <c r="H75" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7885,10 +7900,10 @@
         <v>1343</v>
       </c>
       <c r="G76" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="H76" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7914,7 +7929,7 @@
         <v>989</v>
       </c>
       <c r="H77" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7940,7 +7955,7 @@
         <v>999</v>
       </c>
       <c r="H78" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7966,7 +7981,7 @@
         <v>1000</v>
       </c>
       <c r="H79" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7986,13 +8001,13 @@
         <v>1288</v>
       </c>
       <c r="F80" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="G80" t="s">
-        <v>1531</v>
+        <v>1536</v>
       </c>
       <c r="H80" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8015,10 +8030,10 @@
         <v>1277</v>
       </c>
       <c r="G81" t="s">
-        <v>1532</v>
+        <v>1537</v>
       </c>
       <c r="H81" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8038,13 +8053,13 @@
         <v>1276</v>
       </c>
       <c r="F82" t="s">
-        <v>1338</v>
+        <v>1372</v>
       </c>
       <c r="G82" t="s">
-        <v>1533</v>
+        <v>1538</v>
       </c>
       <c r="H82" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8067,10 +8082,10 @@
         <v>1337</v>
       </c>
       <c r="G83" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="H83" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8090,13 +8105,13 @@
         <v>1296</v>
       </c>
       <c r="F84" t="s">
-        <v>1368</v>
+        <v>1373</v>
       </c>
       <c r="G84" t="s">
-        <v>1535</v>
+        <v>1540</v>
       </c>
       <c r="H84" t="s">
-        <v>1826</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8122,7 +8137,7 @@
         <v>937</v>
       </c>
       <c r="H85" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8148,7 +8163,7 @@
         <v>1004</v>
       </c>
       <c r="H86" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8168,13 +8183,13 @@
         <v>1281</v>
       </c>
       <c r="F87" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G87" t="s">
-        <v>1536</v>
+        <v>1541</v>
       </c>
       <c r="H87" t="s">
-        <v>1828</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8197,10 +8212,10 @@
         <v>1277</v>
       </c>
       <c r="G88" t="s">
-        <v>1532</v>
+        <v>1537</v>
       </c>
       <c r="H88" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8220,13 +8235,13 @@
         <v>1284</v>
       </c>
       <c r="F89" t="s">
-        <v>1369</v>
+        <v>1346</v>
       </c>
       <c r="G89" t="s">
-        <v>1537</v>
+        <v>1542</v>
       </c>
       <c r="H89" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8249,10 +8264,10 @@
         <v>1343</v>
       </c>
       <c r="G90" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="H90" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8272,13 +8287,13 @@
         <v>1277</v>
       </c>
       <c r="F91" t="s">
-        <v>1360</v>
+        <v>1337</v>
       </c>
       <c r="G91" t="s">
-        <v>1538</v>
+        <v>1543</v>
       </c>
       <c r="H91" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8298,13 +8313,13 @@
         <v>1297</v>
       </c>
       <c r="F92" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="G92" t="s">
-        <v>1539</v>
+        <v>1544</v>
       </c>
       <c r="H92" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8324,13 +8339,13 @@
         <v>1285</v>
       </c>
       <c r="F93" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="G93" t="s">
-        <v>1540</v>
+        <v>1545</v>
       </c>
       <c r="H93" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8353,10 +8368,10 @@
         <v>1337</v>
       </c>
       <c r="G94" t="s">
-        <v>1541</v>
+        <v>1546</v>
       </c>
       <c r="H94" t="s">
-        <v>1829</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8379,10 +8394,10 @@
         <v>1337</v>
       </c>
       <c r="G95" t="s">
-        <v>1542</v>
+        <v>1547</v>
       </c>
       <c r="H95" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8402,13 +8417,13 @@
         <v>1288</v>
       </c>
       <c r="F96" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="G96" t="s">
-        <v>1543</v>
+        <v>1548</v>
       </c>
       <c r="H96" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8428,13 +8443,13 @@
         <v>1299</v>
       </c>
       <c r="F97" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="G97" t="s">
-        <v>1544</v>
+        <v>1549</v>
       </c>
       <c r="H97" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8454,13 +8469,13 @@
         <v>1277</v>
       </c>
       <c r="F98" t="s">
-        <v>1369</v>
+        <v>1346</v>
       </c>
       <c r="G98" t="s">
-        <v>1545</v>
+        <v>1550</v>
       </c>
       <c r="H98" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8483,10 +8498,10 @@
         <v>1337</v>
       </c>
       <c r="G99" t="s">
-        <v>1546</v>
+        <v>1551</v>
       </c>
       <c r="H99" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8509,10 +8524,10 @@
         <v>1275</v>
       </c>
       <c r="G100" t="s">
-        <v>1547</v>
+        <v>1552</v>
       </c>
       <c r="H100" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8532,13 +8547,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="G101" t="s">
-        <v>1548</v>
+        <v>1553</v>
       </c>
       <c r="H101" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8558,13 +8573,13 @@
         <v>1278</v>
       </c>
       <c r="F102" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="G102" t="s">
-        <v>1549</v>
+        <v>1554</v>
       </c>
       <c r="H102" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8587,10 +8602,10 @@
         <v>1277</v>
       </c>
       <c r="G103" t="s">
-        <v>1479</v>
+        <v>1484</v>
       </c>
       <c r="H103" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8613,10 +8628,10 @@
         <v>1344</v>
       </c>
       <c r="G104" t="s">
-        <v>1550</v>
+        <v>1555</v>
       </c>
       <c r="H104" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8639,10 +8654,10 @@
         <v>1277</v>
       </c>
       <c r="G105" t="s">
-        <v>1551</v>
+        <v>1556</v>
       </c>
       <c r="H105" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8662,13 +8677,13 @@
         <v>1284</v>
       </c>
       <c r="F106" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="G106" t="s">
-        <v>1552</v>
+        <v>1557</v>
       </c>
       <c r="H106" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8688,13 +8703,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1375</v>
+        <v>1357</v>
       </c>
       <c r="G107" t="s">
-        <v>1553</v>
+        <v>1558</v>
       </c>
       <c r="H107" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8720,7 +8735,7 @@
         <v>935</v>
       </c>
       <c r="H108" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8740,13 +8755,13 @@
         <v>1285</v>
       </c>
       <c r="F109" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="G109" t="s">
-        <v>1554</v>
+        <v>1559</v>
       </c>
       <c r="H109" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8766,13 +8781,13 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G110" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="H110" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8792,13 +8807,13 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G111" t="s">
-        <v>1556</v>
+        <v>1561</v>
       </c>
       <c r="H111" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8818,13 +8833,13 @@
         <v>1297</v>
       </c>
       <c r="F112" t="s">
-        <v>1337</v>
+        <v>1360</v>
       </c>
       <c r="G112" t="s">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="H112" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8844,13 +8859,13 @@
         <v>1275</v>
       </c>
       <c r="F113" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G113" t="s">
-        <v>1516</v>
+        <v>1521</v>
       </c>
       <c r="H113" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8873,10 +8888,10 @@
         <v>1337</v>
       </c>
       <c r="G114" t="s">
-        <v>1541</v>
+        <v>1546</v>
       </c>
       <c r="H114" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8896,13 +8911,13 @@
         <v>1276</v>
       </c>
       <c r="F115" t="s">
-        <v>1369</v>
+        <v>1346</v>
       </c>
       <c r="G115" t="s">
-        <v>1558</v>
+        <v>1563</v>
       </c>
       <c r="H115" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8922,13 +8937,13 @@
         <v>1284</v>
       </c>
       <c r="F116" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G116" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="H116" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8954,7 +8969,7 @@
         <v>952</v>
       </c>
       <c r="H117" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8974,13 +8989,13 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="G118" t="s">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="H118" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -9003,10 +9018,10 @@
         <v>1337</v>
       </c>
       <c r="G119" t="s">
-        <v>1512</v>
+        <v>1517</v>
       </c>
       <c r="H119" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -9029,10 +9044,10 @@
         <v>1337</v>
       </c>
       <c r="G120" t="s">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="H120" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -9055,10 +9070,10 @@
         <v>1293</v>
       </c>
       <c r="G121" t="s">
-        <v>1562</v>
+        <v>1567</v>
       </c>
       <c r="H121" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9081,10 +9096,10 @@
         <v>1337</v>
       </c>
       <c r="G122" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="H122" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9107,10 +9122,10 @@
         <v>1337</v>
       </c>
       <c r="G123" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="H123" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9133,10 +9148,10 @@
         <v>1343</v>
       </c>
       <c r="G124" t="s">
-        <v>1565</v>
+        <v>1570</v>
       </c>
       <c r="H124" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9156,13 +9171,13 @@
         <v>1275</v>
       </c>
       <c r="F125" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G125" t="s">
-        <v>1566</v>
+        <v>1571</v>
       </c>
       <c r="H125" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9188,7 +9203,7 @@
         <v>937</v>
       </c>
       <c r="H126" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9208,13 +9223,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1380</v>
+        <v>1338</v>
       </c>
       <c r="G127" t="s">
-        <v>1567</v>
+        <v>1572</v>
       </c>
       <c r="H127" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9237,10 +9252,10 @@
         <v>1277</v>
       </c>
       <c r="G128" t="s">
-        <v>1568</v>
+        <v>1573</v>
       </c>
       <c r="H128" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9266,7 +9281,7 @@
         <v>1004</v>
       </c>
       <c r="H129" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9286,13 +9301,13 @@
         <v>1276</v>
       </c>
       <c r="F130" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G130" t="s">
-        <v>1569</v>
+        <v>1574</v>
       </c>
       <c r="H130" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9312,13 +9327,13 @@
         <v>1275</v>
       </c>
       <c r="F131" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G131" t="s">
-        <v>1570</v>
+        <v>1575</v>
       </c>
       <c r="H131" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9338,13 +9353,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1354</v>
+        <v>1384</v>
       </c>
       <c r="G132" t="s">
-        <v>1571</v>
+        <v>1576</v>
       </c>
       <c r="H132" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9364,13 +9379,13 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="G133" t="s">
-        <v>1572</v>
+        <v>1577</v>
       </c>
       <c r="H133" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9390,13 +9405,13 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="G134" t="s">
-        <v>1573</v>
+        <v>1578</v>
       </c>
       <c r="H134" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9419,10 +9434,10 @@
         <v>1344</v>
       </c>
       <c r="G135" t="s">
-        <v>1570</v>
+        <v>1575</v>
       </c>
       <c r="H135" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9442,13 +9457,13 @@
         <v>1275</v>
       </c>
       <c r="F136" t="s">
-        <v>1369</v>
+        <v>1346</v>
       </c>
       <c r="G136" t="s">
-        <v>1574</v>
+        <v>1579</v>
       </c>
       <c r="H136" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9468,13 +9483,13 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1354</v>
+        <v>1384</v>
       </c>
       <c r="G137" t="s">
-        <v>1575</v>
+        <v>1580</v>
       </c>
       <c r="H137" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9494,13 +9509,13 @@
         <v>1297</v>
       </c>
       <c r="F138" t="s">
-        <v>1369</v>
+        <v>1346</v>
       </c>
       <c r="G138" t="s">
-        <v>1576</v>
+        <v>1581</v>
       </c>
       <c r="H138" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9520,13 +9535,13 @@
         <v>1297</v>
       </c>
       <c r="F139" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="G139" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="H139" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9549,10 +9564,10 @@
         <v>1277</v>
       </c>
       <c r="G140" t="s">
-        <v>1578</v>
+        <v>1583</v>
       </c>
       <c r="H140" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9572,13 +9587,13 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="G141" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="H141" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9598,13 +9613,13 @@
         <v>1276</v>
       </c>
       <c r="F142" t="s">
-        <v>1338</v>
+        <v>1372</v>
       </c>
       <c r="G142" t="s">
-        <v>1580</v>
+        <v>1585</v>
       </c>
       <c r="H142" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9624,13 +9639,13 @@
         <v>1275</v>
       </c>
       <c r="F143" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G143" t="s">
-        <v>1581</v>
+        <v>1586</v>
       </c>
       <c r="H143" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9650,13 +9665,13 @@
         <v>1297</v>
       </c>
       <c r="F144" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="G144" t="s">
-        <v>1582</v>
+        <v>1587</v>
       </c>
       <c r="H144" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9676,13 +9691,13 @@
         <v>1281</v>
       </c>
       <c r="F145" t="s">
-        <v>1338</v>
+        <v>1372</v>
       </c>
       <c r="G145" t="s">
-        <v>1583</v>
+        <v>1588</v>
       </c>
       <c r="H145" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9708,7 +9723,7 @@
         <v>1054</v>
       </c>
       <c r="H146" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9731,10 +9746,10 @@
         <v>1277</v>
       </c>
       <c r="G147" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="H147" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9757,10 +9772,10 @@
         <v>1343</v>
       </c>
       <c r="G148" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="H148" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9780,13 +9795,13 @@
         <v>1276</v>
       </c>
       <c r="F149" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G149" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="H149" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9806,13 +9821,13 @@
         <v>1281</v>
       </c>
       <c r="F150" t="s">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="G150" t="s">
-        <v>1586</v>
+        <v>1591</v>
       </c>
       <c r="H150" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9832,13 +9847,13 @@
         <v>1301</v>
       </c>
       <c r="F151" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="G151" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="H151" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9864,7 +9879,7 @@
         <v>935</v>
       </c>
       <c r="H152" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9887,10 +9902,10 @@
         <v>1277</v>
       </c>
       <c r="G153" t="s">
-        <v>1588</v>
+        <v>1593</v>
       </c>
       <c r="H153" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9913,10 +9928,10 @@
         <v>1277</v>
       </c>
       <c r="G154" t="s">
-        <v>1589</v>
+        <v>1594</v>
       </c>
       <c r="H154" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9936,13 +9951,13 @@
         <v>1275</v>
       </c>
       <c r="F155" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="G155" t="s">
-        <v>1590</v>
+        <v>1595</v>
       </c>
       <c r="H155" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9962,13 +9977,13 @@
         <v>1302</v>
       </c>
       <c r="F156" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G156" t="s">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="H156" t="s">
-        <v>1832</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9988,13 +10003,13 @@
         <v>1276</v>
       </c>
       <c r="F157" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G157" t="s">
-        <v>1592</v>
+        <v>1597</v>
       </c>
       <c r="H157" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -10014,13 +10029,13 @@
         <v>1303</v>
       </c>
       <c r="F158" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="G158" t="s">
-        <v>1593</v>
+        <v>1598</v>
       </c>
       <c r="H158" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -10040,13 +10055,13 @@
         <v>1277</v>
       </c>
       <c r="F159" t="s">
-        <v>1354</v>
+        <v>1384</v>
       </c>
       <c r="G159" t="s">
-        <v>1594</v>
+        <v>1599</v>
       </c>
       <c r="H159" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -10066,13 +10081,13 @@
         <v>1277</v>
       </c>
       <c r="F160" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="G160" t="s">
-        <v>1595</v>
+        <v>1600</v>
       </c>
       <c r="H160" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10092,13 +10107,13 @@
         <v>1277</v>
       </c>
       <c r="F161" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G161" t="s">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="H161" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10121,10 +10136,10 @@
         <v>1277</v>
       </c>
       <c r="G162" t="s">
-        <v>1479</v>
+        <v>1484</v>
       </c>
       <c r="H162" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10144,13 +10159,13 @@
         <v>1284</v>
       </c>
       <c r="F163" t="s">
-        <v>1337</v>
+        <v>1346</v>
       </c>
       <c r="G163" t="s">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="H163" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10170,13 +10185,13 @@
         <v>1284</v>
       </c>
       <c r="F164" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="G164" t="s">
-        <v>1598</v>
+        <v>1603</v>
       </c>
       <c r="H164" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10196,13 +10211,13 @@
         <v>1284</v>
       </c>
       <c r="F165" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="G165" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="H165" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10228,7 +10243,7 @@
         <v>1066</v>
       </c>
       <c r="H166" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10248,13 +10263,13 @@
         <v>1277</v>
       </c>
       <c r="F167" t="s">
-        <v>1369</v>
+        <v>1346</v>
       </c>
       <c r="G167" t="s">
-        <v>1600</v>
+        <v>1605</v>
       </c>
       <c r="H167" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10280,7 +10295,7 @@
         <v>980</v>
       </c>
       <c r="H168" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10303,10 +10318,10 @@
         <v>1337</v>
       </c>
       <c r="G169" t="s">
-        <v>1601</v>
+        <v>1606</v>
       </c>
       <c r="H169" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10326,13 +10341,13 @@
         <v>1285</v>
       </c>
       <c r="F170" t="s">
-        <v>1374</v>
+        <v>1391</v>
       </c>
       <c r="G170" t="s">
-        <v>1602</v>
+        <v>1607</v>
       </c>
       <c r="H170" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10355,10 +10370,10 @@
         <v>1277</v>
       </c>
       <c r="G171" t="s">
-        <v>1551</v>
+        <v>1556</v>
       </c>
       <c r="H171" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10378,13 +10393,13 @@
         <v>1278</v>
       </c>
       <c r="F172" t="s">
-        <v>1387</v>
+        <v>1392</v>
       </c>
       <c r="G172" t="s">
-        <v>1603</v>
+        <v>1608</v>
       </c>
       <c r="H172" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10404,13 +10419,13 @@
         <v>1304</v>
       </c>
       <c r="F173" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="G173" t="s">
-        <v>1604</v>
+        <v>1609</v>
       </c>
       <c r="H173" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10430,13 +10445,13 @@
         <v>1299</v>
       </c>
       <c r="F174" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="G174" t="s">
-        <v>1605</v>
+        <v>1610</v>
       </c>
       <c r="H174" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10456,13 +10471,13 @@
         <v>1305</v>
       </c>
       <c r="F175" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="G175" t="s">
-        <v>1606</v>
+        <v>1611</v>
       </c>
       <c r="H175" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10485,10 +10500,10 @@
         <v>1277</v>
       </c>
       <c r="G176" t="s">
-        <v>1497</v>
+        <v>1502</v>
       </c>
       <c r="H176" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10508,13 +10523,13 @@
         <v>1276</v>
       </c>
       <c r="F177" t="s">
-        <v>1354</v>
+        <v>1384</v>
       </c>
       <c r="G177" t="s">
-        <v>1607</v>
+        <v>1612</v>
       </c>
       <c r="H177" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10537,10 +10552,10 @@
         <v>1277</v>
       </c>
       <c r="G178" t="s">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="H178" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10563,10 +10578,10 @@
         <v>1277</v>
       </c>
       <c r="G179" t="s">
-        <v>1609</v>
+        <v>1614</v>
       </c>
       <c r="H179" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10586,13 +10601,13 @@
         <v>1306</v>
       </c>
       <c r="F180" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="G180" t="s">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="H180" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10612,13 +10627,13 @@
         <v>1275</v>
       </c>
       <c r="F181" t="s">
-        <v>1391</v>
+        <v>1348</v>
       </c>
       <c r="G181" t="s">
-        <v>1611</v>
+        <v>1616</v>
       </c>
       <c r="H181" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10638,13 +10653,13 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="G182" t="s">
-        <v>1612</v>
+        <v>1617</v>
       </c>
       <c r="H182" t="s">
-        <v>1822</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10664,13 +10679,13 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="G183" t="s">
-        <v>1613</v>
+        <v>1618</v>
       </c>
       <c r="H183" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10690,13 +10705,13 @@
         <v>1308</v>
       </c>
       <c r="F184" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="G184" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
       <c r="H184" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10716,13 +10731,13 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="G185" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
       <c r="H185" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10745,10 +10760,10 @@
         <v>1277</v>
       </c>
       <c r="G186" t="s">
-        <v>1609</v>
+        <v>1614</v>
       </c>
       <c r="H186" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10768,13 +10783,13 @@
         <v>1277</v>
       </c>
       <c r="F187" t="s">
-        <v>1342</v>
+        <v>1396</v>
       </c>
       <c r="G187" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
       <c r="H187" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10797,10 +10812,10 @@
         <v>1277</v>
       </c>
       <c r="G188" t="s">
-        <v>1551</v>
+        <v>1556</v>
       </c>
       <c r="H188" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10820,13 +10835,13 @@
         <v>1277</v>
       </c>
       <c r="F189" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G189" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
       <c r="H189" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10846,13 +10861,13 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="G190" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
       <c r="H190" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10878,7 +10893,7 @@
         <v>1093</v>
       </c>
       <c r="H191" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10901,10 +10916,10 @@
         <v>1337</v>
       </c>
       <c r="G192" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
       <c r="H192" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10927,10 +10942,10 @@
         <v>1277</v>
       </c>
       <c r="G193" t="s">
-        <v>1620</v>
+        <v>1625</v>
       </c>
       <c r="H193" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10956,7 +10971,7 @@
         <v>952</v>
       </c>
       <c r="H194" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10982,7 +10997,7 @@
         <v>937</v>
       </c>
       <c r="H195" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -11002,13 +11017,13 @@
         <v>1276</v>
       </c>
       <c r="F196" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G196" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
       <c r="H196" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -11028,13 +11043,13 @@
         <v>1310</v>
       </c>
       <c r="F197" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="G197" t="s">
-        <v>1622</v>
+        <v>1627</v>
       </c>
       <c r="H197" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -11054,13 +11069,13 @@
         <v>1283</v>
       </c>
       <c r="F198" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="G198" t="s">
-        <v>1623</v>
+        <v>1628</v>
       </c>
       <c r="H198" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -11083,10 +11098,10 @@
         <v>1337</v>
       </c>
       <c r="G199" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="H199" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11112,7 +11127,7 @@
         <v>972</v>
       </c>
       <c r="H200" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11135,10 +11150,10 @@
         <v>1284</v>
       </c>
       <c r="G201" t="s">
-        <v>1525</v>
+        <v>1530</v>
       </c>
       <c r="H201" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11164,7 +11179,7 @@
         <v>1000</v>
       </c>
       <c r="H202" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11187,10 +11202,10 @@
         <v>1284</v>
       </c>
       <c r="G203" t="s">
-        <v>1625</v>
+        <v>1630</v>
       </c>
       <c r="H203" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11210,13 +11225,13 @@
         <v>1277</v>
       </c>
       <c r="F204" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G204" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
       <c r="H204" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11236,13 +11251,13 @@
         <v>1277</v>
       </c>
       <c r="F205" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="G205" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
       <c r="H205" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11262,13 +11277,13 @@
         <v>1284</v>
       </c>
       <c r="F206" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G206" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
       <c r="H206" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11288,13 +11303,13 @@
         <v>1308</v>
       </c>
       <c r="F207" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="G207" t="s">
-        <v>1627</v>
+        <v>1632</v>
       </c>
       <c r="H207" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11314,13 +11329,13 @@
         <v>1284</v>
       </c>
       <c r="F208" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="G208" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
       <c r="H208" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11340,13 +11355,13 @@
         <v>1311</v>
       </c>
       <c r="F209" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="G209" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
       <c r="H209" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11366,13 +11381,13 @@
         <v>1278</v>
       </c>
       <c r="F210" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="G210" t="s">
-        <v>1630</v>
+        <v>1635</v>
       </c>
       <c r="H210" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11392,13 +11407,13 @@
         <v>1275</v>
       </c>
       <c r="F211" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="G211" t="s">
-        <v>1631</v>
+        <v>1636</v>
       </c>
       <c r="H211" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11421,10 +11436,10 @@
         <v>1343</v>
       </c>
       <c r="G212" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
       <c r="H212" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11444,13 +11459,13 @@
         <v>1277</v>
       </c>
       <c r="F213" t="s">
-        <v>1369</v>
+        <v>1346</v>
       </c>
       <c r="G213" t="s">
-        <v>1633</v>
+        <v>1638</v>
       </c>
       <c r="H213" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11470,13 +11485,13 @@
         <v>1276</v>
       </c>
       <c r="F214" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G214" t="s">
-        <v>1634</v>
+        <v>1639</v>
       </c>
       <c r="H214" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11499,10 +11514,10 @@
         <v>1277</v>
       </c>
       <c r="G215" t="s">
-        <v>1635</v>
+        <v>1640</v>
       </c>
       <c r="H215" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11525,10 +11540,10 @@
         <v>1336</v>
       </c>
       <c r="G216" t="s">
-        <v>1636</v>
+        <v>1641</v>
       </c>
       <c r="H216" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11551,10 +11566,10 @@
         <v>1337</v>
       </c>
       <c r="G217" t="s">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="H217" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11577,10 +11592,10 @@
         <v>1284</v>
       </c>
       <c r="G218" t="s">
-        <v>1525</v>
+        <v>1530</v>
       </c>
       <c r="H218" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11600,13 +11615,13 @@
         <v>1295</v>
       </c>
       <c r="F219" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="G219" t="s">
-        <v>1638</v>
+        <v>1643</v>
       </c>
       <c r="H219" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11629,10 +11644,10 @@
         <v>1277</v>
       </c>
       <c r="G220" t="s">
-        <v>1532</v>
+        <v>1537</v>
       </c>
       <c r="H220" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11652,13 +11667,13 @@
         <v>1310</v>
       </c>
       <c r="F221" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="G221" t="s">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="H221" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11678,13 +11693,13 @@
         <v>1284</v>
       </c>
       <c r="F222" t="s">
-        <v>1402</v>
+        <v>1342</v>
       </c>
       <c r="G222" t="s">
-        <v>1640</v>
+        <v>1645</v>
       </c>
       <c r="H222" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11704,13 +11719,13 @@
         <v>1309</v>
       </c>
       <c r="F223" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="G223" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="H223" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11730,13 +11745,13 @@
         <v>1312</v>
       </c>
       <c r="F224" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G224" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="H224" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11762,7 +11777,7 @@
         <v>952</v>
       </c>
       <c r="H225" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11782,13 +11797,13 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="G226" t="s">
-        <v>1643</v>
+        <v>1648</v>
       </c>
       <c r="H226" t="s">
-        <v>1835</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11808,13 +11823,13 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="G227" t="s">
-        <v>1644</v>
+        <v>1649</v>
       </c>
       <c r="H227" t="s">
-        <v>1836</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11834,13 +11849,13 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="G228" t="s">
-        <v>1645</v>
+        <v>1650</v>
       </c>
       <c r="H228" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11866,7 +11881,7 @@
         <v>1093</v>
       </c>
       <c r="H229" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11892,7 +11907,7 @@
         <v>935</v>
       </c>
       <c r="H230" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11918,7 +11933,7 @@
         <v>1093</v>
       </c>
       <c r="H231" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11938,13 +11953,13 @@
         <v>1284</v>
       </c>
       <c r="F232" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G232" t="s">
-        <v>1646</v>
+        <v>1651</v>
       </c>
       <c r="H232" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11964,13 +11979,13 @@
         <v>1275</v>
       </c>
       <c r="F233" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="G233" t="s">
-        <v>1647</v>
+        <v>1652</v>
       </c>
       <c r="H233" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11990,13 +12005,13 @@
         <v>1293</v>
       </c>
       <c r="F234" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G234" t="s">
-        <v>1648</v>
+        <v>1653</v>
       </c>
       <c r="H234" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -12022,7 +12037,7 @@
         <v>952</v>
       </c>
       <c r="H235" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -12045,10 +12060,10 @@
         <v>1293</v>
       </c>
       <c r="G236" t="s">
-        <v>1649</v>
+        <v>1654</v>
       </c>
       <c r="H236" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12071,10 +12086,10 @@
         <v>1293</v>
       </c>
       <c r="G237" t="s">
-        <v>1650</v>
+        <v>1655</v>
       </c>
       <c r="H237" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12094,13 +12109,13 @@
         <v>1284</v>
       </c>
       <c r="F238" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G238" t="s">
-        <v>1651</v>
+        <v>1656</v>
       </c>
       <c r="H238" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12120,13 +12135,13 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G239" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="H239" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12146,13 +12161,13 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G240" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="H240" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12172,13 +12187,13 @@
         <v>1284</v>
       </c>
       <c r="F241" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G241" t="s">
-        <v>1653</v>
+        <v>1658</v>
       </c>
       <c r="H241" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12198,13 +12213,13 @@
         <v>1315</v>
       </c>
       <c r="F242" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G242" t="s">
-        <v>1654</v>
+        <v>1659</v>
       </c>
       <c r="H242" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12224,13 +12239,13 @@
         <v>1275</v>
       </c>
       <c r="F243" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="G243" t="s">
-        <v>1655</v>
+        <v>1660</v>
       </c>
       <c r="H243" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12250,13 +12265,13 @@
         <v>1284</v>
       </c>
       <c r="F244" t="s">
-        <v>1402</v>
+        <v>1363</v>
       </c>
       <c r="G244" t="s">
-        <v>1656</v>
+        <v>1661</v>
       </c>
       <c r="H244" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12276,13 +12291,13 @@
         <v>1316</v>
       </c>
       <c r="F245" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="G245" t="s">
-        <v>1657</v>
+        <v>1662</v>
       </c>
       <c r="H245" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12305,10 +12320,10 @@
         <v>1284</v>
       </c>
       <c r="G246" t="s">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="H246" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12328,13 +12343,13 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G247" t="s">
-        <v>1659</v>
+        <v>1664</v>
       </c>
       <c r="H247" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12354,13 +12369,13 @@
         <v>1275</v>
       </c>
       <c r="F248" t="s">
-        <v>1394</v>
+        <v>1412</v>
       </c>
       <c r="G248" t="s">
-        <v>1660</v>
+        <v>1665</v>
       </c>
       <c r="H248" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12380,13 +12395,13 @@
         <v>1275</v>
       </c>
       <c r="F249" t="s">
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="G249" t="s">
-        <v>1497</v>
+        <v>1502</v>
       </c>
       <c r="H249" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12406,13 +12421,13 @@
         <v>1275</v>
       </c>
       <c r="F250" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="G250" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="H250" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12438,7 +12453,7 @@
         <v>935</v>
       </c>
       <c r="H251" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12458,13 +12473,13 @@
         <v>1309</v>
       </c>
       <c r="F252" t="s">
-        <v>1392</v>
+        <v>1398</v>
       </c>
       <c r="G252" t="s">
-        <v>1661</v>
+        <v>1666</v>
       </c>
       <c r="H252" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12484,13 +12499,13 @@
         <v>1275</v>
       </c>
       <c r="F253" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G253" t="s">
-        <v>1662</v>
+        <v>1667</v>
       </c>
       <c r="H253" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12510,13 +12525,13 @@
         <v>1304</v>
       </c>
       <c r="F254" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="G254" t="s">
-        <v>1663</v>
+        <v>1668</v>
       </c>
       <c r="H254" t="s">
-        <v>1818</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12542,7 +12557,7 @@
         <v>963</v>
       </c>
       <c r="H255" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12568,7 +12583,7 @@
         <v>952</v>
       </c>
       <c r="H256" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12594,7 +12609,7 @@
         <v>1164</v>
       </c>
       <c r="H257" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12620,7 +12635,7 @@
         <v>952</v>
       </c>
       <c r="H258" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12646,7 +12661,7 @@
         <v>952</v>
       </c>
       <c r="H259" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12672,7 +12687,7 @@
         <v>972</v>
       </c>
       <c r="H260" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12695,10 +12710,10 @@
         <v>1293</v>
       </c>
       <c r="G261" t="s">
-        <v>1650</v>
+        <v>1655</v>
       </c>
       <c r="H261" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12718,13 +12733,13 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G262" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="H262" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12744,13 +12759,13 @@
         <v>1278</v>
       </c>
       <c r="F263" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="G263" t="s">
-        <v>1664</v>
+        <v>1669</v>
       </c>
       <c r="H263" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12776,7 +12791,7 @@
         <v>1069</v>
       </c>
       <c r="H264" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12799,10 +12814,10 @@
         <v>1293</v>
       </c>
       <c r="G265" t="s">
-        <v>1650</v>
+        <v>1655</v>
       </c>
       <c r="H265" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12822,13 +12837,13 @@
         <v>1284</v>
       </c>
       <c r="F266" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="G266" t="s">
-        <v>1665</v>
+        <v>1670</v>
       </c>
       <c r="H266" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12848,13 +12863,13 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1415</v>
+        <v>1374</v>
       </c>
       <c r="G267" t="s">
-        <v>1666</v>
+        <v>1671</v>
       </c>
       <c r="H267" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12874,13 +12889,13 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G268" t="s">
-        <v>1667</v>
+        <v>1672</v>
       </c>
       <c r="H268" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12900,13 +12915,13 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1343</v>
+        <v>1368</v>
       </c>
       <c r="G269" t="s">
-        <v>1668</v>
+        <v>1673</v>
       </c>
       <c r="H269" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12926,13 +12941,13 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="G270" t="s">
-        <v>1669</v>
+        <v>1674</v>
       </c>
       <c r="H270" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12952,13 +12967,13 @@
         <v>1293</v>
       </c>
       <c r="F271" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="G271" t="s">
-        <v>1670</v>
+        <v>1675</v>
       </c>
       <c r="H271" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12978,13 +12993,13 @@
         <v>1278</v>
       </c>
       <c r="F272" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="G272" t="s">
-        <v>1671</v>
+        <v>1676</v>
       </c>
       <c r="H272" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -13004,13 +13019,13 @@
         <v>1285</v>
       </c>
       <c r="F273" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G273" t="s">
-        <v>1672</v>
+        <v>1677</v>
       </c>
       <c r="H273" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -13030,13 +13045,13 @@
         <v>1275</v>
       </c>
       <c r="F274" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G274" t="s">
-        <v>1673</v>
+        <v>1678</v>
       </c>
       <c r="H274" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -13056,13 +13071,13 @@
         <v>1275</v>
       </c>
       <c r="F275" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="G275" t="s">
-        <v>1674</v>
+        <v>1679</v>
       </c>
       <c r="H275" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -13088,7 +13103,7 @@
         <v>937</v>
       </c>
       <c r="H276" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13108,13 +13123,13 @@
         <v>1285</v>
       </c>
       <c r="F277" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G277" t="s">
-        <v>1675</v>
+        <v>1680</v>
       </c>
       <c r="H277" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13134,13 +13149,13 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G278" t="s">
-        <v>1676</v>
+        <v>1681</v>
       </c>
       <c r="H278" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13160,13 +13175,13 @@
         <v>1284</v>
       </c>
       <c r="F279" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="G279" t="s">
-        <v>1677</v>
+        <v>1682</v>
       </c>
       <c r="H279" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13186,13 +13201,13 @@
         <v>1318</v>
       </c>
       <c r="F280" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="G280" t="s">
-        <v>1678</v>
+        <v>1683</v>
       </c>
       <c r="H280" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13215,10 +13230,10 @@
         <v>1275</v>
       </c>
       <c r="G281" t="s">
-        <v>1525</v>
+        <v>1530</v>
       </c>
       <c r="H281" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13238,13 +13253,13 @@
         <v>1275</v>
       </c>
       <c r="F282" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="G282" t="s">
-        <v>1679</v>
+        <v>1684</v>
       </c>
       <c r="H282" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13264,13 +13279,13 @@
         <v>1275</v>
       </c>
       <c r="F283" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="G283" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="H283" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13290,13 +13305,13 @@
         <v>1275</v>
       </c>
       <c r="F284" t="s">
-        <v>1391</v>
+        <v>1427</v>
       </c>
       <c r="G284" t="s">
-        <v>1681</v>
+        <v>1686</v>
       </c>
       <c r="H284" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13316,13 +13331,13 @@
         <v>1275</v>
       </c>
       <c r="F285" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="G285" t="s">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="H285" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13342,13 +13357,13 @@
         <v>1275</v>
       </c>
       <c r="F286" t="s">
-        <v>1391</v>
+        <v>1429</v>
       </c>
       <c r="G286" t="s">
-        <v>1683</v>
+        <v>1688</v>
       </c>
       <c r="H286" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13368,13 +13383,13 @@
         <v>1275</v>
       </c>
       <c r="F287" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="G287" t="s">
-        <v>1684</v>
+        <v>1689</v>
       </c>
       <c r="H287" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13397,10 +13412,10 @@
         <v>1284</v>
       </c>
       <c r="G288" t="s">
-        <v>1685</v>
+        <v>1690</v>
       </c>
       <c r="H288" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13426,7 +13441,7 @@
         <v>952</v>
       </c>
       <c r="H289" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13446,13 +13461,13 @@
         <v>1319</v>
       </c>
       <c r="F290" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="G290" t="s">
-        <v>1686</v>
+        <v>1691</v>
       </c>
       <c r="H290" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13472,13 +13487,13 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="G291" t="s">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="H291" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13498,13 +13513,13 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="G292" t="s">
-        <v>1688</v>
+        <v>1693</v>
       </c>
       <c r="H292" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13524,13 +13539,13 @@
         <v>1278</v>
       </c>
       <c r="F293" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="G293" t="s">
-        <v>1686</v>
+        <v>1691</v>
       </c>
       <c r="H293" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13553,10 +13568,10 @@
         <v>1277</v>
       </c>
       <c r="G294" t="s">
-        <v>1689</v>
+        <v>1694</v>
       </c>
       <c r="H294" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13576,13 +13591,13 @@
         <v>1284</v>
       </c>
       <c r="F295" t="s">
-        <v>1369</v>
+        <v>1346</v>
       </c>
       <c r="G295" t="s">
-        <v>1690</v>
+        <v>1695</v>
       </c>
       <c r="H295" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13602,13 +13617,13 @@
         <v>1320</v>
       </c>
       <c r="F296" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G296" t="s">
-        <v>1691</v>
+        <v>1696</v>
       </c>
       <c r="H296" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13628,13 +13643,13 @@
         <v>1275</v>
       </c>
       <c r="F297" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="G297" t="s">
-        <v>1692</v>
+        <v>1697</v>
       </c>
       <c r="H297" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13657,10 +13672,10 @@
         <v>1275</v>
       </c>
       <c r="G298" t="s">
-        <v>1516</v>
+        <v>1521</v>
       </c>
       <c r="H298" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13680,13 +13695,13 @@
         <v>1297</v>
       </c>
       <c r="F299" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="G299" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="H299" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13712,7 +13727,7 @@
         <v>1093</v>
       </c>
       <c r="H300" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13738,7 +13753,7 @@
         <v>952</v>
       </c>
       <c r="H301" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13758,13 +13773,13 @@
         <v>1275</v>
       </c>
       <c r="F302" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="G302" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="H302" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13784,13 +13799,13 @@
         <v>1284</v>
       </c>
       <c r="F303" t="s">
-        <v>1336</v>
+        <v>1360</v>
       </c>
       <c r="G303" t="s">
-        <v>1695</v>
+        <v>1700</v>
       </c>
       <c r="H303" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13810,13 +13825,13 @@
         <v>1293</v>
       </c>
       <c r="F304" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="G304" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="H304" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13836,13 +13851,13 @@
         <v>1275</v>
       </c>
       <c r="F305" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G305" t="s">
-        <v>1697</v>
+        <v>1702</v>
       </c>
       <c r="H305" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13868,7 +13883,7 @@
         <v>955</v>
       </c>
       <c r="H306" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13891,10 +13906,10 @@
         <v>1275</v>
       </c>
       <c r="G307" t="s">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="H307" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13914,13 +13929,13 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="G308" t="s">
-        <v>1699</v>
+        <v>1704</v>
       </c>
       <c r="H308" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13940,13 +13955,13 @@
         <v>1275</v>
       </c>
       <c r="F309" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="G309" t="s">
-        <v>1700</v>
+        <v>1705</v>
       </c>
       <c r="H309" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13972,7 +13987,7 @@
         <v>1004</v>
       </c>
       <c r="H310" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13998,7 +14013,7 @@
         <v>937</v>
       </c>
       <c r="H311" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -14018,13 +14033,13 @@
         <v>1275</v>
       </c>
       <c r="F312" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G312" t="s">
-        <v>1701</v>
+        <v>1706</v>
       </c>
       <c r="H312" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -14050,7 +14065,7 @@
         <v>952</v>
       </c>
       <c r="H313" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -14070,13 +14085,13 @@
         <v>1278</v>
       </c>
       <c r="F314" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="G314" t="s">
-        <v>1508</v>
+        <v>1513</v>
       </c>
       <c r="H314" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14102,7 +14117,7 @@
         <v>1093</v>
       </c>
       <c r="H315" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14125,10 +14140,10 @@
         <v>1360</v>
       </c>
       <c r="G316" t="s">
-        <v>1702</v>
+        <v>1707</v>
       </c>
       <c r="H316" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14148,13 +14163,13 @@
         <v>1284</v>
       </c>
       <c r="F317" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="G317" t="s">
-        <v>1703</v>
+        <v>1708</v>
       </c>
       <c r="H317" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14174,13 +14189,13 @@
         <v>1284</v>
       </c>
       <c r="F318" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="G318" t="s">
-        <v>1704</v>
+        <v>1709</v>
       </c>
       <c r="H318" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14200,13 +14215,13 @@
         <v>1275</v>
       </c>
       <c r="F319" t="s">
-        <v>1343</v>
+        <v>1368</v>
       </c>
       <c r="G319" t="s">
-        <v>1705</v>
+        <v>1710</v>
       </c>
       <c r="H319" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14232,7 +14247,7 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14252,13 +14267,13 @@
         <v>1293</v>
       </c>
       <c r="F321" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="G321" t="s">
-        <v>1706</v>
+        <v>1711</v>
       </c>
       <c r="H321" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14278,13 +14293,13 @@
         <v>1275</v>
       </c>
       <c r="F322" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="G322" t="s">
-        <v>1707</v>
+        <v>1712</v>
       </c>
       <c r="H322" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14307,10 +14322,10 @@
         <v>1343</v>
       </c>
       <c r="G323" t="s">
-        <v>1570</v>
+        <v>1575</v>
       </c>
       <c r="H323" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14333,10 +14348,10 @@
         <v>1337</v>
       </c>
       <c r="G324" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="H324" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14362,7 +14377,7 @@
         <v>1175</v>
       </c>
       <c r="H325" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14382,13 +14397,13 @@
         <v>1284</v>
       </c>
       <c r="F326" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G326" t="s">
-        <v>1708</v>
+        <v>1713</v>
       </c>
       <c r="H326" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14408,13 +14423,13 @@
         <v>1314</v>
       </c>
       <c r="F327" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="G327" t="s">
-        <v>1709</v>
+        <v>1714</v>
       </c>
       <c r="H327" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14434,13 +14449,13 @@
         <v>1284</v>
       </c>
       <c r="F328" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G328" t="s">
-        <v>1497</v>
+        <v>1502</v>
       </c>
       <c r="H328" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14460,13 +14475,13 @@
         <v>1309</v>
       </c>
       <c r="F329" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G329" t="s">
-        <v>1710</v>
+        <v>1715</v>
       </c>
       <c r="H329" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14486,13 +14501,13 @@
         <v>1278</v>
       </c>
       <c r="F330" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G330" t="s">
-        <v>1711</v>
+        <v>1716</v>
       </c>
       <c r="H330" t="s">
-        <v>1822</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14518,7 +14533,7 @@
         <v>952</v>
       </c>
       <c r="H331" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14544,7 +14559,7 @@
         <v>1093</v>
       </c>
       <c r="H332" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14564,13 +14579,13 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G333" t="s">
-        <v>1712</v>
+        <v>1717</v>
       </c>
       <c r="H333" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14593,10 +14608,10 @@
         <v>1360</v>
       </c>
       <c r="G334" t="s">
-        <v>1713</v>
+        <v>1718</v>
       </c>
       <c r="H334" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14616,13 +14631,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="G335" t="s">
-        <v>1714</v>
+        <v>1719</v>
       </c>
       <c r="H335" t="s">
-        <v>1837</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14642,13 +14657,13 @@
         <v>1284</v>
       </c>
       <c r="F336" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G336" t="s">
-        <v>1715</v>
+        <v>1720</v>
       </c>
       <c r="H336" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14668,13 +14683,13 @@
         <v>1296</v>
       </c>
       <c r="F337" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="G337" t="s">
-        <v>1716</v>
+        <v>1721</v>
       </c>
       <c r="H337" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14694,13 +14709,13 @@
         <v>1284</v>
       </c>
       <c r="F338" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="G338" t="s">
-        <v>1717</v>
+        <v>1722</v>
       </c>
       <c r="H338" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14726,7 +14741,7 @@
         <v>972</v>
       </c>
       <c r="H339" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14749,10 +14764,10 @@
         <v>1284</v>
       </c>
       <c r="G340" t="s">
-        <v>1718</v>
+        <v>1723</v>
       </c>
       <c r="H340" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14772,13 +14787,13 @@
         <v>1321</v>
       </c>
       <c r="F341" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="G341" t="s">
-        <v>1719</v>
+        <v>1724</v>
       </c>
       <c r="H341" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14798,13 +14813,13 @@
         <v>1310</v>
       </c>
       <c r="F342" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="G342" t="s">
-        <v>1720</v>
+        <v>1725</v>
       </c>
       <c r="H342" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14824,13 +14839,13 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1373</v>
+        <v>1398</v>
       </c>
       <c r="G343" t="s">
-        <v>1721</v>
+        <v>1726</v>
       </c>
       <c r="H343" t="s">
-        <v>1822</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14850,13 +14865,13 @@
         <v>1296</v>
       </c>
       <c r="F344" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="G344" t="s">
-        <v>1706</v>
+        <v>1711</v>
       </c>
       <c r="H344" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14876,13 +14891,13 @@
         <v>1275</v>
       </c>
       <c r="F345" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="G345" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="H345" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14905,10 +14920,10 @@
         <v>1293</v>
       </c>
       <c r="G346" t="s">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="H346" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14928,13 +14943,13 @@
         <v>1316</v>
       </c>
       <c r="F347" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="G347" t="s">
-        <v>1724</v>
+        <v>1729</v>
       </c>
       <c r="H347" t="s">
-        <v>1838</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14954,13 +14969,13 @@
         <v>1275</v>
       </c>
       <c r="F348" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G348" t="s">
-        <v>1487</v>
+        <v>1492</v>
       </c>
       <c r="H348" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14980,13 +14995,13 @@
         <v>1299</v>
       </c>
       <c r="F349" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="G349" t="s">
-        <v>1725</v>
+        <v>1730</v>
       </c>
       <c r="H349" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -15006,13 +15021,13 @@
         <v>1323</v>
       </c>
       <c r="F350" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="G350" t="s">
-        <v>1726</v>
+        <v>1731</v>
       </c>
       <c r="H350" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -15032,13 +15047,13 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="G351" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
       <c r="H351" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -15058,13 +15073,13 @@
         <v>1299</v>
       </c>
       <c r="F352" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="G352" t="s">
-        <v>1727</v>
+        <v>1732</v>
       </c>
       <c r="H352" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -15087,10 +15102,10 @@
         <v>1344</v>
       </c>
       <c r="G353" t="s">
-        <v>1728</v>
+        <v>1733</v>
       </c>
       <c r="H353" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15116,7 +15131,7 @@
         <v>955</v>
       </c>
       <c r="H354" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15136,13 +15151,13 @@
         <v>1297</v>
       </c>
       <c r="F355" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G355" t="s">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="H355" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15162,13 +15177,13 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1343</v>
+        <v>1368</v>
       </c>
       <c r="G356" t="s">
-        <v>1487</v>
+        <v>1492</v>
       </c>
       <c r="H356" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15188,13 +15203,13 @@
         <v>1278</v>
       </c>
       <c r="F357" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="G357" t="s">
-        <v>1676</v>
+        <v>1681</v>
       </c>
       <c r="H357" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15214,13 +15229,13 @@
         <v>1321</v>
       </c>
       <c r="F358" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="G358" t="s">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="H358" t="s">
-        <v>1826</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15240,13 +15255,13 @@
         <v>1284</v>
       </c>
       <c r="F359" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="G359" t="s">
-        <v>1731</v>
+        <v>1736</v>
       </c>
       <c r="H359" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15266,13 +15281,13 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="G360" t="s">
-        <v>1732</v>
+        <v>1737</v>
       </c>
       <c r="H360" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15292,13 +15307,13 @@
         <v>1324</v>
       </c>
       <c r="F361" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="G361" t="s">
-        <v>1733</v>
+        <v>1738</v>
       </c>
       <c r="H361" t="s">
-        <v>1839</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15318,13 +15333,13 @@
         <v>1297</v>
       </c>
       <c r="F362" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="G362" t="s">
-        <v>1734</v>
+        <v>1739</v>
       </c>
       <c r="H362" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15347,10 +15362,10 @@
         <v>1284</v>
       </c>
       <c r="G363" t="s">
-        <v>1735</v>
+        <v>1740</v>
       </c>
       <c r="H363" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15370,13 +15385,13 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="G364" t="s">
-        <v>1736</v>
+        <v>1741</v>
       </c>
       <c r="H364" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15399,10 +15414,10 @@
         <v>1337</v>
       </c>
       <c r="G365" t="s">
-        <v>1737</v>
+        <v>1742</v>
       </c>
       <c r="H365" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15422,13 +15437,13 @@
         <v>1285</v>
       </c>
       <c r="F366" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="G366" t="s">
-        <v>1738</v>
+        <v>1743</v>
       </c>
       <c r="H366" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15448,13 +15463,13 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="G367" t="s">
-        <v>1739</v>
+        <v>1744</v>
       </c>
       <c r="H367" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15474,13 +15489,13 @@
         <v>1278</v>
       </c>
       <c r="F368" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="G368" t="s">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="H368" t="s">
-        <v>1840</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15500,13 +15515,13 @@
         <v>1293</v>
       </c>
       <c r="F369" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="G369" t="s">
-        <v>1741</v>
+        <v>1746</v>
       </c>
       <c r="H369" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15529,10 +15544,10 @@
         <v>1293</v>
       </c>
       <c r="G370" t="s">
-        <v>1742</v>
+        <v>1747</v>
       </c>
       <c r="H370" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15555,10 +15570,10 @@
         <v>1337</v>
       </c>
       <c r="G371" t="s">
-        <v>1541</v>
+        <v>1546</v>
       </c>
       <c r="H371" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15578,13 +15593,13 @@
         <v>1297</v>
       </c>
       <c r="F372" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="G372" t="s">
-        <v>1743</v>
+        <v>1748</v>
       </c>
       <c r="H372" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15604,13 +15619,13 @@
         <v>1321</v>
       </c>
       <c r="F373" t="s">
-        <v>1337</v>
+        <v>1346</v>
       </c>
       <c r="G373" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="H373" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15630,13 +15645,13 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G374" t="s">
-        <v>1745</v>
+        <v>1750</v>
       </c>
       <c r="H374" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15659,10 +15674,10 @@
         <v>1277</v>
       </c>
       <c r="G375" t="s">
-        <v>1746</v>
+        <v>1751</v>
       </c>
       <c r="H375" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15682,13 +15697,13 @@
         <v>1284</v>
       </c>
       <c r="F376" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="G376" t="s">
-        <v>1747</v>
+        <v>1752</v>
       </c>
       <c r="H376" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15711,10 +15726,10 @@
         <v>1284</v>
       </c>
       <c r="G377" t="s">
-        <v>1748</v>
+        <v>1753</v>
       </c>
       <c r="H377" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15734,7 +15749,7 @@
         <v>1284</v>
       </c>
       <c r="H378" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15757,10 +15772,10 @@
         <v>1284</v>
       </c>
       <c r="G379" t="s">
-        <v>1749</v>
+        <v>1754</v>
       </c>
       <c r="H379" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15780,13 +15795,13 @@
         <v>1278</v>
       </c>
       <c r="F380" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="G380" t="s">
-        <v>1750</v>
+        <v>1755</v>
       </c>
       <c r="H380" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15806,13 +15821,13 @@
         <v>1278</v>
       </c>
       <c r="F381" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="G381" t="s">
-        <v>1751</v>
+        <v>1756</v>
       </c>
       <c r="H381" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15832,13 +15847,13 @@
         <v>1284</v>
       </c>
       <c r="F382" t="s">
-        <v>1369</v>
+        <v>1346</v>
       </c>
       <c r="G382" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
       <c r="H382" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15858,13 +15873,13 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="G383" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
       <c r="H383" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15890,7 +15905,7 @@
         <v>1069</v>
       </c>
       <c r="H384" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15913,10 +15928,10 @@
         <v>1293</v>
       </c>
       <c r="G385" t="s">
-        <v>1650</v>
+        <v>1655</v>
       </c>
       <c r="H385" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15936,13 +15951,13 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="G386" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
       <c r="H386" t="s">
-        <v>1841</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15962,13 +15977,13 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="G387" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
       <c r="H387" t="s">
-        <v>1832</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15988,13 +16003,13 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G388" t="s">
-        <v>1654</v>
+        <v>1659</v>
       </c>
       <c r="H388" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -16014,13 +16029,13 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G389" t="s">
-        <v>1711</v>
+        <v>1716</v>
       </c>
       <c r="H389" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -16040,13 +16055,13 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="G390" t="s">
-        <v>1756</v>
+        <v>1761</v>
       </c>
       <c r="H390" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -16066,13 +16081,13 @@
         <v>1293</v>
       </c>
       <c r="F391" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G391" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
       <c r="H391" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -16092,13 +16107,13 @@
         <v>1282</v>
       </c>
       <c r="F392" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G392" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
       <c r="H392" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16118,13 +16133,13 @@
         <v>1284</v>
       </c>
       <c r="F393" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G393" t="s">
-        <v>1598</v>
+        <v>1603</v>
       </c>
       <c r="H393" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16144,13 +16159,13 @@
         <v>1294</v>
       </c>
       <c r="F394" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="G394" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
       <c r="H394" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16176,7 +16191,7 @@
         <v>972</v>
       </c>
       <c r="H395" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16199,10 +16214,10 @@
         <v>1284</v>
       </c>
       <c r="G396" t="s">
-        <v>1525</v>
+        <v>1530</v>
       </c>
       <c r="H396" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16222,13 +16237,13 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G397" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
       <c r="H397" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16248,13 +16263,13 @@
         <v>1284</v>
       </c>
       <c r="F398" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G398" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
       <c r="H398" t="s">
-        <v>1826</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16274,13 +16289,13 @@
         <v>1284</v>
       </c>
       <c r="F399" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="G399" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
       <c r="H399" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16300,13 +16315,13 @@
         <v>1284</v>
       </c>
       <c r="F400" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="G400" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
       <c r="H400" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16326,13 +16341,13 @@
         <v>1278</v>
       </c>
       <c r="F401" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="G401" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
       <c r="H401" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16358,7 +16373,7 @@
         <v>1093</v>
       </c>
       <c r="H402" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16384,7 +16399,7 @@
         <v>972</v>
       </c>
       <c r="H403" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16404,13 +16419,13 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="G404" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
       <c r="H404" t="s">
-        <v>1842</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16433,10 +16448,10 @@
         <v>1337</v>
       </c>
       <c r="G405" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
       <c r="H405" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16456,13 +16471,13 @@
         <v>1293</v>
       </c>
       <c r="F406" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G406" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
       <c r="H406" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16485,10 +16500,10 @@
         <v>1284</v>
       </c>
       <c r="G407" t="s">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="H407" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16508,13 +16523,13 @@
         <v>1278</v>
       </c>
       <c r="F408" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G408" t="s">
-        <v>1768</v>
+        <v>1773</v>
       </c>
       <c r="H408" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16534,13 +16549,13 @@
         <v>1324</v>
       </c>
       <c r="F409" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="G409" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
       <c r="H409" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16560,13 +16575,13 @@
         <v>1284</v>
       </c>
       <c r="F410" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="G410" t="s">
-        <v>1770</v>
+        <v>1775</v>
       </c>
       <c r="H410" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16586,13 +16601,13 @@
         <v>1293</v>
       </c>
       <c r="F411" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="G411" t="s">
-        <v>1771</v>
+        <v>1776</v>
       </c>
       <c r="H411" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16615,10 +16630,10 @@
         <v>1284</v>
       </c>
       <c r="G412" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
       <c r="H412" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16638,13 +16653,13 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1415</v>
+        <v>1460</v>
       </c>
       <c r="G413" t="s">
-        <v>1773</v>
+        <v>1778</v>
       </c>
       <c r="H413" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16670,7 +16685,7 @@
         <v>1235</v>
       </c>
       <c r="H414" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16690,13 +16705,13 @@
         <v>1323</v>
       </c>
       <c r="F415" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="G415" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
       <c r="H415" t="s">
-        <v>1829</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16716,13 +16731,13 @@
         <v>1284</v>
       </c>
       <c r="F416" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="G416" t="s">
-        <v>1525</v>
+        <v>1530</v>
       </c>
       <c r="H416" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16742,13 +16757,13 @@
         <v>1311</v>
       </c>
       <c r="F417" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G417" t="s">
-        <v>1711</v>
+        <v>1716</v>
       </c>
       <c r="H417" t="s">
-        <v>1828</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16768,13 +16783,13 @@
         <v>1284</v>
       </c>
       <c r="F418" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="G418" t="s">
-        <v>1775</v>
+        <v>1780</v>
       </c>
       <c r="H418" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16794,13 +16809,13 @@
         <v>1329</v>
       </c>
       <c r="F419" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="G419" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
       <c r="H419" t="s">
-        <v>1843</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16820,13 +16835,13 @@
         <v>1284</v>
       </c>
       <c r="F420" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G420" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
       <c r="H420" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16849,10 +16864,10 @@
         <v>1336</v>
       </c>
       <c r="G421" t="s">
-        <v>1778</v>
+        <v>1783</v>
       </c>
       <c r="H421" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16875,10 +16890,10 @@
         <v>1337</v>
       </c>
       <c r="G422" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="H422" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16898,13 +16913,13 @@
         <v>1294</v>
       </c>
       <c r="F423" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G423" t="s">
-        <v>1711</v>
+        <v>1716</v>
       </c>
       <c r="H423" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16924,13 +16939,13 @@
         <v>1284</v>
       </c>
       <c r="F424" t="s">
-        <v>1458</v>
+        <v>1363</v>
       </c>
       <c r="G424" t="s">
-        <v>1779</v>
+        <v>1784</v>
       </c>
       <c r="H424" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16950,13 +16965,13 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1418</v>
+        <v>1390</v>
       </c>
       <c r="G425" t="s">
-        <v>1780</v>
+        <v>1785</v>
       </c>
       <c r="H425" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16976,13 +16991,13 @@
         <v>1285</v>
       </c>
       <c r="F426" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G426" t="s">
-        <v>1711</v>
+        <v>1716</v>
       </c>
       <c r="H426" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -17008,7 +17023,7 @@
         <v>1069</v>
       </c>
       <c r="H427" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -17034,7 +17049,7 @@
         <v>1246</v>
       </c>
       <c r="H428" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -17060,7 +17075,7 @@
         <v>1069</v>
       </c>
       <c r="H429" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -17080,13 +17095,13 @@
         <v>1329</v>
       </c>
       <c r="F430" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="G430" t="s">
-        <v>1781</v>
+        <v>1786</v>
       </c>
       <c r="H430" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17109,10 +17124,10 @@
         <v>1284</v>
       </c>
       <c r="G431" t="s">
-        <v>1589</v>
+        <v>1594</v>
       </c>
       <c r="H431" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17132,13 +17147,13 @@
         <v>1278</v>
       </c>
       <c r="F432" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="G432" t="s">
-        <v>1782</v>
+        <v>1787</v>
       </c>
       <c r="H432" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17158,13 +17173,13 @@
         <v>1284</v>
       </c>
       <c r="F433" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="G433" t="s">
-        <v>1783</v>
+        <v>1788</v>
       </c>
       <c r="H433" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17184,13 +17199,13 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1398</v>
+        <v>1462</v>
       </c>
       <c r="G434" t="s">
-        <v>1784</v>
+        <v>1789</v>
       </c>
       <c r="H434" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17213,10 +17228,10 @@
         <v>1284</v>
       </c>
       <c r="G435" t="s">
-        <v>1785</v>
+        <v>1790</v>
       </c>
       <c r="H435" t="s">
-        <v>1844</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17236,13 +17251,13 @@
         <v>1296</v>
       </c>
       <c r="F436" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="G436" t="s">
-        <v>1786</v>
+        <v>1791</v>
       </c>
       <c r="H436" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17262,13 +17277,13 @@
         <v>1293</v>
       </c>
       <c r="F437" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="G437" t="s">
-        <v>1787</v>
+        <v>1792</v>
       </c>
       <c r="H437" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17291,10 +17306,10 @@
         <v>1337</v>
       </c>
       <c r="G438" t="s">
-        <v>1788</v>
+        <v>1793</v>
       </c>
       <c r="H438" t="s">
-        <v>1840</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17314,13 +17329,13 @@
         <v>1284</v>
       </c>
       <c r="F439" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="G439" t="s">
-        <v>1789</v>
+        <v>1794</v>
       </c>
       <c r="H439" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17343,10 +17358,10 @@
         <v>1344</v>
       </c>
       <c r="G440" t="s">
-        <v>1790</v>
+        <v>1795</v>
       </c>
       <c r="H440" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17366,13 +17381,13 @@
         <v>1293</v>
       </c>
       <c r="F441" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="G441" t="s">
-        <v>1791</v>
+        <v>1796</v>
       </c>
       <c r="H441" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17392,13 +17407,13 @@
         <v>1284</v>
       </c>
       <c r="F442" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G442" t="s">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="H442" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17418,13 +17433,13 @@
         <v>1278</v>
       </c>
       <c r="F443" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G443" t="s">
-        <v>1792</v>
+        <v>1797</v>
       </c>
       <c r="H443" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17444,13 +17459,13 @@
         <v>1278</v>
       </c>
       <c r="F444" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="G444" t="s">
-        <v>1793</v>
+        <v>1798</v>
       </c>
       <c r="H444" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17470,13 +17485,13 @@
         <v>1278</v>
       </c>
       <c r="F445" t="s">
-        <v>1354</v>
+        <v>1384</v>
       </c>
       <c r="G445" t="s">
-        <v>1794</v>
+        <v>1799</v>
       </c>
       <c r="H445" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17499,10 +17514,10 @@
         <v>1337</v>
       </c>
       <c r="G446" t="s">
-        <v>1795</v>
+        <v>1800</v>
       </c>
       <c r="H446" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17522,13 +17537,13 @@
         <v>1293</v>
       </c>
       <c r="F447" t="s">
-        <v>1432</v>
+        <v>1351</v>
       </c>
       <c r="G447" t="s">
-        <v>1796</v>
+        <v>1801</v>
       </c>
       <c r="H447" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17548,13 +17563,13 @@
         <v>1278</v>
       </c>
       <c r="F448" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G448" t="s">
-        <v>1797</v>
+        <v>1802</v>
       </c>
       <c r="H448" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17574,13 +17589,13 @@
         <v>1331</v>
       </c>
       <c r="F449" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="G449" t="s">
-        <v>1798</v>
+        <v>1803</v>
       </c>
       <c r="H449" t="s">
-        <v>1845</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17600,13 +17615,13 @@
         <v>1278</v>
       </c>
       <c r="F450" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="G450" t="s">
-        <v>1799</v>
+        <v>1804</v>
       </c>
       <c r="H450" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17629,10 +17644,10 @@
         <v>1337</v>
       </c>
       <c r="G451" t="s">
-        <v>1800</v>
+        <v>1805</v>
       </c>
       <c r="H451" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17652,13 +17667,13 @@
         <v>1284</v>
       </c>
       <c r="F452" t="s">
-        <v>1459</v>
+        <v>1467</v>
       </c>
       <c r="G452" t="s">
-        <v>1801</v>
+        <v>1806</v>
       </c>
       <c r="H452" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17681,10 +17696,10 @@
         <v>1344</v>
       </c>
       <c r="G453" t="s">
-        <v>1802</v>
+        <v>1807</v>
       </c>
       <c r="H453" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17704,13 +17719,13 @@
         <v>1321</v>
       </c>
       <c r="F454" t="s">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="G454" t="s">
-        <v>1803</v>
+        <v>1808</v>
       </c>
       <c r="H454" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17730,13 +17745,13 @@
         <v>1293</v>
       </c>
       <c r="F455" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
       <c r="G455" t="s">
-        <v>1804</v>
+        <v>1809</v>
       </c>
       <c r="H455" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17756,13 +17771,13 @@
         <v>1332</v>
       </c>
       <c r="F456" t="s">
-        <v>1465</v>
+        <v>1470</v>
       </c>
       <c r="G456" t="s">
-        <v>1805</v>
+        <v>1810</v>
       </c>
       <c r="H456" t="s">
-        <v>1832</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17782,13 +17797,13 @@
         <v>1333</v>
       </c>
       <c r="F457" t="s">
-        <v>1466</v>
+        <v>1471</v>
       </c>
       <c r="G457" t="s">
-        <v>1806</v>
+        <v>1811</v>
       </c>
       <c r="H457" t="s">
-        <v>1837</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17808,13 +17823,13 @@
         <v>1278</v>
       </c>
       <c r="F458" t="s">
-        <v>1467</v>
+        <v>1472</v>
       </c>
       <c r="G458" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="H458" t="s">
-        <v>1835</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17834,13 +17849,13 @@
         <v>1278</v>
       </c>
       <c r="F459" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="G459" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="H459" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17860,13 +17875,13 @@
         <v>1334</v>
       </c>
       <c r="F460" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G460" t="s">
-        <v>1547</v>
+        <v>1552</v>
       </c>
       <c r="H460" t="s">
-        <v>1846</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17886,13 +17901,13 @@
         <v>1293</v>
       </c>
       <c r="F461" t="s">
-        <v>1468</v>
+        <v>1473</v>
       </c>
       <c r="G461" t="s">
-        <v>1809</v>
+        <v>1814</v>
       </c>
       <c r="H461" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17915,10 +17930,10 @@
         <v>1344</v>
       </c>
       <c r="G462" t="s">
-        <v>1810</v>
+        <v>1815</v>
       </c>
       <c r="H462" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17938,13 +17953,13 @@
         <v>1321</v>
       </c>
       <c r="F463" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="G463" t="s">
-        <v>1706</v>
+        <v>1711</v>
       </c>
       <c r="H463" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -17970,7 +17985,7 @@
         <v>972</v>
       </c>
       <c r="H464" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17993,10 +18008,10 @@
         <v>1337</v>
       </c>
       <c r="G465" t="s">
-        <v>1508</v>
+        <v>1513</v>
       </c>
       <c r="H465" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
     </row>
   </sheetData>
